--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4E0FE-4BBF-461F-AA96-D7BD59634B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59881AD-864E-4BE1-879A-B3F86B5C386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="519">
   <si>
     <t>Grupo</t>
   </si>
@@ -1712,7 +1712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1769,6 +1769,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2080,16 +2083,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B169"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170:H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6472,6 +6479,448 @@
       </c>
       <c r="H169">
         <v>2566.666666666667</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>292</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C170" s="21">
+        <v>60</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="21">
+        <v>85</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" s="21">
+        <v>25</v>
+      </c>
+      <c r="H170" s="21">
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>292</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C171" s="21">
+        <v>40</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="21">
+        <v>69</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="21">
+        <v>29</v>
+      </c>
+      <c r="H171" s="21">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>292</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C172" s="21">
+        <v>52</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="21">
+        <v>75</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="21">
+        <v>23</v>
+      </c>
+      <c r="H172" s="21">
+        <v>44.230769230769234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>292</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C173" s="21">
+        <v>37</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="21">
+        <v>75</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="21">
+        <v>38</v>
+      </c>
+      <c r="H173" s="21">
+        <v>102.70270270270269</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>292</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C174" s="21">
+        <v>30</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="21">
+        <v>60</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="21">
+        <v>30</v>
+      </c>
+      <c r="H174" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>292</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C175" s="21">
+        <v>29</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="21">
+        <v>58</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="21">
+        <v>29</v>
+      </c>
+      <c r="H175" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>292</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" s="21">
+        <v>21</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="21">
+        <v>55</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="21">
+        <v>34</v>
+      </c>
+      <c r="H176" s="21">
+        <v>161.9047619047619</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>292</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C177" s="21">
+        <v>25</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="21">
+        <v>62</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="21">
+        <v>37</v>
+      </c>
+      <c r="H177" s="21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>292</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C178" s="21">
+        <v>34</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="21">
+        <v>62</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="21">
+        <v>28</v>
+      </c>
+      <c r="H178" s="21">
+        <v>82.35294117647058</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>292</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C179" s="21">
+        <v>42</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="21">
+        <v>79</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="21">
+        <v>37</v>
+      </c>
+      <c r="H179" s="21">
+        <v>88.095238095238088</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>292</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C180" s="21">
+        <v>27</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="21">
+        <v>81</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="21">
+        <v>54</v>
+      </c>
+      <c r="H180" s="21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>292</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C181" s="21">
+        <v>41</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="21">
+        <v>76</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="21">
+        <v>35</v>
+      </c>
+      <c r="H181" s="21">
+        <v>85.365853658536579</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>292</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C182" s="21">
+        <v>13</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="21">
+        <v>55</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="21">
+        <v>42</v>
+      </c>
+      <c r="H182" s="21">
+        <v>323.07692307692309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>292</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" s="21">
+        <v>27</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="21">
+        <v>50</v>
+      </c>
+      <c r="F183" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183" s="21">
+        <v>23</v>
+      </c>
+      <c r="H183" s="21">
+        <v>85.18518518518519</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>292</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C184" s="21">
+        <v>20</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="21">
+        <v>56</v>
+      </c>
+      <c r="F184" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="21">
+        <v>36</v>
+      </c>
+      <c r="H184" s="21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>292</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C185" s="21">
+        <v>50</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="21">
+        <v>77</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="21">
+        <v>27</v>
+      </c>
+      <c r="H185" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>292</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C186" s="21">
+        <v>21</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="21">
+        <v>57</v>
+      </c>
+      <c r="F186" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="21">
+        <v>36</v>
+      </c>
+      <c r="H186" s="21">
+        <v>171.42857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -6484,11 +6933,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -6926,43 +7382,85 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="C32" s="21">
+        <v>8</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>133</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C33" s="21">
+        <v>8</v>
+      </c>
+      <c r="D33" s="21">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="21">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>192</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>133</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>34</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>57</v>
       </c>
     </row>
@@ -6976,11 +7474,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -7204,21 +7712,41 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>199</v>
       </c>
       <c r="C12">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>106</v>
+      </c>
+      <c r="F12">
+        <v>112.7659574468085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13">
         <v>254</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1567</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1313</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>516.92913385826773</v>
       </c>
     </row>
@@ -7234,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59881AD-864E-4BE1-879A-B3F86B5C386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808476B4-3808-4A2D-A463-F9BB44337EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,16 @@
     <sheet name="financeiro_master" sheetId="3" r:id="rId3"/>
     <sheet name="questionario" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">niveis_master!$A$1:$D$40</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="521">
   <si>
     <t>Grupo</t>
   </si>
@@ -1582,6 +1586,12 @@
   </si>
   <si>
     <t>TIAGO PITOL FRIZON</t>
+  </si>
+  <si>
+    <t>COTRIJUC</t>
+  </si>
+  <si>
+    <t>COTRISAL</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2083,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170:H186"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3499,530 +3509,536 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55">
-        <v>35</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <v>74</v>
-      </c>
-      <c r="F55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="21">
+        <v>60</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G55">
-        <v>39</v>
-      </c>
-      <c r="H55">
-        <v>111.4285714285714</v>
+      <c r="E55" s="21">
+        <v>85</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="21">
+        <v>25</v>
+      </c>
+      <c r="H55" s="21">
+        <v>41.666666666666671</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="21">
+        <v>40</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="21">
         <v>69</v>
       </c>
-      <c r="C56">
-        <v>41</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56">
-        <v>80</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="F56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G56">
-        <v>39</v>
-      </c>
-      <c r="H56">
-        <v>95.121951219512198</v>
+      <c r="G56" s="21">
+        <v>29</v>
+      </c>
+      <c r="H56" s="21">
+        <v>72.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>71</v>
-      </c>
-      <c r="F57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="21">
+        <v>52</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="21">
+        <v>75</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G57">
-        <v>71</v>
+      <c r="G57" s="21">
+        <v>23</v>
+      </c>
+      <c r="H57" s="21">
+        <v>44.230769230769234</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58">
-        <v>53</v>
-      </c>
-      <c r="F58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="21">
+        <v>37</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G58">
-        <v>32</v>
-      </c>
-      <c r="H58">
-        <v>152.38095238095241</v>
+      <c r="E58" s="21">
+        <v>75</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="21">
+        <v>38</v>
+      </c>
+      <c r="H58" s="21">
+        <v>102.70270270270269</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59">
-        <v>38</v>
-      </c>
-      <c r="D59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" s="21">
+        <v>30</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E59">
-        <v>76</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E59" s="21">
+        <v>60</v>
+      </c>
+      <c r="F59" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G59">
-        <v>38</v>
-      </c>
-      <c r="H59">
+      <c r="G59" s="21">
+        <v>30</v>
+      </c>
+      <c r="H59" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>52</v>
-      </c>
-      <c r="F60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" s="21">
+        <v>29</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="21">
+        <v>58</v>
+      </c>
+      <c r="F60" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G60">
-        <v>35</v>
-      </c>
-      <c r="H60">
-        <v>205.88235294117649</v>
+      <c r="G60" s="21">
+        <v>29</v>
+      </c>
+      <c r="H60" s="21">
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61">
-        <v>28</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61">
-        <v>59</v>
-      </c>
-      <c r="F61" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" s="21">
+        <v>21</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="21">
+        <v>55</v>
+      </c>
+      <c r="F61" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G61">
-        <v>31</v>
-      </c>
-      <c r="H61">
-        <v>110.71428571428569</v>
+      <c r="G61" s="21">
+        <v>34</v>
+      </c>
+      <c r="H61" s="21">
+        <v>161.9047619047619</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62">
-        <v>38</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62">
-        <v>78</v>
-      </c>
-      <c r="F62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="21">
+        <v>25</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="21">
+        <v>62</v>
+      </c>
+      <c r="F62" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G62">
-        <v>40</v>
-      </c>
-      <c r="H62">
-        <v>105.26315789473681</v>
+      <c r="G62" s="21">
+        <v>37</v>
+      </c>
+      <c r="H62" s="21">
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63">
-        <v>38</v>
-      </c>
-      <c r="D63" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" s="21">
+        <v>34</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E63">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="21">
+        <v>62</v>
+      </c>
+      <c r="F63" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G63">
-        <v>36</v>
-      </c>
-      <c r="H63">
-        <v>94.73684210526315</v>
+      <c r="G63" s="21">
+        <v>28</v>
+      </c>
+      <c r="H63" s="21">
+        <v>82.35294117647058</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64">
-        <v>35</v>
-      </c>
-      <c r="D64" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" s="21">
+        <v>42</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E64">
-        <v>77</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="21">
+        <v>79</v>
+      </c>
+      <c r="F64" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G64">
-        <v>42</v>
-      </c>
-      <c r="H64">
-        <v>120</v>
+      <c r="G64" s="21">
+        <v>37</v>
+      </c>
+      <c r="H64" s="21">
+        <v>88.095238095238088</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65">
-        <v>36</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65">
-        <v>76</v>
-      </c>
-      <c r="F65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" s="21">
+        <v>27</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="21">
+        <v>81</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G65">
-        <v>40</v>
-      </c>
-      <c r="H65">
-        <v>111.1111111111111</v>
+      <c r="G65" s="21">
+        <v>54</v>
+      </c>
+      <c r="H65" s="21">
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <v>60</v>
-      </c>
-      <c r="F66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="21">
+        <v>41</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="21">
+        <v>76</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G66">
-        <v>38</v>
-      </c>
-      <c r="H66">
-        <v>172.72727272727269</v>
+      <c r="G66" s="21">
+        <v>35</v>
+      </c>
+      <c r="H66" s="21">
+        <v>85.365853658536579</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67">
-        <v>48</v>
-      </c>
-      <c r="F67" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C67" s="21">
+        <v>13</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="21">
+        <v>55</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G67">
-        <v>33</v>
-      </c>
-      <c r="H67">
-        <v>220</v>
+      <c r="G67" s="21">
+        <v>42</v>
+      </c>
+      <c r="H67" s="21">
+        <v>323.07692307692309</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68">
-        <v>43</v>
-      </c>
-      <c r="D68" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="21">
+        <v>27</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="21">
+        <v>50</v>
+      </c>
+      <c r="F68" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E68">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68">
-        <v>35</v>
-      </c>
-      <c r="H68">
-        <v>81.395348837209298</v>
+      <c r="G68" s="21">
+        <v>23</v>
+      </c>
+      <c r="H68" s="21">
+        <v>85.18518518518519</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69">
-        <v>40</v>
-      </c>
-      <c r="D69" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" s="21">
+        <v>20</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="21">
+        <v>56</v>
+      </c>
+      <c r="F69" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E69">
-        <v>76</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69">
+      <c r="G69" s="21">
         <v>36</v>
       </c>
-      <c r="H69">
-        <v>90</v>
+      <c r="H69" s="21">
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70">
-        <v>38</v>
-      </c>
-      <c r="F70" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="21">
+        <v>50</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G70">
-        <v>24</v>
-      </c>
-      <c r="H70">
-        <v>171.42857142857139</v>
+      <c r="E70" s="21">
+        <v>77</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="21">
+        <v>27</v>
+      </c>
+      <c r="H70" s="21">
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>18</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <v>12</v>
-      </c>
-      <c r="H71">
-        <v>200</v>
+        <v>292</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C71" s="21">
+        <v>21</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="21">
+        <v>57</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="21">
+        <v>36</v>
+      </c>
+      <c r="H71" s="21">
+        <v>171.42857142857139</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
       <c r="E72">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
       <c r="G72">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>300</v>
+        <v>210.5263157894737</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H73">
-        <v>500</v>
+        <v>119.2307692307692</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="H74">
+        <v>111.4285714285714</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C75">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75">
         <v>80</v>
@@ -4031,616 +4047,610 @@
         <v>13</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>11.111111111111111</v>
+        <v>95.121951219512198</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
       </c>
       <c r="E76">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
       </c>
       <c r="G76">
-        <v>55</v>
-      </c>
-      <c r="H76">
-        <v>261.90476190476193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G77">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>107.1428571428571</v>
+        <v>152.38095238095241</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
       </c>
       <c r="E78">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
       </c>
       <c r="G78">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>143.33333333333329</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>52</v>
+      </c>
+      <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79">
-        <v>23</v>
-      </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
       <c r="G79">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>109.09090909090909</v>
+        <v>205.88235294117649</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
       <c r="E80">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
       </c>
       <c r="G80">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>266.66666666666657</v>
+        <v>110.71428571428569</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G81">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>250</v>
+        <v>105.26315789473681</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G82">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>200</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
       </c>
       <c r="E83">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
       </c>
       <c r="G83">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H83">
-        <v>129.0322580645161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
       </c>
       <c r="G84">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>180.7692307692308</v>
+        <v>111.1111111111111</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
       </c>
       <c r="E85">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G85">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>466.66666666666669</v>
+        <v>172.72727272727269</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C86">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="E86">
-        <v>83</v>
-      </c>
-      <c r="F86" t="s">
-        <v>13</v>
-      </c>
       <c r="G86">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H86">
-        <v>176.66666666666671</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
       <c r="G87">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <v>222.72727272727269</v>
+        <v>81.395348837209298</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
       <c r="G88">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>500</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C89">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="E89">
-        <v>80</v>
-      </c>
-      <c r="F89" t="s">
-        <v>13</v>
-      </c>
       <c r="G89">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H89">
-        <v>142.42424242424241</v>
+        <v>171.42857142857139</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
       </c>
       <c r="E90">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H90">
-        <v>637.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
       </c>
       <c r="E91">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
       </c>
       <c r="G91">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H91">
-        <v>145</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
       <c r="E92">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
       <c r="G92">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H92">
-        <v>246.66666666666671</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C93">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
       </c>
       <c r="E93">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>53</v>
-      </c>
-      <c r="H93">
-        <v>252.38095238095241</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
       </c>
       <c r="G94">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="H94">
-        <v>225</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
       <c r="E95">
+        <v>76</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95">
         <v>55</v>
       </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95">
-        <v>39</v>
-      </c>
       <c r="H95">
-        <v>243.75</v>
+        <v>261.90476190476193</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
       </c>
       <c r="E96">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H96">
-        <v>2650</v>
+        <v>107.1428571428571</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C97">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>255</v>
+        <v>143.33333333333329</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
       </c>
       <c r="E98">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H98">
-        <v>430.76923076923077</v>
+        <v>109.09090909090909</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -4649,492 +4659,492 @@
         <v>10</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
       </c>
       <c r="G99">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H99">
-        <v>455.55555555555549</v>
+        <v>266.66666666666657</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C100">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
       </c>
       <c r="E100">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G100">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H100">
-        <v>144.82758620689651</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
       </c>
       <c r="E101">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G101">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H101">
-        <v>186.95652173913041</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>519</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C102">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
       </c>
       <c r="E102">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G102">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H102">
-        <v>88.461538461538453</v>
+        <v>189.65517241379311</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>519</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C103">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
       </c>
       <c r="E103">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
       </c>
       <c r="G103">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H103">
-        <v>284.21052631578948</v>
+        <v>265.21739130434781</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C104">
+        <v>49</v>
+      </c>
+      <c r="D104" t="s">
         <v>11</v>
       </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
       <c r="E104">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
       </c>
       <c r="G104">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>572.72727272727275</v>
+        <v>67.346938775510196</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C105">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
       </c>
       <c r="E105">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H105">
-        <v>288.88888888888891</v>
+        <v>326.66666666666669</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C106">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G106">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H106">
-        <v>307.14285714285722</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="C107">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H107">
-        <v>78.571428571428569</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C108">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H108">
-        <v>57.999999999999993</v>
+        <v>710</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C109">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
       <c r="E109">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
       </c>
       <c r="G109">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H109">
-        <v>165.21739130434781</v>
+        <v>342.10526315789468</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C110">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H110">
-        <v>102.5641025641026</v>
+        <v>966.66666666666663</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C111">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
       </c>
       <c r="E111">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
       </c>
       <c r="G111">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H111">
-        <v>271.42857142857139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="C112">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H112">
-        <v>77.272727272727266</v>
+        <v>326.31578947368422</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="C113">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
       </c>
       <c r="G113">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="H113">
-        <v>60.416666666666657</v>
+        <v>258.33333333333343</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="E114">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
       <c r="G114">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H114">
-        <v>1066.666666666667</v>
+        <v>252.17391304347831</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C115">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="H115">
-        <v>52</v>
+        <v>383.33333333333343</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C116">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
       </c>
       <c r="G116">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H116">
-        <v>34.042553191489361</v>
+        <v>481.81818181818181</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="C117">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
       </c>
       <c r="E117">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>124.24242424242421</v>
+        <v>79.591836734693871</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="C118">
         <v>31</v>
@@ -5143,284 +5153,284 @@
         <v>11</v>
       </c>
       <c r="E118">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H118">
-        <v>132.258064516129</v>
+        <v>161.29032258064521</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="C119">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H119">
-        <v>69.767441860465112</v>
+        <v>2566.666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C120">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>221.0526315789474</v>
+        <v>129.0322580645161</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
       </c>
       <c r="E121">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G121">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H121">
-        <v>273.33333333333331</v>
+        <v>180.7692307692308</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C122">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>51</v>
+      </c>
+      <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="E122">
-        <v>63</v>
-      </c>
-      <c r="F122" t="s">
-        <v>13</v>
-      </c>
       <c r="G122">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H122">
-        <v>70.270270270270274</v>
+        <v>466.66666666666669</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G123">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H123">
-        <v>314.28571428571428</v>
+        <v>176.66666666666671</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C124">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
       </c>
       <c r="G124">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H124">
-        <v>75.609756097560975</v>
+        <v>222.72727272727269</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C125">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
       </c>
       <c r="E125">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G125">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H125">
-        <v>256.25</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G126">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H126">
-        <v>250</v>
+        <v>142.42424242424241</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C127">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>59</v>
+      </c>
+      <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="E127">
-        <v>80</v>
-      </c>
-      <c r="F127" t="s">
-        <v>13</v>
-      </c>
       <c r="G127">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H127">
-        <v>81.818181818181827</v>
+        <v>637.5</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>49</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128">
+        <v>29</v>
+      </c>
+      <c r="H128">
         <v>145</v>
-      </c>
-      <c r="C128">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128">
-        <v>76</v>
-      </c>
-      <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128">
-        <v>61</v>
-      </c>
-      <c r="H128">
-        <v>406.66666666666657</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C129">
         <v>15</v>
@@ -5429,804 +5439,804 @@
         <v>10</v>
       </c>
       <c r="E129">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G129">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>400</v>
+        <v>246.66666666666671</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
       </c>
       <c r="E130">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
       </c>
       <c r="G130">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H130">
-        <v>420</v>
+        <v>252.38095238095241</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C131">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G131">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>51.428571428571423</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C132">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
       </c>
       <c r="E132">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
       </c>
       <c r="G132">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>200</v>
+        <v>243.75</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
       </c>
       <c r="G133">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H133">
-        <v>666.66666666666674</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B134" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C134">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
       </c>
       <c r="E134">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
       <c r="G134">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H134">
-        <v>165.51724137931029</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
       </c>
       <c r="E135">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G135">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H135">
-        <v>177.7777777777778</v>
+        <v>430.76923076923077</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C136">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
       </c>
       <c r="E136">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
       </c>
       <c r="G136">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>86.956521739130437</v>
+        <v>455.55555555555549</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C137">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
       </c>
       <c r="E137">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
       </c>
       <c r="G137">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>169.56521739130429</v>
+        <v>144.82758620689651</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C138">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
       </c>
       <c r="E138">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G138">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H138">
-        <v>176.47058823529409</v>
+        <v>186.95652173913041</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="C139">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H139">
-        <v>19.44444444444445</v>
+        <v>88.461538461538453</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C140">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
       </c>
       <c r="E140">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G140">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H140">
-        <v>86.956521739130437</v>
+        <v>284.21052631578948</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>403</v>
       </c>
       <c r="C141">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
       </c>
       <c r="E141">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
         <v>11</v>
       </c>
       <c r="G141">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H141">
-        <v>117.39130434782609</v>
+        <v>533.33333333333326</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="C142">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
       </c>
       <c r="E142">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
       </c>
       <c r="G142">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>104.3478260869565</v>
+        <v>750</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="C143">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
       </c>
       <c r="E143">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
       </c>
       <c r="G143">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>161.11111111111109</v>
+        <v>825</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>413</v>
       </c>
       <c r="C144">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>37</v>
+      </c>
+      <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="E144">
-        <v>62</v>
-      </c>
-      <c r="F144" t="s">
-        <v>13</v>
-      </c>
       <c r="G144">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>47.619047619047613</v>
+        <v>825</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>405</v>
       </c>
       <c r="C145">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>57</v>
+      </c>
+      <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="E145">
-        <v>62</v>
-      </c>
-      <c r="F145" t="s">
-        <v>13</v>
-      </c>
       <c r="G145">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>47.619047619047613</v>
+        <v>338.46153846153851</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>406</v>
       </c>
       <c r="C146">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
       </c>
       <c r="E146">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G146">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>117.39130434782609</v>
+        <v>148.14814814814821</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>407</v>
       </c>
       <c r="C147">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
       </c>
       <c r="E147">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
       </c>
       <c r="G147">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H147">
-        <v>86.956521739130437</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>411</v>
       </c>
       <c r="C148">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
       </c>
       <c r="E148">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
       </c>
       <c r="G148">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H148">
-        <v>117.39130434782609</v>
+        <v>178.57142857142861</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B149" t="s">
-        <v>167</v>
+        <v>412</v>
       </c>
       <c r="C149">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
       </c>
       <c r="E149">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G149">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>169.56521739130429</v>
+        <v>925</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C150">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
       </c>
       <c r="E150">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G150">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H150">
-        <v>91.304347826086953</v>
+        <v>572.72727272727275</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C151">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
       </c>
       <c r="E151">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G151">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H151">
-        <v>91.304347826086953</v>
+        <v>288.88888888888891</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C152">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
       </c>
       <c r="E152">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G152">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>189.65517241379311</v>
+        <v>307.14285714285722</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C153">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
       </c>
       <c r="G153">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>265.21739130434781</v>
+        <v>78.571428571428569</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C154">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
       </c>
       <c r="E154">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
       </c>
       <c r="G154">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H154">
-        <v>67.346938775510196</v>
+        <v>57.999999999999993</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C155">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
       </c>
       <c r="E155">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F155" t="s">
         <v>13</v>
       </c>
       <c r="G155">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H155">
-        <v>326.66666666666669</v>
+        <v>165.21739130434781</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
       </c>
       <c r="G156">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>1825</v>
+        <v>102.5641025641026</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C157">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
       </c>
       <c r="E157">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
       </c>
       <c r="G157">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H157">
-        <v>500</v>
+        <v>271.42857142857139</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C158">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
       </c>
       <c r="G158">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>710</v>
+        <v>77.272727272727266</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C159">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
       </c>
       <c r="G159">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>342.10526315789468</v>
+        <v>60.416666666666657</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C160">
         <v>6</v>
@@ -6235,695 +6245,2511 @@
         <v>10</v>
       </c>
       <c r="E160">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
       </c>
       <c r="G160">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H160">
-        <v>966.66666666666663</v>
+        <v>1066.666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C161">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F161" t="s">
         <v>13</v>
       </c>
       <c r="G161">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H161">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C162">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
       </c>
       <c r="G162">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H162">
-        <v>326.31578947368422</v>
+        <v>34.042553191489361</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C163">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
       </c>
       <c r="G163">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="H163">
-        <v>258.33333333333343</v>
+        <v>124.24242424242421</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C164">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
       </c>
       <c r="G164">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H164">
-        <v>252.17391304347831</v>
+        <v>132.258064516129</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B165" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C165">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
       </c>
       <c r="G165">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>383.33333333333343</v>
+        <v>69.767441860465112</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
       </c>
       <c r="E166">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F166" t="s">
         <v>13</v>
       </c>
       <c r="G166">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>481.81818181818181</v>
+        <v>221.0526315789474</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C167">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>56</v>
+      </c>
+      <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="E167">
-        <v>88</v>
-      </c>
-      <c r="F167" t="s">
-        <v>13</v>
-      </c>
       <c r="G167">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H167">
-        <v>79.591836734693871</v>
+        <v>273.33333333333331</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C168">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
       </c>
       <c r="E168">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
       </c>
       <c r="G168">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H168">
-        <v>161.29032258064521</v>
+        <v>70.270270270270274</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>415</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
       </c>
       <c r="G169">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H169">
-        <v>2566.666666666667</v>
+        <v>153.125</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>292</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C170" s="21">
-        <v>60</v>
-      </c>
-      <c r="D170" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B170" t="s">
+        <v>432</v>
+      </c>
+      <c r="C170">
+        <v>25</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170">
+        <v>71</v>
+      </c>
+      <c r="F170" t="s">
         <v>13</v>
       </c>
-      <c r="E170" s="21">
-        <v>85</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" s="21">
-        <v>25</v>
-      </c>
-      <c r="H170" s="21">
-        <v>41.666666666666671</v>
+      <c r="G170">
+        <v>46</v>
+      </c>
+      <c r="H170">
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>292</v>
-      </c>
-      <c r="B171" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C171" s="21">
-        <v>40</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="21">
-        <v>69</v>
-      </c>
-      <c r="F171" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B171" t="s">
+        <v>416</v>
+      </c>
+      <c r="C171">
+        <v>27</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>85</v>
+      </c>
+      <c r="F171" t="s">
         <v>13</v>
       </c>
-      <c r="G171" s="21">
-        <v>29</v>
-      </c>
-      <c r="H171" s="21">
-        <v>72.5</v>
+      <c r="G171">
+        <v>58</v>
+      </c>
+      <c r="H171">
+        <v>214.81481481481481</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>292</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="C172" s="21">
-        <v>52</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" s="21">
-        <v>75</v>
-      </c>
-      <c r="F172" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B172" t="s">
+        <v>417</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>78</v>
+      </c>
+      <c r="F172" t="s">
         <v>13</v>
       </c>
-      <c r="G172" s="21">
-        <v>23</v>
-      </c>
-      <c r="H172" s="21">
-        <v>44.230769230769234</v>
+      <c r="G172">
+        <v>63</v>
+      </c>
+      <c r="H172">
+        <v>420</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>292</v>
-      </c>
-      <c r="B173" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C173" s="21">
-        <v>37</v>
-      </c>
-      <c r="D173" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="21">
-        <v>75</v>
-      </c>
-      <c r="F173" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" t="s">
+        <v>418</v>
+      </c>
+      <c r="C173">
+        <v>19</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173">
+        <v>77</v>
+      </c>
+      <c r="F173" t="s">
         <v>13</v>
       </c>
-      <c r="G173" s="21">
-        <v>38</v>
-      </c>
-      <c r="H173" s="21">
-        <v>102.70270270270269</v>
+      <c r="G173">
+        <v>58</v>
+      </c>
+      <c r="H173">
+        <v>305.26315789473688</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>292</v>
-      </c>
-      <c r="B174" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C174" s="21">
-        <v>30</v>
-      </c>
-      <c r="D174" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B174" t="s">
+        <v>436</v>
+      </c>
+      <c r="C174">
+        <v>36</v>
+      </c>
+      <c r="D174" t="s">
         <v>11</v>
       </c>
-      <c r="E174" s="21">
-        <v>60</v>
-      </c>
-      <c r="F174" s="21" t="s">
+      <c r="E174">
+        <v>74</v>
+      </c>
+      <c r="F174" t="s">
         <v>13</v>
       </c>
-      <c r="G174" s="21">
-        <v>30</v>
-      </c>
-      <c r="H174" s="21">
-        <v>100</v>
+      <c r="G174">
+        <v>38</v>
+      </c>
+      <c r="H174">
+        <v>105.5555555555556</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>292</v>
-      </c>
-      <c r="B175" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C175" s="21">
-        <v>29</v>
-      </c>
-      <c r="D175" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="21">
-        <v>58</v>
-      </c>
-      <c r="F175" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" s="21">
-        <v>29</v>
-      </c>
-      <c r="H175" s="21">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="B175" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175">
+        <v>77</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175">
+        <v>57</v>
+      </c>
+      <c r="H175">
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>292</v>
-      </c>
-      <c r="B176" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C176" s="21">
-        <v>21</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="21">
-        <v>55</v>
-      </c>
-      <c r="F176" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" s="21">
-        <v>34</v>
-      </c>
-      <c r="H176" s="21">
-        <v>161.9047619047619</v>
+        <v>119</v>
+      </c>
+      <c r="B176" t="s">
+        <v>420</v>
+      </c>
+      <c r="C176">
+        <v>29</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <v>85</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176">
+        <v>56</v>
+      </c>
+      <c r="H176">
+        <v>193.10344827586209</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>292</v>
-      </c>
-      <c r="B177" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C177" s="21">
-        <v>25</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" s="21">
-        <v>62</v>
-      </c>
-      <c r="F177" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B177" t="s">
+        <v>421</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>74</v>
+      </c>
+      <c r="F177" t="s">
         <v>13</v>
       </c>
-      <c r="G177" s="21">
-        <v>37</v>
-      </c>
-      <c r="H177" s="21">
-        <v>148</v>
+      <c r="G177">
+        <v>63</v>
+      </c>
+      <c r="H177">
+        <v>572.72727272727275</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>292</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C178" s="21">
-        <v>34</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="21">
-        <v>62</v>
-      </c>
-      <c r="F178" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B178" t="s">
+        <v>422</v>
+      </c>
+      <c r="C178">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>82</v>
+      </c>
+      <c r="F178" t="s">
         <v>13</v>
       </c>
-      <c r="G178" s="21">
-        <v>28</v>
-      </c>
-      <c r="H178" s="21">
-        <v>82.35294117647058</v>
+      <c r="G178">
+        <v>70</v>
+      </c>
+      <c r="H178">
+        <v>583.33333333333326</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>292</v>
-      </c>
-      <c r="B179" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C179" s="21">
-        <v>42</v>
-      </c>
-      <c r="D179" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="21">
-        <v>79</v>
-      </c>
-      <c r="F179" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B179" t="s">
+        <v>423</v>
+      </c>
+      <c r="C179">
+        <v>25</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>76</v>
+      </c>
+      <c r="F179" t="s">
         <v>13</v>
       </c>
-      <c r="G179" s="21">
-        <v>37</v>
-      </c>
-      <c r="H179" s="21">
-        <v>88.095238095238088</v>
+      <c r="G179">
+        <v>51</v>
+      </c>
+      <c r="H179">
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>292</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="C180" s="21">
-        <v>27</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" s="21">
-        <v>81</v>
-      </c>
-      <c r="F180" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180" t="s">
+        <v>424</v>
+      </c>
+      <c r="C180">
+        <v>38</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180">
+        <v>84</v>
+      </c>
+      <c r="F180" t="s">
         <v>13</v>
       </c>
-      <c r="G180" s="21">
-        <v>54</v>
-      </c>
-      <c r="H180" s="21">
-        <v>200</v>
+      <c r="G180">
+        <v>46</v>
+      </c>
+      <c r="H180">
+        <v>121.0526315789474</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>292</v>
-      </c>
-      <c r="B181" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C181" s="21">
-        <v>41</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="21">
-        <v>76</v>
-      </c>
-      <c r="F181" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B181" t="s">
+        <v>425</v>
+      </c>
+      <c r="C181">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <v>78</v>
+      </c>
+      <c r="F181" t="s">
         <v>13</v>
       </c>
-      <c r="G181" s="21">
-        <v>35</v>
-      </c>
-      <c r="H181" s="21">
-        <v>85.365853658536579</v>
+      <c r="G181">
+        <v>60</v>
+      </c>
+      <c r="H181">
+        <v>333.33333333333343</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>292</v>
-      </c>
-      <c r="B182" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="C182" s="21">
+        <v>119</v>
+      </c>
+      <c r="B182" t="s">
+        <v>426</v>
+      </c>
+      <c r="C182">
+        <v>22</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>79</v>
+      </c>
+      <c r="F182" t="s">
         <v>13</v>
       </c>
-      <c r="D182" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="21">
-        <v>55</v>
-      </c>
-      <c r="F182" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" s="21">
-        <v>42</v>
-      </c>
-      <c r="H182" s="21">
-        <v>323.07692307692309</v>
+      <c r="G182">
+        <v>57</v>
+      </c>
+      <c r="H182">
+        <v>259.09090909090912</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>292</v>
-      </c>
-      <c r="B183" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C183" s="21">
-        <v>27</v>
-      </c>
-      <c r="D183" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E183" s="21">
-        <v>50</v>
-      </c>
-      <c r="F183" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" s="21">
-        <v>23</v>
-      </c>
-      <c r="H183" s="21">
-        <v>85.18518518518519</v>
+        <v>119</v>
+      </c>
+      <c r="B183" t="s">
+        <v>427</v>
+      </c>
+      <c r="C183">
+        <v>26</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>78</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183">
+        <v>52</v>
+      </c>
+      <c r="H183">
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>292</v>
-      </c>
-      <c r="B184" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="C184" s="21">
-        <v>20</v>
-      </c>
-      <c r="D184" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="21">
-        <v>56</v>
-      </c>
-      <c r="F184" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B184" t="s">
+        <v>434</v>
+      </c>
+      <c r="C184">
+        <v>41</v>
+      </c>
+      <c r="D184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" s="21">
-        <v>36</v>
-      </c>
-      <c r="H184" s="21">
-        <v>180</v>
+      <c r="E184">
+        <v>67</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184">
+        <v>26</v>
+      </c>
+      <c r="H184">
+        <v>63.414634146341463</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>292</v>
-      </c>
-      <c r="B185" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C185" s="21">
-        <v>50</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" s="21">
-        <v>77</v>
-      </c>
-      <c r="F185" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B185" t="s">
+        <v>428</v>
+      </c>
+      <c r="C185">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185">
+        <v>71</v>
+      </c>
+      <c r="F185" t="s">
         <v>13</v>
       </c>
-      <c r="G185" s="21">
-        <v>27</v>
-      </c>
-      <c r="H185" s="21">
+      <c r="G185">
         <v>54</v>
+      </c>
+      <c r="H185">
+        <v>317.64705882352939</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>292</v>
-      </c>
-      <c r="B186" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="C186" s="21">
+        <v>119</v>
+      </c>
+      <c r="B186" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186">
+        <v>76</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186">
+        <v>56</v>
+      </c>
+      <c r="H186">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>119</v>
+      </c>
+      <c r="B187" t="s">
+        <v>435</v>
+      </c>
+      <c r="C187">
+        <v>49</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187">
+        <v>78</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187">
+        <v>29</v>
+      </c>
+      <c r="H187">
+        <v>59.183673469387763</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>119</v>
+      </c>
+      <c r="B188" t="s">
+        <v>430</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>78</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188">
+        <v>58</v>
+      </c>
+      <c r="H188">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>119</v>
+      </c>
+      <c r="B189" t="s">
+        <v>431</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>79</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189">
+        <v>70</v>
+      </c>
+      <c r="H189">
+        <v>777.77777777777771</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>520</v>
+      </c>
+      <c r="B190" t="s">
+        <v>140</v>
+      </c>
+      <c r="C190">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>58</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190">
+        <v>44</v>
+      </c>
+      <c r="H190">
+        <v>314.28571428571428</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>520</v>
+      </c>
+      <c r="B191" t="s">
+        <v>141</v>
+      </c>
+      <c r="C191">
+        <v>41</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191">
+        <v>72</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191">
+        <v>31</v>
+      </c>
+      <c r="H191">
+        <v>75.609756097560975</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>520</v>
+      </c>
+      <c r="B192" t="s">
+        <v>142</v>
+      </c>
+      <c r="C192">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192">
+        <v>57</v>
+      </c>
+      <c r="F192" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192">
+        <v>41</v>
+      </c>
+      <c r="H192">
+        <v>256.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>520</v>
+      </c>
+      <c r="B193" t="s">
+        <v>143</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193">
         <v>21</v>
       </c>
-      <c r="D186" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="21">
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193">
+        <v>15</v>
+      </c>
+      <c r="H193">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>520</v>
+      </c>
+      <c r="B194" t="s">
+        <v>144</v>
+      </c>
+      <c r="C194">
+        <v>44</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194">
+        <v>80</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194">
+        <v>36</v>
+      </c>
+      <c r="H194">
+        <v>81.818181818181827</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>520</v>
+      </c>
+      <c r="B195" t="s">
+        <v>145</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195">
+        <v>76</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195">
+        <v>61</v>
+      </c>
+      <c r="H195">
+        <v>406.66666666666657</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>520</v>
+      </c>
+      <c r="B196" t="s">
+        <v>146</v>
+      </c>
+      <c r="C196">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>75</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196">
+        <v>60</v>
+      </c>
+      <c r="H196">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>520</v>
+      </c>
+      <c r="B197" t="s">
+        <v>147</v>
+      </c>
+      <c r="C197">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197">
+        <v>78</v>
+      </c>
+      <c r="F197" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197">
+        <v>63</v>
+      </c>
+      <c r="H197">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>520</v>
+      </c>
+      <c r="B198" t="s">
+        <v>148</v>
+      </c>
+      <c r="C198">
+        <v>35</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198">
+        <v>53</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198">
+        <v>18</v>
+      </c>
+      <c r="H198">
+        <v>51.428571428571423</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>520</v>
+      </c>
+      <c r="B199" t="s">
+        <v>149</v>
+      </c>
+      <c r="C199">
+        <v>19</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199">
         <v>57</v>
       </c>
-      <c r="F186" s="21" t="s">
+      <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G186" s="21">
+      <c r="G199">
+        <v>38</v>
+      </c>
+      <c r="H199">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>520</v>
+      </c>
+      <c r="B200" t="s">
+        <v>150</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>46</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200">
+        <v>40</v>
+      </c>
+      <c r="H200">
+        <v>666.66666666666674</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>520</v>
+      </c>
+      <c r="B201" t="s">
+        <v>151</v>
+      </c>
+      <c r="C201">
+        <v>29</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>77</v>
+      </c>
+      <c r="F201" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201">
+        <v>48</v>
+      </c>
+      <c r="H201">
+        <v>165.51724137931029</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>458</v>
+      </c>
+      <c r="B202" t="s">
+        <v>459</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202">
+        <v>24</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>458</v>
+      </c>
+      <c r="B203" t="s">
+        <v>478</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>28</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203">
+        <v>26</v>
+      </c>
+      <c r="H203">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>458</v>
+      </c>
+      <c r="B204" t="s">
+        <v>479</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>7</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204">
+        <v>6</v>
+      </c>
+      <c r="H204">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>458</v>
+      </c>
+      <c r="B205" t="s">
+        <v>480</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>62</v>
+      </c>
+      <c r="F205" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205">
+        <v>61</v>
+      </c>
+      <c r="H205">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>458</v>
+      </c>
+      <c r="B206" t="s">
+        <v>476</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>51</v>
+      </c>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206">
+        <v>47</v>
+      </c>
+      <c r="H206">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>458</v>
+      </c>
+      <c r="B207" t="s">
+        <v>477</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>51</v>
+      </c>
+      <c r="F207" t="s">
+        <v>11</v>
+      </c>
+      <c r="G207">
+        <v>47</v>
+      </c>
+      <c r="H207">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>458</v>
+      </c>
+      <c r="B208" t="s">
+        <v>481</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <v>49</v>
+      </c>
+      <c r="F208" t="s">
+        <v>11</v>
+      </c>
+      <c r="G208">
+        <v>48</v>
+      </c>
+      <c r="H208">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>458</v>
+      </c>
+      <c r="B209" t="s">
+        <v>482</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>59</v>
+      </c>
+      <c r="F209" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209">
+        <v>56</v>
+      </c>
+      <c r="H209">
+        <v>1866.666666666667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>458</v>
+      </c>
+      <c r="B210" t="s">
+        <v>483</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210">
         <v>36</v>
       </c>
-      <c r="H186" s="21">
-        <v>171.42857142857139</v>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210">
+        <v>35</v>
+      </c>
+      <c r="H210">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>458</v>
+      </c>
+      <c r="B211" t="s">
+        <v>474</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <v>41</v>
+      </c>
+      <c r="F211" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>458</v>
+      </c>
+      <c r="B212" t="s">
+        <v>484</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>25</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212">
+        <v>24</v>
+      </c>
+      <c r="H212">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>458</v>
+      </c>
+      <c r="B213" t="s">
+        <v>460</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>27</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213">
+        <v>25</v>
+      </c>
+      <c r="H213">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>458</v>
+      </c>
+      <c r="B214" t="s">
+        <v>461</v>
+      </c>
+      <c r="C214">
+        <v>44</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214">
+        <v>63</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214">
+        <v>19</v>
+      </c>
+      <c r="H214">
+        <v>43.18181818181818</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>458</v>
+      </c>
+      <c r="B215" t="s">
+        <v>485</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215">
+        <v>29</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215">
+        <v>28</v>
+      </c>
+      <c r="H215">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>458</v>
+      </c>
+      <c r="B216" t="s">
+        <v>472</v>
+      </c>
+      <c r="C216">
+        <v>10</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216">
+        <v>38</v>
+      </c>
+      <c r="F216" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216">
+        <v>28</v>
+      </c>
+      <c r="H216">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>458</v>
+      </c>
+      <c r="B217" t="s">
+        <v>486</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217">
+        <v>54</v>
+      </c>
+      <c r="F217" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217">
+        <v>53</v>
+      </c>
+      <c r="H217">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>458</v>
+      </c>
+      <c r="B218" t="s">
+        <v>487</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <v>41</v>
+      </c>
+      <c r="F218" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218">
+        <v>40</v>
+      </c>
+      <c r="H218">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>458</v>
+      </c>
+      <c r="B219" t="s">
+        <v>462</v>
+      </c>
+      <c r="C219">
+        <v>26</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>39</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219">
+        <v>13</v>
+      </c>
+      <c r="H219">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>458</v>
+      </c>
+      <c r="B220" t="s">
+        <v>463</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220">
+        <v>21</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220">
+        <v>19</v>
+      </c>
+      <c r="H220">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>458</v>
+      </c>
+      <c r="B221" t="s">
+        <v>464</v>
+      </c>
+      <c r="C221">
+        <v>15</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221">
+        <v>70</v>
+      </c>
+      <c r="F221" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221">
+        <v>55</v>
+      </c>
+      <c r="H221">
+        <v>366.66666666666657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>458</v>
+      </c>
+      <c r="B222" t="s">
+        <v>465</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222">
+        <v>21</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222">
+        <v>19</v>
+      </c>
+      <c r="H222">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>458</v>
+      </c>
+      <c r="B223" t="s">
+        <v>475</v>
+      </c>
+      <c r="C223">
+        <v>44</v>
+      </c>
+      <c r="D223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223">
+        <v>69</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223">
+        <v>25</v>
+      </c>
+      <c r="H223">
+        <v>56.81818181818182</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>458</v>
+      </c>
+      <c r="B224" t="s">
+        <v>488</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <v>28</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224">
+        <v>27</v>
+      </c>
+      <c r="H224">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>458</v>
+      </c>
+      <c r="B225" t="s">
+        <v>466</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225">
+        <v>16</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225">
+        <v>13</v>
+      </c>
+      <c r="H225">
+        <v>433.33333333333331</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>458</v>
+      </c>
+      <c r="B226" t="s">
+        <v>473</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226">
+        <v>26</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226">
+        <v>20</v>
+      </c>
+      <c r="H226">
+        <v>333.33333333333343</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>458</v>
+      </c>
+      <c r="B227" t="s">
+        <v>489</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227">
+        <v>40</v>
+      </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227">
+        <v>39</v>
+      </c>
+      <c r="H227">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>458</v>
+      </c>
+      <c r="B228" t="s">
+        <v>490</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228">
+        <v>47</v>
+      </c>
+      <c r="F228" t="s">
+        <v>11</v>
+      </c>
+      <c r="G228">
+        <v>46</v>
+      </c>
+      <c r="H228">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>458</v>
+      </c>
+      <c r="B229" t="s">
+        <v>491</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229">
+        <v>33</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229">
+        <v>32</v>
+      </c>
+      <c r="H229">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>492</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230">
+        <v>41</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="G230">
+        <v>39</v>
+      </c>
+      <c r="H230">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" t="s">
+        <v>493</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231">
+        <v>47</v>
+      </c>
+      <c r="F231" t="s">
+        <v>11</v>
+      </c>
+      <c r="G231">
+        <v>46</v>
+      </c>
+      <c r="H231">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232" t="s">
+        <v>467</v>
+      </c>
+      <c r="C232">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232">
+        <v>52</v>
+      </c>
+      <c r="F232" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232">
+        <v>41</v>
+      </c>
+      <c r="H232">
+        <v>372.72727272727269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>458</v>
+      </c>
+      <c r="B233" t="s">
+        <v>494</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233">
+        <v>27</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233">
+        <v>26</v>
+      </c>
+      <c r="H233">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>458</v>
+      </c>
+      <c r="B234" t="s">
+        <v>495</v>
+      </c>
+      <c r="C234">
+        <v>9</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+      <c r="E234">
+        <v>44</v>
+      </c>
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234">
+        <v>35</v>
+      </c>
+      <c r="H234">
+        <v>388.88888888888891</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>458</v>
+      </c>
+      <c r="B235" t="s">
+        <v>468</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235">
+        <v>18</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>458</v>
+      </c>
+      <c r="B236" t="s">
+        <v>469</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>34</v>
+      </c>
+      <c r="F236" t="s">
+        <v>11</v>
+      </c>
+      <c r="G236">
+        <v>27</v>
+      </c>
+      <c r="H236">
+        <v>385.71428571428572</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>458</v>
+      </c>
+      <c r="B237" t="s">
+        <v>470</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237">
+        <v>35</v>
+      </c>
+      <c r="F237" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237">
+        <v>30</v>
+      </c>
+      <c r="H237">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>458</v>
+      </c>
+      <c r="B238" t="s">
+        <v>496</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>39</v>
+      </c>
+      <c r="F238" t="s">
+        <v>11</v>
+      </c>
+      <c r="G238">
+        <v>38</v>
+      </c>
+      <c r="H238">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>458</v>
+      </c>
+      <c r="B239" t="s">
+        <v>497</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239">
+        <v>42</v>
+      </c>
+      <c r="F239" t="s">
+        <v>11</v>
+      </c>
+      <c r="G239">
+        <v>41</v>
+      </c>
+      <c r="H239">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>152</v>
+      </c>
+      <c r="B240" t="s">
+        <v>153</v>
+      </c>
+      <c r="C240">
+        <v>18</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240">
+        <v>50</v>
+      </c>
+      <c r="F240" t="s">
+        <v>11</v>
+      </c>
+      <c r="G240">
+        <v>32</v>
+      </c>
+      <c r="H240">
+        <v>177.7777777777778</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>152</v>
+      </c>
+      <c r="B241" t="s">
+        <v>154</v>
+      </c>
+      <c r="C241">
+        <v>23</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <v>43</v>
+      </c>
+      <c r="F241" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241">
+        <v>20</v>
+      </c>
+      <c r="H241">
+        <v>86.956521739130437</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>152</v>
+      </c>
+      <c r="B242" t="s">
+        <v>155</v>
+      </c>
+      <c r="C242">
+        <v>23</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242">
+        <v>62</v>
+      </c>
+      <c r="F242" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242">
+        <v>39</v>
+      </c>
+      <c r="H242">
+        <v>169.56521739130429</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>152</v>
+      </c>
+      <c r="B243" t="s">
+        <v>156</v>
+      </c>
+      <c r="C243">
+        <v>17</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243">
+        <v>47</v>
+      </c>
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+      <c r="G243">
+        <v>30</v>
+      </c>
+      <c r="H243">
+        <v>176.47058823529409</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+      <c r="B244" t="s">
+        <v>157</v>
+      </c>
+      <c r="C244">
+        <v>36</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244">
+        <v>43</v>
+      </c>
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+      <c r="G244">
+        <v>7</v>
+      </c>
+      <c r="H244">
+        <v>19.44444444444445</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>152</v>
+      </c>
+      <c r="B245" t="s">
+        <v>158</v>
+      </c>
+      <c r="C245">
+        <v>23</v>
+      </c>
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245">
+        <v>43</v>
+      </c>
+      <c r="F245" t="s">
+        <v>11</v>
+      </c>
+      <c r="G245">
+        <v>20</v>
+      </c>
+      <c r="H245">
+        <v>86.956521739130437</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>152</v>
+      </c>
+      <c r="B246" t="s">
+        <v>159</v>
+      </c>
+      <c r="C246">
+        <v>23</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246">
+        <v>50</v>
+      </c>
+      <c r="F246" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246">
+        <v>27</v>
+      </c>
+      <c r="H246">
+        <v>117.39130434782609</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>152</v>
+      </c>
+      <c r="B247" t="s">
+        <v>160</v>
+      </c>
+      <c r="C247">
+        <v>23</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247">
+        <v>47</v>
+      </c>
+      <c r="F247" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247">
+        <v>24</v>
+      </c>
+      <c r="H247">
+        <v>104.3478260869565</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>152</v>
+      </c>
+      <c r="B248" t="s">
+        <v>161</v>
+      </c>
+      <c r="C248">
+        <v>18</v>
+      </c>
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248">
+        <v>47</v>
+      </c>
+      <c r="F248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248">
+        <v>29</v>
+      </c>
+      <c r="H248">
+        <v>161.11111111111109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>152</v>
+      </c>
+      <c r="B249" t="s">
+        <v>162</v>
+      </c>
+      <c r="C249">
+        <v>42</v>
+      </c>
+      <c r="D249" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249">
+        <v>62</v>
+      </c>
+      <c r="F249" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249">
+        <v>20</v>
+      </c>
+      <c r="H249">
+        <v>47.619047619047613</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>152</v>
+      </c>
+      <c r="B250" t="s">
+        <v>163</v>
+      </c>
+      <c r="C250">
+        <v>42</v>
+      </c>
+      <c r="D250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250">
+        <v>62</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250">
+        <v>20</v>
+      </c>
+      <c r="H250">
+        <v>47.619047619047613</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>152</v>
+      </c>
+      <c r="B251" t="s">
+        <v>164</v>
+      </c>
+      <c r="C251">
+        <v>23</v>
+      </c>
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251">
+        <v>50</v>
+      </c>
+      <c r="F251" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251">
+        <v>27</v>
+      </c>
+      <c r="H251">
+        <v>117.39130434782609</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>152</v>
+      </c>
+      <c r="B252" t="s">
+        <v>165</v>
+      </c>
+      <c r="C252">
+        <v>23</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252">
+        <v>43</v>
+      </c>
+      <c r="F252" t="s">
+        <v>11</v>
+      </c>
+      <c r="G252">
+        <v>20</v>
+      </c>
+      <c r="H252">
+        <v>86.956521739130437</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>152</v>
+      </c>
+      <c r="B253" t="s">
+        <v>166</v>
+      </c>
+      <c r="C253">
+        <v>23</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253">
+        <v>50</v>
+      </c>
+      <c r="F253" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253">
+        <v>27</v>
+      </c>
+      <c r="H253">
+        <v>117.39130434782609</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>152</v>
+      </c>
+      <c r="B254" t="s">
+        <v>167</v>
+      </c>
+      <c r="C254">
+        <v>23</v>
+      </c>
+      <c r="D254" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254">
+        <v>62</v>
+      </c>
+      <c r="F254" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254">
+        <v>39</v>
+      </c>
+      <c r="H254">
+        <v>169.56521739130429</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>152</v>
+      </c>
+      <c r="B255" t="s">
+        <v>168</v>
+      </c>
+      <c r="C255">
+        <v>23</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>44</v>
+      </c>
+      <c r="F255" t="s">
+        <v>11</v>
+      </c>
+      <c r="G255">
+        <v>21</v>
+      </c>
+      <c r="H255">
+        <v>91.304347826086953</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>152</v>
+      </c>
+      <c r="B256" t="s">
+        <v>169</v>
+      </c>
+      <c r="C256">
+        <v>23</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256">
+        <v>44</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256">
+        <v>21</v>
+      </c>
+      <c r="H256">
+        <v>91.304347826086953</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H197" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H256">
+      <sortCondition ref="A1:A197"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -6933,10 +8759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7178,7 +9004,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -7195,7 +9021,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7209,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7220,7 +9046,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -7234,7 +9060,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -7251,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7388,7 +9214,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
@@ -7405,7 +9231,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -7424,47 +9250,90 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>458</v>
       </c>
       <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="21">
+        <v>36</v>
+      </c>
+      <c r="D35" s="21">
         <v>13</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>133</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C36" s="21">
+        <v>2</v>
+      </c>
+      <c r="D36" s="21">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>458</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>192</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>204</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C37">
-        <v>34</v>
-      </c>
-      <c r="D37">
-        <v>57</v>
+      <c r="C40">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D40" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -7474,10 +9343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7543,14 +9412,17 @@
       <c r="B3" t="s">
         <v>199</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>287</v>
+      </c>
       <c r="E3">
         <v>287</v>
       </c>
       <c r="G3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7621,10 +9493,10 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="E7">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="F7">
         <v>529.41176470588232</v>
@@ -7638,13 +9510,13 @@
         <v>199</v>
       </c>
       <c r="C8">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="E8">
-        <v>161</v>
+        <v>344</v>
       </c>
       <c r="F8">
         <v>220.54794520547941</v>
@@ -7718,10 +9590,10 @@
         <v>199</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E12">
         <v>106</v>
@@ -7732,21 +9604,41 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
         <v>199</v>
       </c>
       <c r="C13">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>1567</v>
+        <v>202</v>
       </c>
       <c r="E13">
-        <v>1313</v>
+        <v>185</v>
       </c>
       <c r="F13">
+        <v>1088.2352941176471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14">
+        <v>410</v>
+      </c>
+      <c r="D14">
+        <v>2559</v>
+      </c>
+      <c r="E14">
+        <v>2133</v>
+      </c>
+      <c r="F14">
         <v>516.92913385826773</v>
       </c>
     </row>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808476B4-3808-4A2D-A463-F9BB44337EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F1AC68-EE5E-4649-9C1A-3DC54810BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,28 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">niveis_master!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">niveis_master!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">questionario!$A$1:$G$449</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="520">
   <si>
     <t>Grupo</t>
   </si>
@@ -537,9 +551,6 @@
   </si>
   <si>
     <t>Tailor De Paiva</t>
-  </si>
-  <si>
-    <t>Cotrijuc</t>
   </si>
   <si>
     <t>ARNALDO DA SILVA FERREIRA</t>
@@ -2093,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3509,10 +3520,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>292</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>293</v>
       </c>
       <c r="C55" s="21">
         <v>60</v>
@@ -3535,10 +3546,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C56" s="21">
         <v>40</v>
@@ -3561,10 +3572,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C57" s="21">
         <v>52</v>
@@ -3587,10 +3598,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C58" s="21">
         <v>37</v>
@@ -3613,10 +3624,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C59" s="21">
         <v>30</v>
@@ -3639,10 +3650,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C60" s="21">
         <v>29</v>
@@ -3665,10 +3676,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C61" s="21">
         <v>21</v>
@@ -3691,10 +3702,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C62" s="21">
         <v>25</v>
@@ -3717,10 +3728,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C63" s="21">
         <v>34</v>
@@ -3743,10 +3754,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C64" s="21">
         <v>42</v>
@@ -3769,10 +3780,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C65" s="21">
         <v>27</v>
@@ -3795,10 +3806,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C66" s="21">
         <v>41</v>
@@ -3821,10 +3832,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C67" s="21">
         <v>13</v>
@@ -3847,10 +3858,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C68" s="21">
         <v>27</v>
@@ -3873,10 +3884,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C69" s="21">
         <v>20</v>
@@ -3899,10 +3910,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C70" s="21">
         <v>50</v>
@@ -3925,10 +3936,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C71" s="21">
         <v>21</v>
@@ -3951,10 +3962,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C72">
         <v>19</v>
@@ -3977,10 +3988,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C73">
         <v>26</v>
@@ -4725,10 +4736,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102">
         <v>29</v>
@@ -4751,10 +4762,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C103">
         <v>23</v>
@@ -4777,10 +4788,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C104">
         <v>49</v>
@@ -4803,10 +4814,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C105">
         <v>15</v>
@@ -4829,10 +4840,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -4855,10 +4866,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C107">
         <v>14</v>
@@ -4881,10 +4892,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -4907,10 +4918,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C109">
         <v>19</v>
@@ -4933,10 +4944,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C110">
         <v>6</v>
@@ -4959,10 +4970,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C111">
         <v>27</v>
@@ -4985,10 +4996,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C112">
         <v>19</v>
@@ -5011,10 +5022,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C113">
         <v>24</v>
@@ -5037,10 +5048,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C114">
         <v>23</v>
@@ -5063,10 +5074,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -5089,10 +5100,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C116">
         <v>11</v>
@@ -5115,10 +5126,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C117">
         <v>49</v>
@@ -5141,10 +5152,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C118">
         <v>31</v>
@@ -5167,10 +5178,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -5742,7 +5753,7 @@
         <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C141">
         <v>6</v>
@@ -5768,7 +5779,7 @@
         <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -5794,7 +5805,7 @@
         <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -5820,7 +5831,7 @@
         <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -5846,7 +5857,7 @@
         <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C145">
         <v>13</v>
@@ -5872,7 +5883,7 @@
         <v>97</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C146">
         <v>27</v>
@@ -5898,7 +5909,7 @@
         <v>97</v>
       </c>
       <c r="B147" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C147">
         <v>8</v>
@@ -5924,7 +5935,7 @@
         <v>97</v>
       </c>
       <c r="B148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C148">
         <v>14</v>
@@ -5950,7 +5961,7 @@
         <v>97</v>
       </c>
       <c r="B149" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -6470,7 +6481,7 @@
         <v>119</v>
       </c>
       <c r="B169" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C169">
         <v>32</v>
@@ -6496,7 +6507,7 @@
         <v>119</v>
       </c>
       <c r="B170" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C170">
         <v>25</v>
@@ -6522,7 +6533,7 @@
         <v>119</v>
       </c>
       <c r="B171" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C171">
         <v>27</v>
@@ -6548,7 +6559,7 @@
         <v>119</v>
       </c>
       <c r="B172" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C172">
         <v>15</v>
@@ -6574,7 +6585,7 @@
         <v>119</v>
       </c>
       <c r="B173" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C173">
         <v>19</v>
@@ -6600,7 +6611,7 @@
         <v>119</v>
       </c>
       <c r="B174" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C174">
         <v>36</v>
@@ -6626,7 +6637,7 @@
         <v>119</v>
       </c>
       <c r="B175" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -6652,7 +6663,7 @@
         <v>119</v>
       </c>
       <c r="B176" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C176">
         <v>29</v>
@@ -6678,7 +6689,7 @@
         <v>119</v>
       </c>
       <c r="B177" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C177">
         <v>11</v>
@@ -6704,7 +6715,7 @@
         <v>119</v>
       </c>
       <c r="B178" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C178">
         <v>12</v>
@@ -6730,7 +6741,7 @@
         <v>119</v>
       </c>
       <c r="B179" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C179">
         <v>25</v>
@@ -6756,7 +6767,7 @@
         <v>119</v>
       </c>
       <c r="B180" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C180">
         <v>38</v>
@@ -6782,7 +6793,7 @@
         <v>119</v>
       </c>
       <c r="B181" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C181">
         <v>18</v>
@@ -6808,7 +6819,7 @@
         <v>119</v>
       </c>
       <c r="B182" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C182">
         <v>22</v>
@@ -6834,7 +6845,7 @@
         <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C183">
         <v>26</v>
@@ -6860,7 +6871,7 @@
         <v>119</v>
       </c>
       <c r="B184" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C184">
         <v>41</v>
@@ -6886,7 +6897,7 @@
         <v>119</v>
       </c>
       <c r="B185" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C185">
         <v>17</v>
@@ -6912,7 +6923,7 @@
         <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C186">
         <v>20</v>
@@ -6938,7 +6949,7 @@
         <v>119</v>
       </c>
       <c r="B187" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C187">
         <v>49</v>
@@ -6964,7 +6975,7 @@
         <v>119</v>
       </c>
       <c r="B188" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C188">
         <v>20</v>
@@ -6990,7 +7001,7 @@
         <v>119</v>
       </c>
       <c r="B189" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -7013,7 +7024,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B190" t="s">
         <v>140</v>
@@ -7039,7 +7050,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B191" t="s">
         <v>141</v>
@@ -7065,7 +7076,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B192" t="s">
         <v>142</v>
@@ -7091,7 +7102,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B193" t="s">
         <v>143</v>
@@ -7117,7 +7128,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B194" t="s">
         <v>144</v>
@@ -7143,7 +7154,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B195" t="s">
         <v>145</v>
@@ -7169,7 +7180,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B196" t="s">
         <v>146</v>
@@ -7195,7 +7206,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B197" t="s">
         <v>147</v>
@@ -7221,7 +7232,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B198" t="s">
         <v>148</v>
@@ -7247,7 +7258,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B199" t="s">
         <v>149</v>
@@ -7273,7 +7284,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B200" t="s">
         <v>150</v>
@@ -7299,7 +7310,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B201" t="s">
         <v>151</v>
@@ -7325,10 +7336,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>457</v>
+      </c>
+      <c r="B202" t="s">
         <v>458</v>
-      </c>
-      <c r="B202" t="s">
-        <v>459</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -7348,10 +7359,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B203" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -7374,10 +7385,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B204" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -7400,10 +7411,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B205" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -7426,10 +7437,10 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B206" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C206">
         <v>4</v>
@@ -7452,10 +7463,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B207" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C207">
         <v>4</v>
@@ -7478,10 +7489,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B208" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -7504,10 +7515,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B209" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -7530,10 +7541,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B210" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -7556,10 +7567,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B211" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -7579,10 +7590,10 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B212" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -7605,10 +7616,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B213" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -7631,10 +7642,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B214" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C214">
         <v>44</v>
@@ -7657,10 +7668,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B215" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -7683,10 +7694,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B216" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C216">
         <v>10</v>
@@ -7709,10 +7720,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B217" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -7735,10 +7746,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B218" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -7761,10 +7772,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B219" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C219">
         <v>26</v>
@@ -7787,10 +7798,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B220" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -7813,10 +7824,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B221" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C221">
         <v>15</v>
@@ -7839,10 +7850,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B222" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -7865,10 +7876,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B223" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C223">
         <v>44</v>
@@ -7891,10 +7902,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B224" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -7917,10 +7928,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B225" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C225">
         <v>3</v>
@@ -7943,10 +7954,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B226" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C226">
         <v>6</v>
@@ -7969,10 +7980,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B227" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -7995,10 +8006,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B228" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -8021,10 +8032,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B229" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -8047,10 +8058,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B230" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -8073,10 +8084,10 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B231" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -8099,10 +8110,10 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B232" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C232">
         <v>11</v>
@@ -8125,10 +8136,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B233" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -8151,10 +8162,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B234" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C234">
         <v>9</v>
@@ -8177,10 +8188,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B235" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -8200,10 +8211,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B236" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C236">
         <v>7</v>
@@ -8226,10 +8237,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B237" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C237">
         <v>5</v>
@@ -8252,10 +8263,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B238" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -8278,10 +8289,10 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B239" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -8742,6 +8753,78 @@
       </c>
       <c r="H256">
         <v>91.304347826086953</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>212</v>
+      </c>
+      <c r="B257" t="s">
+        <v>213</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257">
+        <v>12</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>212</v>
+      </c>
+      <c r="B258" t="s">
+        <v>214</v>
+      </c>
+      <c r="C258">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>20</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258">
+        <v>8</v>
+      </c>
+      <c r="H258">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>212</v>
+      </c>
+      <c r="B259" t="s">
+        <v>215</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259" t="s">
+        <v>10</v>
+      </c>
+      <c r="E259">
+        <v>18</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8759,10 +8842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8777,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9124,7 +9207,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -9138,7 +9221,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -9152,7 +9235,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -9208,7 +9291,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -9222,7 +9305,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -9236,7 +9319,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -9250,7 +9333,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -9264,7 +9347,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -9278,7 +9361,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -9292,48 +9375,90 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="C38" s="21">
+        <v>3</v>
+      </c>
+      <c r="D38" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>204</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>207</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C40">
+      <c r="C43">
         <v>49</v>
       </c>
-      <c r="D40">
+      <c r="D43">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D40" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:D43" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -9343,10 +9468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9364,25 +9489,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -9390,7 +9515,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>27</v>
@@ -9410,7 +9535,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -9430,7 +9555,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -9447,7 +9572,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -9467,7 +9592,7 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -9487,7 +9612,7 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7">
         <v>34</v>
@@ -9507,7 +9632,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>114</v>
@@ -9524,10 +9649,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -9547,7 +9672,7 @@
         <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10">
         <v>48</v>
@@ -9564,10 +9689,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11">
         <v>26</v>
@@ -9584,10 +9709,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12">
         <v>98</v>
@@ -9604,10 +9729,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -9624,21 +9749,38 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15">
         <v>410</v>
       </c>
-      <c r="D14">
-        <v>2559</v>
-      </c>
-      <c r="E14">
-        <v>2133</v>
-      </c>
-      <c r="F14">
+      <c r="D15">
+        <v>2562</v>
+      </c>
+      <c r="E15">
+        <v>2136</v>
+      </c>
+      <c r="F15">
         <v>516.92913385826773</v>
       </c>
     </row>
@@ -9654,8 +9796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345:A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9671,25 +9813,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9700,19 +9842,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9723,19 +9865,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9746,19 +9888,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9769,19 +9911,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9792,17 +9934,17 @@
         <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9813,17 +9955,17 @@
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9834,19 +9976,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9857,19 +9999,19 @@
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -9880,19 +10022,19 @@
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9903,17 +10045,17 @@
         <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9924,19 +10066,19 @@
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9947,17 +10089,17 @@
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9968,17 +10110,17 @@
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9989,19 +10131,19 @@
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -10012,19 +10154,19 @@
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G16" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -10035,17 +10177,17 @@
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -10056,25 +10198,25 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -10084,10 +10226,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
@@ -10097,10 +10239,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
@@ -10116,17 +10258,17 @@
         <v>30</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -10137,19 +10279,19 @@
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -10160,19 +10302,19 @@
         <v>32</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G24" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -10183,17 +10325,17 @@
         <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -10204,17 +10346,17 @@
         <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -10225,19 +10367,19 @@
         <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G27" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -10248,17 +10390,17 @@
         <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -10269,17 +10411,17 @@
         <v>37</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -10290,17 +10432,17 @@
         <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -10311,17 +10453,17 @@
         <v>39</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -10332,17 +10474,17 @@
         <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -10353,17 +10495,17 @@
         <v>41</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -10374,17 +10516,17 @@
         <v>42</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -10395,17 +10537,17 @@
         <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -10416,17 +10558,17 @@
         <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -10437,17 +10579,17 @@
         <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -10458,17 +10600,17 @@
         <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -10479,17 +10621,17 @@
         <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -10500,17 +10642,17 @@
         <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -10521,19 +10663,19 @@
         <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G41" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -10544,17 +10686,17 @@
         <v>50</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -10565,17 +10707,17 @@
         <v>51</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -10586,25 +10728,25 @@
         <v>52</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -10614,10 +10756,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -10627,33 +10769,33 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="G47" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
@@ -10663,10 +10805,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
@@ -10676,10 +10818,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
@@ -10689,10 +10831,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
@@ -10702,10 +10844,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
@@ -10715,10 +10857,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
@@ -10728,10 +10870,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
@@ -10741,10 +10883,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -10754,10 +10896,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -10767,10 +10909,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -10780,10 +10922,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -10793,10 +10935,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -10806,10 +10948,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -10819,10 +10961,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -10832,10 +10974,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -10845,10 +10987,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -10858,10 +11000,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -10871,10 +11013,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -10884,10 +11026,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -10916,17 +11058,17 @@
         <v>55</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -10937,17 +11079,17 @@
         <v>56</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -10958,17 +11100,17 @@
         <v>57</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -10979,17 +11121,17 @@
         <v>58</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -11000,17 +11142,17 @@
         <v>59</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -11021,17 +11163,17 @@
         <v>60</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -11042,19 +11184,19 @@
         <v>61</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="F74" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -11065,17 +11207,17 @@
         <v>62</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -11086,17 +11228,17 @@
         <v>63</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -11107,17 +11249,17 @@
         <v>64</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -11128,17 +11270,17 @@
         <v>65</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -11149,25 +11291,25 @@
         <v>66</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
@@ -11177,10 +11319,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -11190,10 +11332,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -11203,10 +11345,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -11216,10 +11358,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -11229,10 +11371,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -11242,10 +11384,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -11255,10 +11397,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -11268,10 +11410,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -11281,10 +11423,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -11294,10 +11436,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -11307,10 +11449,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -11320,10 +11462,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -11333,10 +11475,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -11346,10 +11488,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -11359,10 +11501,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -11372,10 +11514,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -11385,10 +11527,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -11398,10 +11540,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -11411,10 +11553,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -11424,10 +11566,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
@@ -11437,10 +11579,10 @@
     </row>
     <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
@@ -11450,10 +11592,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="8"/>
@@ -11463,10 +11605,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
@@ -11476,10 +11618,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
@@ -11489,10 +11631,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="8"/>
@@ -11502,10 +11644,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -11515,10 +11657,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="8"/>
@@ -11528,10 +11670,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="8"/>
@@ -11541,10 +11683,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
@@ -11554,10 +11696,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="8"/>
@@ -11567,10 +11709,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="8"/>
@@ -11580,10 +11722,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="8"/>
@@ -11593,10 +11735,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="8"/>
@@ -11606,10 +11748,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="8"/>
@@ -11619,10 +11761,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="8"/>
@@ -11632,183 +11774,183 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="C116" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="F119" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="8"/>
@@ -11818,10 +11960,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
@@ -11831,10 +11973,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="8"/>
@@ -11844,10 +11986,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="8"/>
@@ -11857,10 +11999,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="8"/>
@@ -11870,10 +12012,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="8"/>
@@ -11883,10 +12025,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="8"/>
@@ -11896,10 +12038,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="8"/>
@@ -11909,10 +12051,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="8"/>
@@ -11922,10 +12064,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="8"/>
@@ -11935,10 +12077,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="8"/>
@@ -11948,10 +12090,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="8"/>
@@ -11961,10 +12103,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="8"/>
@@ -11974,10 +12116,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
@@ -11987,10 +12129,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
@@ -12000,10 +12142,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
@@ -12013,10 +12155,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="8"/>
@@ -12026,10 +12168,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="8"/>
@@ -12039,10 +12181,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="8"/>
@@ -12058,17 +12200,17 @@
         <v>68</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -12079,17 +12221,17 @@
         <v>69</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -12100,17 +12242,17 @@
         <v>70</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -12121,17 +12263,17 @@
         <v>71</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -12142,17 +12284,17 @@
         <v>72</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -12163,19 +12305,19 @@
         <v>73</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -12186,17 +12328,17 @@
         <v>74</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -12207,17 +12349,17 @@
         <v>75</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -12228,17 +12370,17 @@
         <v>76</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F152" s="8"/>
       <c r="G152" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -12249,17 +12391,17 @@
         <v>77</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -12270,19 +12412,19 @@
         <v>78</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E154" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F154" s="8" t="s">
-        <v>314</v>
-      </c>
       <c r="G154" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -12293,17 +12435,17 @@
         <v>79</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -12314,17 +12456,17 @@
         <v>80</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -12335,17 +12477,17 @@
         <v>81</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -12356,17 +12498,17 @@
         <v>82</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -12374,7 +12516,7 @@
         <v>67</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
@@ -12387,7 +12529,7 @@
         <v>67</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="8"/>
@@ -12400,7 +12542,7 @@
         <v>67</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="8"/>
@@ -12413,7 +12555,7 @@
         <v>67</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="8"/>
@@ -12426,7 +12568,7 @@
         <v>67</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="8"/>
@@ -12439,7 +12581,7 @@
         <v>67</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="8"/>
@@ -12452,7 +12594,7 @@
         <v>67</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="8"/>
@@ -12465,7 +12607,7 @@
         <v>67</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="8"/>
@@ -12478,7 +12620,7 @@
         <v>67</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="8"/>
@@ -12491,7 +12633,7 @@
         <v>67</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="8"/>
@@ -12501,10 +12643,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
@@ -12514,10 +12656,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -12527,10 +12669,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="8"/>
@@ -12540,10 +12682,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
@@ -12553,10 +12695,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="8"/>
@@ -12566,10 +12708,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="8"/>
@@ -12579,10 +12721,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="8"/>
@@ -12592,10 +12734,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="8"/>
@@ -12605,10 +12747,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="8"/>
@@ -12618,10 +12760,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="8"/>
@@ -12631,10 +12773,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
@@ -12644,10 +12786,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="8"/>
@@ -12657,10 +12799,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="8"/>
@@ -12670,10 +12812,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="8"/>
@@ -12683,10 +12825,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="8"/>
@@ -12696,10 +12838,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="8"/>
@@ -12709,10 +12851,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="8"/>
@@ -12722,10 +12864,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="8"/>
@@ -12735,10 +12877,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="8"/>
@@ -12748,10 +12890,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
@@ -12761,10 +12903,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="8"/>
@@ -12774,10 +12916,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="8"/>
@@ -12787,10 +12929,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="8"/>
@@ -12800,10 +12942,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="8"/>
@@ -12813,10 +12955,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="8"/>
@@ -12826,10 +12968,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="8"/>
@@ -12839,10 +12981,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="8"/>
@@ -12852,10 +12994,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="8"/>
@@ -12865,10 +13007,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
@@ -12878,10 +13020,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="8"/>
@@ -12891,10 +13033,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
@@ -12904,10 +13046,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
@@ -12917,10 +13059,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="8"/>
@@ -12930,10 +13072,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="8"/>
@@ -12943,10 +13085,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="8"/>
@@ -12956,10 +13098,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="8"/>
@@ -12969,10 +13111,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="8"/>
@@ -12982,10 +13124,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="8"/>
@@ -12995,10 +13137,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="8"/>
@@ -13008,10 +13150,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="8"/>
@@ -13021,10 +13163,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="8"/>
@@ -13034,10 +13176,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="8"/>
@@ -13047,10 +13189,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="8"/>
@@ -13060,10 +13202,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="8"/>
@@ -13073,10 +13215,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="8"/>
@@ -13086,10 +13228,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="8"/>
@@ -13099,10 +13241,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="8"/>
@@ -13112,10 +13254,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="8"/>
@@ -13125,10 +13267,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="8"/>
@@ -13138,10 +13280,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="8"/>
@@ -13157,17 +13299,17 @@
         <v>84</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F219" s="8"/>
       <c r="G219" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -13178,19 +13320,19 @@
         <v>85</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E220" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F220" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F220" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G220" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -13201,17 +13343,17 @@
         <v>86</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F221" s="8"/>
       <c r="G221" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -13222,17 +13364,17 @@
         <v>87</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F222" s="8"/>
       <c r="G222" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -13243,17 +13385,17 @@
         <v>88</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F223" s="8"/>
       <c r="G223" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -13264,17 +13406,17 @@
         <v>89</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F224" s="8"/>
       <c r="G224" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -13285,17 +13427,17 @@
         <v>90</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F225" s="8"/>
       <c r="G225" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -13306,17 +13448,17 @@
         <v>91</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F226" s="8"/>
       <c r="G226" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -13327,17 +13469,17 @@
         <v>92</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F227" s="8"/>
       <c r="G227" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -13348,17 +13490,17 @@
         <v>93</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F228" s="8"/>
       <c r="G228" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -13369,17 +13511,17 @@
         <v>94</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F229" s="8"/>
       <c r="G229" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -13390,19 +13532,19 @@
         <v>95</v>
       </c>
       <c r="C230" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E230" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D230" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="F230" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -13413,25 +13555,25 @@
         <v>96</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F231" s="8"/>
       <c r="G231" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B232" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>380</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="8"/>
@@ -13441,10 +13583,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="8"/>
@@ -13454,10 +13596,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -13467,10 +13609,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -13480,10 +13622,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="8"/>
@@ -13493,10 +13635,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -13506,10 +13648,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="8"/>
@@ -13519,10 +13661,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="8"/>
@@ -13532,10 +13674,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C240" s="7"/>
       <c r="D240" s="8"/>
@@ -13545,10 +13687,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C241" s="7"/>
       <c r="D241" s="8"/>
@@ -13558,10 +13700,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C242" s="7"/>
       <c r="D242" s="8"/>
@@ -13571,10 +13713,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C243" s="7"/>
       <c r="D243" s="8"/>
@@ -13584,10 +13726,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="8"/>
@@ -13597,10 +13739,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C245" s="7"/>
       <c r="D245" s="8"/>
@@ -13610,10 +13752,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C246" s="7"/>
       <c r="D246" s="8"/>
@@ -13623,10 +13765,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="8"/>
@@ -13636,10 +13778,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C248" s="7"/>
       <c r="D248" s="8"/>
@@ -13649,10 +13791,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="8"/>
@@ -13662,10 +13804,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C250" s="7"/>
       <c r="D250" s="8"/>
@@ -13675,10 +13817,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="8"/>
@@ -13688,372 +13830,372 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="C252" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F252" s="8"/>
       <c r="G252" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F253" s="8"/>
       <c r="G253" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F254" s="8"/>
       <c r="G254" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F255" s="8"/>
       <c r="G255" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F256" s="8"/>
       <c r="G256" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F257" s="8"/>
       <c r="G257" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F258" s="8"/>
       <c r="G258" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F259" s="8"/>
       <c r="G259" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F260" s="8"/>
       <c r="G260" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F261" s="8"/>
       <c r="G261" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F263" s="8"/>
       <c r="G263" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F264" s="8"/>
       <c r="G264" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F265" s="8"/>
       <c r="G265" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F266" s="8"/>
       <c r="G266" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
       <c r="G267" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F268" s="8"/>
       <c r="G268" s="8"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F269" s="8"/>
       <c r="G269" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -14064,17 +14206,17 @@
         <v>98</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F270" s="8"/>
       <c r="G270" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -14085,17 +14227,17 @@
         <v>99</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F271" s="8"/>
       <c r="G271" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -14106,19 +14248,19 @@
         <v>100</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -14129,17 +14271,17 @@
         <v>101</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F273" s="8"/>
       <c r="G273" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -14150,17 +14292,17 @@
         <v>102</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F274" s="8"/>
       <c r="G274" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -14171,17 +14313,17 @@
         <v>103</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -14192,17 +14334,17 @@
         <v>104</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -14213,17 +14355,17 @@
         <v>105</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F277" s="8"/>
       <c r="G277" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -14234,17 +14376,17 @@
         <v>106</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F278" s="8"/>
       <c r="G278" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -14255,17 +14397,17 @@
         <v>107</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F279" s="8"/>
       <c r="G279" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -14276,17 +14418,17 @@
         <v>108</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F280" s="8"/>
       <c r="G280" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -14297,17 +14439,17 @@
         <v>109</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F281" s="8"/>
       <c r="G281" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -14318,17 +14460,17 @@
         <v>110</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F282" s="8"/>
       <c r="G282" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -14339,17 +14481,17 @@
         <v>111</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F283" s="8"/>
       <c r="G283" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -14360,17 +14502,17 @@
         <v>112</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F284" s="8"/>
       <c r="G284" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -14381,17 +14523,17 @@
         <v>113</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F285" s="8"/>
       <c r="G285" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -14402,17 +14544,17 @@
         <v>114</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F286" s="8"/>
       <c r="G286" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -14423,17 +14565,17 @@
         <v>115</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F287" s="8"/>
       <c r="G287" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -14444,17 +14586,17 @@
         <v>116</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F288" s="8"/>
       <c r="G288" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -14465,17 +14607,17 @@
         <v>117</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F289" s="8"/>
       <c r="G289" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -14486,25 +14628,25 @@
         <v>118</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F290" s="8"/>
       <c r="G290" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="C291" s="7"/>
       <c r="D291" s="8"/>
@@ -14514,10 +14656,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C292" s="7"/>
       <c r="D292" s="8"/>
@@ -14527,10 +14669,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C293" s="7"/>
       <c r="D293" s="8"/>
@@ -14540,10 +14682,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C294" s="7"/>
       <c r="D294" s="8"/>
@@ -14553,10 +14695,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C295" s="7"/>
       <c r="D295" s="8"/>
@@ -14566,10 +14708,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C296" s="7"/>
       <c r="D296" s="8"/>
@@ -14579,10 +14721,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C297" s="7"/>
       <c r="D297" s="8"/>
@@ -14592,10 +14734,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C298" s="7"/>
       <c r="D298" s="8"/>
@@ -14605,10 +14747,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C299" s="7"/>
       <c r="D299" s="8"/>
@@ -14618,10 +14760,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C300" s="7"/>
       <c r="D300" s="8"/>
@@ -14631,10 +14773,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C301" s="7"/>
       <c r="D301" s="8"/>
@@ -14644,10 +14786,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C302" s="7"/>
       <c r="D302" s="8"/>
@@ -14663,19 +14805,19 @@
         <v>120</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G303" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -14686,19 +14828,19 @@
         <v>121</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G304" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -14709,17 +14851,17 @@
         <v>122</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F305" s="8"/>
       <c r="G305" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -14730,17 +14872,17 @@
         <v>123</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F306" s="8"/>
       <c r="G306" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -14751,17 +14893,17 @@
         <v>124</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F307" s="8"/>
       <c r="G307" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -14772,17 +14914,17 @@
         <v>125</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F308" s="8"/>
       <c r="G308" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -14793,17 +14935,17 @@
         <v>126</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F309" s="8"/>
       <c r="G309" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -14814,17 +14956,17 @@
         <v>127</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F310" s="8"/>
       <c r="G310" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -14835,17 +14977,17 @@
         <v>128</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F311" s="8"/>
       <c r="G311" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -14856,17 +14998,17 @@
         <v>129</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F312" s="8"/>
       <c r="G312" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -14877,17 +15019,17 @@
         <v>130</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F313" s="8"/>
       <c r="G313" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -14898,17 +15040,17 @@
         <v>131</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F314" s="8"/>
       <c r="G314" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -14919,17 +15061,17 @@
         <v>132</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F315" s="8"/>
       <c r="G315" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -14940,17 +15082,17 @@
         <v>133</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F316" s="8"/>
       <c r="G316" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -14961,17 +15103,17 @@
         <v>134</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F317" s="8"/>
       <c r="G317" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -14982,17 +15124,17 @@
         <v>135</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F318" s="8"/>
       <c r="G318" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -15003,17 +15145,17 @@
         <v>136</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F319" s="8"/>
       <c r="G319" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -15024,17 +15166,17 @@
         <v>137</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F320" s="8"/>
       <c r="G320" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -15045,17 +15187,17 @@
         <v>138</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F321" s="8"/>
       <c r="G321" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -15063,7 +15205,7 @@
         <v>119</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C322" s="7"/>
       <c r="D322" s="8"/>
@@ -15076,7 +15218,7 @@
         <v>119</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C323" s="7"/>
       <c r="D323" s="8"/>
@@ -15089,7 +15231,7 @@
         <v>119</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C324" s="7"/>
       <c r="D324" s="8"/>
@@ -15102,7 +15244,7 @@
         <v>119</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C325" s="7"/>
       <c r="D325" s="8"/>
@@ -15115,7 +15257,7 @@
         <v>119</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C326" s="7"/>
       <c r="D326" s="8"/>
@@ -15128,7 +15270,7 @@
         <v>119</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C327" s="7"/>
       <c r="D327" s="8"/>
@@ -15141,7 +15283,7 @@
         <v>119</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C328" s="7"/>
       <c r="D328" s="8"/>
@@ -15154,7 +15296,7 @@
         <v>119</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C329" s="7"/>
       <c r="D329" s="8"/>
@@ -15167,7 +15309,7 @@
         <v>119</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -15180,7 +15322,7 @@
         <v>119</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -15193,7 +15335,7 @@
         <v>119</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -15206,7 +15348,7 @@
         <v>119</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C333" s="7"/>
       <c r="D333" s="8"/>
@@ -15219,7 +15361,7 @@
         <v>119</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C334" s="7"/>
       <c r="D334" s="8"/>
@@ -15232,7 +15374,7 @@
         <v>119</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="7"/>
       <c r="D335" s="8"/>
@@ -15245,7 +15387,7 @@
         <v>119</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C336" s="7"/>
       <c r="D336" s="8"/>
@@ -15258,7 +15400,7 @@
         <v>119</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C337" s="7"/>
       <c r="D337" s="8"/>
@@ -15271,7 +15413,7 @@
         <v>119</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C338" s="7"/>
       <c r="D338" s="8"/>
@@ -15284,20 +15426,20 @@
         <v>119</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E339" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F339" s="18"/>
       <c r="G339" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -15305,20 +15447,20 @@
         <v>119</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D340" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E340" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F340" s="18"/>
       <c r="G340" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -15326,20 +15468,20 @@
         <v>119</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C341" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E341" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -15347,20 +15489,20 @@
         <v>119</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C342" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E342" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F342" s="18"/>
       <c r="G342" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
@@ -15368,282 +15510,282 @@
         <v>119</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E343" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F343" s="18"/>
       <c r="G343" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F344" s="8"/>
       <c r="G344" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F345" s="8"/>
       <c r="G345" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F346" s="8"/>
       <c r="G346" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F347" s="8"/>
       <c r="G347" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E348" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F348" s="8"/>
       <c r="G348" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E349" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F350" s="8"/>
       <c r="G350" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F351" s="8"/>
       <c r="G351" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E352" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F352" s="8"/>
       <c r="G352" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E353" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F353" s="8"/>
       <c r="G353" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E354" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F354" s="8"/>
       <c r="G354" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E355" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F355" s="8"/>
       <c r="G355" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>439</v>
       </c>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
@@ -15653,10 +15795,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C357" s="7"/>
       <c r="D357" s="8"/>
@@ -15666,10 +15808,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C358" s="7"/>
       <c r="D358" s="8"/>
@@ -15679,10 +15821,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C359" s="7"/>
       <c r="D359" s="8"/>
@@ -15692,10 +15834,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C360" s="7"/>
       <c r="D360" s="8"/>
@@ -15705,10 +15847,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C361" s="7"/>
       <c r="D361" s="8"/>
@@ -15718,10 +15860,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C362" s="7"/>
       <c r="D362" s="8"/>
@@ -15731,10 +15873,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C363" s="7"/>
       <c r="D363" s="8"/>
@@ -15744,10 +15886,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C364" s="7"/>
       <c r="D364" s="8"/>
@@ -15757,10 +15899,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C365" s="7"/>
       <c r="D365" s="8"/>
@@ -15770,10 +15912,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C366" s="7"/>
       <c r="D366" s="8"/>
@@ -15783,10 +15925,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C367" s="7"/>
       <c r="D367" s="8"/>
@@ -15796,10 +15938,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C368" s="7"/>
       <c r="D368" s="8"/>
@@ -15809,10 +15951,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C369" s="7"/>
       <c r="D369" s="8"/>
@@ -15822,10 +15964,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C370" s="7"/>
       <c r="D370" s="8"/>
@@ -15835,10 +15977,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C371" s="7"/>
       <c r="D371" s="8"/>
@@ -15848,10 +15990,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C372" s="7"/>
       <c r="D372" s="8"/>
@@ -15861,10 +16003,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C373" s="7"/>
       <c r="D373" s="8"/>
@@ -15874,10 +16016,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C374" s="7"/>
       <c r="D374" s="8"/>
@@ -15887,10 +16029,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B375" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="C375" s="7"/>
       <c r="D375" s="8"/>
@@ -15900,10 +16042,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C376" s="7"/>
       <c r="D376" s="8"/>
@@ -15913,10 +16055,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C377" s="7"/>
       <c r="D377" s="8"/>
@@ -15926,10 +16068,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C378" s="7"/>
       <c r="D378" s="8"/>
@@ -15939,10 +16081,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C379" s="7"/>
       <c r="D379" s="8"/>
@@ -15952,10 +16094,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C380" s="7"/>
       <c r="D380" s="8"/>
@@ -15965,10 +16107,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C381" s="7"/>
       <c r="D381" s="8"/>
@@ -15978,10 +16120,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C382" s="7"/>
       <c r="D382" s="8"/>
@@ -15991,10 +16133,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C383" s="7"/>
       <c r="D383" s="8"/>
@@ -16004,10 +16146,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C384" s="7"/>
       <c r="D384" s="8"/>
@@ -16017,10 +16159,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C385" s="7"/>
       <c r="D385" s="8"/>
@@ -16030,10 +16172,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C386" s="7"/>
       <c r="D386" s="8"/>
@@ -16043,10 +16185,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C387" s="7"/>
       <c r="D387" s="8"/>
@@ -16056,10 +16198,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C388" s="7"/>
       <c r="D388" s="8"/>
@@ -16069,10 +16211,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C389" s="7"/>
       <c r="D389" s="8"/>
@@ -16082,10 +16224,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C390" s="7"/>
       <c r="D390" s="8"/>
@@ -16095,10 +16237,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C391" s="7"/>
       <c r="D391" s="8"/>
@@ -16108,10 +16250,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C392" s="7"/>
       <c r="D392" s="8"/>
@@ -16121,10 +16263,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C393" s="7"/>
       <c r="D393" s="8"/>
@@ -16134,10 +16276,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C394" s="7"/>
       <c r="D394" s="8"/>
@@ -16147,10 +16289,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C395" s="7"/>
       <c r="D395" s="8"/>
@@ -16160,10 +16302,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
@@ -16173,10 +16315,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C397" s="7"/>
       <c r="D397" s="8"/>
@@ -16186,10 +16328,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C398" s="7"/>
       <c r="D398" s="8"/>
@@ -16199,10 +16341,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C399" s="7"/>
       <c r="D399" s="8"/>
@@ -16212,10 +16354,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C400" s="7"/>
       <c r="D400" s="8"/>
@@ -16225,10 +16367,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
@@ -16238,10 +16380,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C402" s="7"/>
       <c r="D402" s="8"/>
@@ -16251,10 +16393,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C403" s="7"/>
       <c r="D403" s="8"/>
@@ -16264,10 +16406,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C404" s="7"/>
       <c r="D404" s="8"/>
@@ -16277,10 +16419,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C405" s="7"/>
       <c r="D405" s="8"/>
@@ -16290,10 +16432,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
@@ -16303,10 +16445,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C407" s="7"/>
       <c r="D407" s="8"/>
@@ -16316,10 +16458,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C408" s="7"/>
       <c r="D408" s="8"/>
@@ -16329,10 +16471,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C409" s="7"/>
       <c r="D409" s="8"/>
@@ -16342,10 +16484,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C410" s="7"/>
       <c r="D410" s="8"/>
@@ -16355,10 +16497,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
@@ -16368,10 +16510,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C412" s="7"/>
       <c r="D412" s="8"/>
@@ -16381,10 +16523,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C413" s="7"/>
       <c r="D413" s="8"/>
@@ -16400,17 +16542,17 @@
         <v>153</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
@@ -16421,19 +16563,19 @@
         <v>154</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D415" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E415" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E415" s="8" t="s">
+      <c r="F415" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F415" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G415" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
@@ -16444,17 +16586,17 @@
         <v>155</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F416" s="8"/>
       <c r="G416" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
@@ -16465,19 +16607,19 @@
         <v>156</v>
       </c>
       <c r="C417" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D417" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E417" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D417" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E417" s="8" t="s">
+      <c r="F417" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F417" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G417" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
@@ -16488,19 +16630,19 @@
         <v>157</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D418" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E418" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E418" s="8" t="s">
+      <c r="F418" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F418" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G418" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
@@ -16511,19 +16653,19 @@
         <v>158</v>
       </c>
       <c r="C419" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D419" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E419" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D419" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E419" s="8" t="s">
+      <c r="F419" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F419" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G419" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
@@ -16534,19 +16676,19 @@
         <v>159</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D420" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E420" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E420" s="8" t="s">
+      <c r="F420" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F420" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G420" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
@@ -16557,17 +16699,17 @@
         <v>160</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E421" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
@@ -16578,19 +16720,19 @@
         <v>161</v>
       </c>
       <c r="C422" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D422" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E422" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D422" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E422" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="F422" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G422" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
@@ -16601,17 +16743,17 @@
         <v>162</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E423" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
@@ -16622,17 +16764,17 @@
         <v>163</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F424" s="8"/>
       <c r="G424" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
@@ -16643,17 +16785,17 @@
         <v>164</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
@@ -16664,17 +16806,17 @@
         <v>165</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D426" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E426" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F426" s="8"/>
       <c r="G426" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
@@ -16685,19 +16827,19 @@
         <v>166</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D427" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E427" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E427" s="8" t="s">
+      <c r="F427" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F427" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G427" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
@@ -16708,17 +16850,17 @@
         <v>167</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E428" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F428" s="8"/>
       <c r="G428" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
@@ -16729,17 +16871,17 @@
         <v>168</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D429" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E429" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F429" s="8"/>
       <c r="G429" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
@@ -16750,25 +16892,25 @@
         <v>169</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E430" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F430" s="8"/>
       <c r="G430" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B431" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="C431" s="7"/>
       <c r="D431" s="8"/>
@@ -16778,10 +16920,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C432" s="7"/>
       <c r="D432" s="8"/>
@@ -16791,10 +16933,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C433" s="7"/>
       <c r="D433" s="8"/>
@@ -16804,10 +16946,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C434" s="7"/>
       <c r="D434" s="8"/>
@@ -16817,10 +16959,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C435" s="7"/>
       <c r="D435" s="8"/>
@@ -16830,10 +16972,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C436" s="7"/>
       <c r="D436" s="8"/>
@@ -16843,10 +16985,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C437" s="7"/>
       <c r="D437" s="8"/>
@@ -16856,10 +16998,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C438" s="7"/>
       <c r="D438" s="8"/>
@@ -16869,10 +17011,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C439" s="7"/>
       <c r="D439" s="8"/>
@@ -16882,10 +17024,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C440" s="7"/>
       <c r="D440" s="8"/>
@@ -16895,10 +17037,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C441" s="7"/>
       <c r="D441" s="8"/>
@@ -16908,10 +17050,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C442" s="7"/>
       <c r="D442" s="8"/>
@@ -16921,10 +17063,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C443" s="7"/>
       <c r="D443" s="8"/>
@@ -16934,10 +17076,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C444" s="7"/>
       <c r="D444" s="8"/>
@@ -16947,10 +17089,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B445" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="20"/>
@@ -16960,10 +17102,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B446" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="20"/>
@@ -16973,10 +17115,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="20"/>
@@ -16986,10 +17128,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="20"/>
@@ -16999,10 +17141,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B449" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="20"/>
@@ -17011,6 +17153,7 @@
       <c r="G449" s="20"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G449" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}"/>
   <conditionalFormatting sqref="B1:B449">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F1AC68-EE5E-4649-9C1A-3DC54810BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9090E-FADC-4331-AEFD-043A5227FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="519">
   <si>
     <t>Grupo</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t>VITOR MATHIAS DEVES</t>
-  </si>
-  <si>
-    <t>Cotrisal</t>
   </si>
   <si>
     <t>CARLOS ALBERTO MARCHIORO</t>
@@ -2106,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
       <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
@@ -3520,10 +3517,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>291</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>292</v>
       </c>
       <c r="C55" s="21">
         <v>60</v>
@@ -3546,10 +3543,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C56" s="21">
         <v>40</v>
@@ -3572,10 +3569,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C57" s="21">
         <v>52</v>
@@ -3598,10 +3595,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C58" s="21">
         <v>37</v>
@@ -3624,10 +3621,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" s="21">
         <v>30</v>
@@ -3650,10 +3647,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="21">
         <v>29</v>
@@ -3676,10 +3673,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" s="21">
         <v>21</v>
@@ -3702,10 +3699,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C62" s="21">
         <v>25</v>
@@ -3728,10 +3725,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C63" s="21">
         <v>34</v>
@@ -3754,10 +3751,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C64" s="21">
         <v>42</v>
@@ -3780,10 +3777,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C65" s="21">
         <v>27</v>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C66" s="21">
         <v>41</v>
@@ -3832,10 +3829,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C67" s="21">
         <v>13</v>
@@ -3858,10 +3855,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C68" s="21">
         <v>27</v>
@@ -3884,10 +3881,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C69" s="21">
         <v>20</v>
@@ -3910,10 +3907,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C70" s="21">
         <v>50</v>
@@ -3936,10 +3933,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C71" s="21">
         <v>21</v>
@@ -3962,10 +3959,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C72">
         <v>19</v>
@@ -3988,10 +3985,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C73">
         <v>26</v>
@@ -4736,10 +4733,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102">
         <v>29</v>
@@ -4762,10 +4759,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C103">
         <v>23</v>
@@ -4788,10 +4785,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104">
         <v>49</v>
@@ -4814,10 +4811,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105">
         <v>15</v>
@@ -4840,10 +4837,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -4866,10 +4863,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C107">
         <v>14</v>
@@ -4892,10 +4889,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108">
         <v>10</v>
@@ -4918,10 +4915,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C109">
         <v>19</v>
@@ -4944,10 +4941,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C110">
         <v>6</v>
@@ -4970,10 +4967,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C111">
         <v>27</v>
@@ -4996,10 +4993,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C112">
         <v>19</v>
@@ -5022,10 +5019,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C113">
         <v>24</v>
@@ -5048,10 +5045,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C114">
         <v>23</v>
@@ -5074,10 +5071,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115">
         <v>18</v>
@@ -5100,10 +5097,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C116">
         <v>11</v>
@@ -5126,10 +5123,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C117">
         <v>49</v>
@@ -5152,10 +5149,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C118">
         <v>31</v>
@@ -5178,10 +5175,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -5753,7 +5750,7 @@
         <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C141">
         <v>6</v>
@@ -5779,7 +5776,7 @@
         <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -5805,7 +5802,7 @@
         <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -5831,7 +5828,7 @@
         <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -5857,7 +5854,7 @@
         <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C145">
         <v>13</v>
@@ -5883,7 +5880,7 @@
         <v>97</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C146">
         <v>27</v>
@@ -5909,7 +5906,7 @@
         <v>97</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C147">
         <v>8</v>
@@ -5935,7 +5932,7 @@
         <v>97</v>
       </c>
       <c r="B148" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C148">
         <v>14</v>
@@ -5961,7 +5958,7 @@
         <v>97</v>
       </c>
       <c r="B149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -6481,7 +6478,7 @@
         <v>119</v>
       </c>
       <c r="B169" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C169">
         <v>32</v>
@@ -6507,7 +6504,7 @@
         <v>119</v>
       </c>
       <c r="B170" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C170">
         <v>25</v>
@@ -6533,7 +6530,7 @@
         <v>119</v>
       </c>
       <c r="B171" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C171">
         <v>27</v>
@@ -6559,7 +6556,7 @@
         <v>119</v>
       </c>
       <c r="B172" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C172">
         <v>15</v>
@@ -6585,7 +6582,7 @@
         <v>119</v>
       </c>
       <c r="B173" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C173">
         <v>19</v>
@@ -6611,7 +6608,7 @@
         <v>119</v>
       </c>
       <c r="B174" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C174">
         <v>36</v>
@@ -6637,7 +6634,7 @@
         <v>119</v>
       </c>
       <c r="B175" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -6663,7 +6660,7 @@
         <v>119</v>
       </c>
       <c r="B176" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C176">
         <v>29</v>
@@ -6689,7 +6686,7 @@
         <v>119</v>
       </c>
       <c r="B177" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C177">
         <v>11</v>
@@ -6715,7 +6712,7 @@
         <v>119</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C178">
         <v>12</v>
@@ -6741,7 +6738,7 @@
         <v>119</v>
       </c>
       <c r="B179" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C179">
         <v>25</v>
@@ -6767,7 +6764,7 @@
         <v>119</v>
       </c>
       <c r="B180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C180">
         <v>38</v>
@@ -6793,7 +6790,7 @@
         <v>119</v>
       </c>
       <c r="B181" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C181">
         <v>18</v>
@@ -6819,7 +6816,7 @@
         <v>119</v>
       </c>
       <c r="B182" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C182">
         <v>22</v>
@@ -6845,7 +6842,7 @@
         <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C183">
         <v>26</v>
@@ -6871,7 +6868,7 @@
         <v>119</v>
       </c>
       <c r="B184" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C184">
         <v>41</v>
@@ -6897,7 +6894,7 @@
         <v>119</v>
       </c>
       <c r="B185" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C185">
         <v>17</v>
@@ -6923,7 +6920,7 @@
         <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C186">
         <v>20</v>
@@ -6949,7 +6946,7 @@
         <v>119</v>
       </c>
       <c r="B187" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C187">
         <v>49</v>
@@ -6975,7 +6972,7 @@
         <v>119</v>
       </c>
       <c r="B188" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C188">
         <v>20</v>
@@ -7001,7 +6998,7 @@
         <v>119</v>
       </c>
       <c r="B189" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -7024,10 +7021,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B190" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C190">
         <v>14</v>
@@ -7050,10 +7047,10 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B191" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C191">
         <v>41</v>
@@ -7076,10 +7073,10 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C192">
         <v>16</v>
@@ -7102,10 +7099,10 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B193" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C193">
         <v>6</v>
@@ -7128,10 +7125,10 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B194" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C194">
         <v>44</v>
@@ -7154,10 +7151,10 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B195" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C195">
         <v>15</v>
@@ -7180,10 +7177,10 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C196">
         <v>15</v>
@@ -7206,10 +7203,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B197" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C197">
         <v>15</v>
@@ -7232,10 +7229,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C198">
         <v>35</v>
@@ -7258,10 +7255,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C199">
         <v>19</v>
@@ -7284,10 +7281,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B200" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C200">
         <v>6</v>
@@ -7310,10 +7307,10 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B201" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C201">
         <v>29</v>
@@ -7336,10 +7333,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>456</v>
+      </c>
+      <c r="B202" t="s">
         <v>457</v>
-      </c>
-      <c r="B202" t="s">
-        <v>458</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -7359,10 +7356,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B203" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -7385,10 +7382,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B204" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -7411,10 +7408,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B205" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -7437,10 +7434,10 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B206" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C206">
         <v>4</v>
@@ -7463,10 +7460,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B207" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C207">
         <v>4</v>
@@ -7489,10 +7486,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B208" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -7515,10 +7512,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B209" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -7541,10 +7538,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B210" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -7567,10 +7564,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B211" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -7590,10 +7587,10 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B212" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -7616,10 +7613,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B213" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -7642,10 +7639,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B214" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C214">
         <v>44</v>
@@ -7668,10 +7665,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B215" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -7694,10 +7691,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B216" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C216">
         <v>10</v>
@@ -7720,10 +7717,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B217" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -7746,10 +7743,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B218" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -7772,10 +7769,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B219" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C219">
         <v>26</v>
@@ -7798,10 +7795,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B220" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -7824,10 +7821,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B221" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C221">
         <v>15</v>
@@ -7850,10 +7847,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -7876,10 +7873,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B223" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C223">
         <v>44</v>
@@ -7902,10 +7899,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B224" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -7928,10 +7925,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B225" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C225">
         <v>3</v>
@@ -7954,10 +7951,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B226" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C226">
         <v>6</v>
@@ -7980,10 +7977,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B227" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -8006,10 +8003,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B228" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -8032,10 +8029,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B229" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -8058,10 +8055,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B230" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -8084,10 +8081,10 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B231" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -8110,10 +8107,10 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B232" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C232">
         <v>11</v>
@@ -8136,10 +8133,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B233" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -8162,10 +8159,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B234" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C234">
         <v>9</v>
@@ -8188,10 +8185,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B235" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -8211,10 +8208,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B236" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C236">
         <v>7</v>
@@ -8237,10 +8234,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B237" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C237">
         <v>5</v>
@@ -8263,10 +8260,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B238" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -8289,10 +8286,10 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B239" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -8315,10 +8312,10 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>151</v>
+      </c>
+      <c r="B240" t="s">
         <v>152</v>
-      </c>
-      <c r="B240" t="s">
-        <v>153</v>
       </c>
       <c r="C240">
         <v>18</v>
@@ -8341,10 +8338,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B241" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C241">
         <v>23</v>
@@ -8367,10 +8364,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B242" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C242">
         <v>23</v>
@@ -8393,10 +8390,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B243" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C243">
         <v>17</v>
@@ -8419,10 +8416,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B244" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C244">
         <v>36</v>
@@ -8445,10 +8442,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B245" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C245">
         <v>23</v>
@@ -8471,10 +8468,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C246">
         <v>23</v>
@@ -8497,10 +8494,10 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B247" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C247">
         <v>23</v>
@@ -8523,10 +8520,10 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B248" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C248">
         <v>18</v>
@@ -8549,10 +8546,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B249" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C249">
         <v>42</v>
@@ -8575,10 +8572,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B250" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C250">
         <v>42</v>
@@ -8601,10 +8598,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B251" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C251">
         <v>23</v>
@@ -8627,10 +8624,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B252" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C252">
         <v>23</v>
@@ -8653,10 +8650,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B253" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C253">
         <v>23</v>
@@ -8679,10 +8676,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B254" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C254">
         <v>23</v>
@@ -8705,10 +8702,10 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B255" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C255">
         <v>23</v>
@@ -8731,10 +8728,10 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B256" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C256">
         <v>23</v>
@@ -8757,10 +8754,10 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
+        <v>211</v>
+      </c>
+      <c r="B257" t="s">
         <v>212</v>
-      </c>
-      <c r="B257" t="s">
-        <v>213</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -8780,10 +8777,10 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B258" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C258">
         <v>12</v>
@@ -8806,10 +8803,10 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B259" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -8845,7 +8842,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8860,13 +8857,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9165,7 +9162,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -9179,7 +9176,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -9193,7 +9190,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -9207,7 +9204,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -9235,7 +9232,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -9249,7 +9246,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>518</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -9263,7 +9260,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>518</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -9277,7 +9274,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>518</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -9291,7 +9288,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -9305,7 +9302,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -9319,7 +9316,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -9333,7 +9330,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -9347,7 +9344,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -9361,7 +9358,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -9375,7 +9372,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -9389,7 +9386,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -9403,7 +9400,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -9417,7 +9414,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -9431,7 +9428,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -9445,7 +9442,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -9471,7 +9468,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9489,25 +9486,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -9515,7 +9512,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2">
         <v>27</v>
@@ -9535,7 +9532,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -9555,7 +9552,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -9572,7 +9569,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -9592,7 +9589,7 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -9612,7 +9609,7 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7">
         <v>34</v>
@@ -9632,7 +9629,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <v>114</v>
@@ -9649,10 +9646,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -9669,10 +9666,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10">
         <v>48</v>
@@ -9689,10 +9686,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11">
         <v>26</v>
@@ -9709,10 +9706,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12">
         <v>98</v>
@@ -9729,10 +9726,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -9749,10 +9746,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -9766,10 +9763,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15">
         <v>410</v>
@@ -9796,7 +9793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A345" sqref="A345:A355"/>
     </sheetView>
   </sheetViews>
@@ -9813,25 +9810,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9842,19 +9839,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9865,19 +9862,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9888,19 +9885,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9911,19 +9908,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9934,17 +9931,17 @@
         <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9955,17 +9952,17 @@
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9976,19 +9973,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9999,19 +9996,19 @@
         <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -10022,19 +10019,19 @@
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -10045,17 +10042,17 @@
         <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -10066,19 +10063,19 @@
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -10089,17 +10086,17 @@
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -10110,17 +10107,17 @@
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -10131,19 +10128,19 @@
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -10154,19 +10151,19 @@
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G16" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -10177,17 +10174,17 @@
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -10198,25 +10195,25 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -10226,10 +10223,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
@@ -10239,10 +10236,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
@@ -10258,17 +10255,17 @@
         <v>30</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -10279,19 +10276,19 @@
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -10302,19 +10299,19 @@
         <v>32</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G24" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -10325,17 +10322,17 @@
         <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -10346,17 +10343,17 @@
         <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -10367,19 +10364,19 @@
         <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G27" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -10390,17 +10387,17 @@
         <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -10411,17 +10408,17 @@
         <v>37</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -10432,17 +10429,17 @@
         <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -10453,17 +10450,17 @@
         <v>39</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -10474,17 +10471,17 @@
         <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -10495,17 +10492,17 @@
         <v>41</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -10516,17 +10513,17 @@
         <v>42</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -10537,17 +10534,17 @@
         <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -10558,17 +10555,17 @@
         <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -10579,17 +10576,17 @@
         <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -10600,17 +10597,17 @@
         <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -10621,17 +10618,17 @@
         <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -10642,17 +10639,17 @@
         <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -10663,19 +10660,19 @@
         <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G41" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -10686,17 +10683,17 @@
         <v>50</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -10707,17 +10704,17 @@
         <v>51</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -10728,25 +10725,25 @@
         <v>52</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -10756,10 +10753,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -10769,33 +10766,33 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>223</v>
-      </c>
       <c r="G47" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
@@ -10805,10 +10802,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
@@ -10818,10 +10815,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
@@ -10831,10 +10828,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
@@ -10844,10 +10841,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
@@ -10857,10 +10854,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
@@ -10870,10 +10867,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
@@ -10883,10 +10880,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -10896,10 +10893,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -10909,10 +10906,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -10922,10 +10919,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -10935,10 +10932,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -10948,10 +10945,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -10961,10 +10958,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -10974,10 +10971,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -10987,10 +10984,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -11000,10 +10997,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -11013,10 +11010,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -11026,10 +11023,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -11058,17 +11055,17 @@
         <v>55</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -11079,17 +11076,17 @@
         <v>56</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -11100,17 +11097,17 @@
         <v>57</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -11121,17 +11118,17 @@
         <v>58</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -11142,17 +11139,17 @@
         <v>59</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -11163,17 +11160,17 @@
         <v>60</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -11184,19 +11181,19 @@
         <v>61</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="F74" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -11207,17 +11204,17 @@
         <v>62</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -11228,17 +11225,17 @@
         <v>63</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -11249,17 +11246,17 @@
         <v>64</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -11270,17 +11267,17 @@
         <v>65</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -11291,25 +11288,25 @@
         <v>66</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
@@ -11319,10 +11316,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -11332,10 +11329,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -11345,10 +11342,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -11358,10 +11355,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -11371,10 +11368,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -11384,10 +11381,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -11397,10 +11394,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -11410,10 +11407,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -11423,10 +11420,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -11436,10 +11433,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -11449,10 +11446,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -11462,10 +11459,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -11475,10 +11472,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -11488,10 +11485,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -11501,10 +11498,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -11514,10 +11511,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -11527,10 +11524,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -11540,10 +11537,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -11553,10 +11550,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -11566,10 +11563,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
@@ -11579,10 +11576,10 @@
     </row>
     <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
@@ -11592,10 +11589,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="8"/>
@@ -11605,10 +11602,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
@@ -11618,10 +11615,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
@@ -11631,10 +11628,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="8"/>
@@ -11644,10 +11641,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -11657,10 +11654,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="8"/>
@@ -11670,10 +11667,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="8"/>
@@ -11683,10 +11680,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="8"/>
@@ -11696,10 +11693,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="8"/>
@@ -11709,10 +11706,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="8"/>
@@ -11722,10 +11719,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="8"/>
@@ -11735,10 +11732,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="8"/>
@@ -11748,10 +11745,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="8"/>
@@ -11761,10 +11758,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="8"/>
@@ -11774,183 +11771,183 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C116" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="F119" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="8"/>
@@ -11960,10 +11957,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
@@ -11973,10 +11970,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="8"/>
@@ -11986,10 +11983,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="8"/>
@@ -11999,10 +11996,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="8"/>
@@ -12012,10 +12009,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="8"/>
@@ -12025,10 +12022,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="8"/>
@@ -12038,10 +12035,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="8"/>
@@ -12051,10 +12048,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="8"/>
@@ -12064,10 +12061,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="8"/>
@@ -12077,10 +12074,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="8"/>
@@ -12090,10 +12087,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="8"/>
@@ -12103,10 +12100,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="8"/>
@@ -12116,10 +12113,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
@@ -12129,10 +12126,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="8"/>
@@ -12142,10 +12139,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
@@ -12155,10 +12152,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="8"/>
@@ -12168,10 +12165,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="8"/>
@@ -12181,10 +12178,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="8"/>
@@ -12200,17 +12197,17 @@
         <v>68</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -12221,17 +12218,17 @@
         <v>69</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -12242,17 +12239,17 @@
         <v>70</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -12263,17 +12260,17 @@
         <v>71</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F147" s="8"/>
       <c r="G147" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -12284,17 +12281,17 @@
         <v>72</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -12305,19 +12302,19 @@
         <v>73</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -12328,17 +12325,17 @@
         <v>74</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F150" s="8"/>
       <c r="G150" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -12349,17 +12346,17 @@
         <v>75</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -12370,17 +12367,17 @@
         <v>76</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F152" s="8"/>
       <c r="G152" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -12391,17 +12388,17 @@
         <v>77</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F153" s="8"/>
       <c r="G153" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -12412,19 +12409,19 @@
         <v>78</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E154" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F154" s="8" t="s">
-        <v>313</v>
-      </c>
       <c r="G154" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -12435,17 +12432,17 @@
         <v>79</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F155" s="8"/>
       <c r="G155" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -12456,17 +12453,17 @@
         <v>80</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F156" s="8"/>
       <c r="G156" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -12477,17 +12474,17 @@
         <v>81</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F157" s="8"/>
       <c r="G157" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -12498,17 +12495,17 @@
         <v>82</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F158" s="8"/>
       <c r="G158" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -12516,7 +12513,7 @@
         <v>67</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
@@ -12529,7 +12526,7 @@
         <v>67</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="8"/>
@@ -12542,7 +12539,7 @@
         <v>67</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="8"/>
@@ -12555,7 +12552,7 @@
         <v>67</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="8"/>
@@ -12568,7 +12565,7 @@
         <v>67</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="8"/>
@@ -12581,7 +12578,7 @@
         <v>67</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="8"/>
@@ -12594,7 +12591,7 @@
         <v>67</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="8"/>
@@ -12607,7 +12604,7 @@
         <v>67</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="8"/>
@@ -12620,7 +12617,7 @@
         <v>67</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="8"/>
@@ -12633,7 +12630,7 @@
         <v>67</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="8"/>
@@ -12643,10 +12640,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="8"/>
@@ -12656,10 +12653,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -12669,10 +12666,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="8"/>
@@ -12682,10 +12679,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
@@ -12695,10 +12692,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="8"/>
@@ -12708,10 +12705,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="8"/>
@@ -12721,10 +12718,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="8"/>
@@ -12734,10 +12731,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="8"/>
@@ -12747,10 +12744,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="8"/>
@@ -12760,10 +12757,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="8"/>
@@ -12773,10 +12770,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
@@ -12786,10 +12783,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="8"/>
@@ -12799,10 +12796,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="8"/>
@@ -12812,10 +12809,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="8"/>
@@ -12825,10 +12822,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="8"/>
@@ -12838,10 +12835,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="8"/>
@@ -12851,10 +12848,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="8"/>
@@ -12864,10 +12861,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="8"/>
@@ -12877,10 +12874,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="8"/>
@@ -12890,10 +12887,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
@@ -12903,10 +12900,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="8"/>
@@ -12916,10 +12913,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="8"/>
@@ -12929,10 +12926,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="8"/>
@@ -12942,10 +12939,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="8"/>
@@ -12955,10 +12952,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="8"/>
@@ -12968,10 +12965,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="8"/>
@@ -12981,10 +12978,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="8"/>
@@ -12994,10 +12991,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="8"/>
@@ -13007,10 +13004,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
@@ -13020,10 +13017,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="8"/>
@@ -13033,10 +13030,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="8"/>
@@ -13046,10 +13043,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
@@ -13059,10 +13056,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="8"/>
@@ -13072,10 +13069,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="8"/>
@@ -13085,10 +13082,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="8"/>
@@ -13098,10 +13095,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="8"/>
@@ -13111,10 +13108,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="8"/>
@@ -13124,10 +13121,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="8"/>
@@ -13137,10 +13134,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="8"/>
@@ -13150,10 +13147,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="8"/>
@@ -13163,10 +13160,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="8"/>
@@ -13176,10 +13173,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="8"/>
@@ -13189,10 +13186,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="8"/>
@@ -13202,10 +13199,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="8"/>
@@ -13215,10 +13212,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="8"/>
@@ -13228,10 +13225,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="8"/>
@@ -13241,10 +13238,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="8"/>
@@ -13254,10 +13251,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="8"/>
@@ -13267,10 +13264,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="8"/>
@@ -13280,10 +13277,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="8"/>
@@ -13299,17 +13296,17 @@
         <v>84</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F219" s="8"/>
       <c r="G219" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -13320,19 +13317,19 @@
         <v>85</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E220" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F220" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F220" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G220" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -13343,17 +13340,17 @@
         <v>86</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F221" s="8"/>
       <c r="G221" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -13364,17 +13361,17 @@
         <v>87</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F222" s="8"/>
       <c r="G222" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -13385,17 +13382,17 @@
         <v>88</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F223" s="8"/>
       <c r="G223" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -13406,17 +13403,17 @@
         <v>89</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F224" s="8"/>
       <c r="G224" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -13427,17 +13424,17 @@
         <v>90</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F225" s="8"/>
       <c r="G225" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -13448,17 +13445,17 @@
         <v>91</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F226" s="8"/>
       <c r="G226" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -13469,17 +13466,17 @@
         <v>92</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F227" s="8"/>
       <c r="G227" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -13490,17 +13487,17 @@
         <v>93</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F228" s="8"/>
       <c r="G228" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -13511,17 +13508,17 @@
         <v>94</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F229" s="8"/>
       <c r="G229" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -13532,19 +13529,19 @@
         <v>95</v>
       </c>
       <c r="C230" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E230" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D230" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="F230" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -13555,25 +13552,25 @@
         <v>96</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F231" s="8"/>
       <c r="G231" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B232" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="8"/>
@@ -13583,10 +13580,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="8"/>
@@ -13596,10 +13593,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -13609,10 +13606,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -13622,10 +13619,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="8"/>
@@ -13635,10 +13632,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -13648,10 +13645,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="8"/>
@@ -13661,10 +13658,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="8"/>
@@ -13674,10 +13671,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C240" s="7"/>
       <c r="D240" s="8"/>
@@ -13687,10 +13684,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C241" s="7"/>
       <c r="D241" s="8"/>
@@ -13700,10 +13697,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C242" s="7"/>
       <c r="D242" s="8"/>
@@ -13713,10 +13710,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C243" s="7"/>
       <c r="D243" s="8"/>
@@ -13726,10 +13723,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="8"/>
@@ -13739,10 +13736,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C245" s="7"/>
       <c r="D245" s="8"/>
@@ -13752,10 +13749,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C246" s="7"/>
       <c r="D246" s="8"/>
@@ -13765,10 +13762,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="8"/>
@@ -13778,10 +13775,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C248" s="7"/>
       <c r="D248" s="8"/>
@@ -13791,10 +13788,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="8"/>
@@ -13804,10 +13801,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C250" s="7"/>
       <c r="D250" s="8"/>
@@ -13817,10 +13814,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="8"/>
@@ -13830,372 +13827,372 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F252" s="8"/>
       <c r="G252" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F253" s="8"/>
       <c r="G253" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F254" s="8"/>
       <c r="G254" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F255" s="8"/>
       <c r="G255" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F256" s="8"/>
       <c r="G256" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F257" s="8"/>
       <c r="G257" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F258" s="8"/>
       <c r="G258" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F259" s="8"/>
       <c r="G259" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F260" s="8"/>
       <c r="G260" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F261" s="8"/>
       <c r="G261" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F263" s="8"/>
       <c r="G263" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F264" s="8"/>
       <c r="G264" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F265" s="8"/>
       <c r="G265" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F266" s="8"/>
       <c r="G266" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
       <c r="G267" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F268" s="8"/>
       <c r="G268" s="8"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F269" s="8"/>
       <c r="G269" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -14206,17 +14203,17 @@
         <v>98</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F270" s="8"/>
       <c r="G270" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -14227,17 +14224,17 @@
         <v>99</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F271" s="8"/>
       <c r="G271" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -14248,19 +14245,19 @@
         <v>100</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -14271,17 +14268,17 @@
         <v>101</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F273" s="8"/>
       <c r="G273" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -14292,17 +14289,17 @@
         <v>102</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F274" s="8"/>
       <c r="G274" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -14313,17 +14310,17 @@
         <v>103</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -14334,17 +14331,17 @@
         <v>104</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -14355,17 +14352,17 @@
         <v>105</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F277" s="8"/>
       <c r="G277" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -14376,17 +14373,17 @@
         <v>106</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F278" s="8"/>
       <c r="G278" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -14397,17 +14394,17 @@
         <v>107</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F279" s="8"/>
       <c r="G279" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -14418,17 +14415,17 @@
         <v>108</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F280" s="8"/>
       <c r="G280" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -14439,17 +14436,17 @@
         <v>109</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F281" s="8"/>
       <c r="G281" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -14460,17 +14457,17 @@
         <v>110</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F282" s="8"/>
       <c r="G282" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -14481,17 +14478,17 @@
         <v>111</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F283" s="8"/>
       <c r="G283" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -14502,17 +14499,17 @@
         <v>112</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F284" s="8"/>
       <c r="G284" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -14523,17 +14520,17 @@
         <v>113</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F285" s="8"/>
       <c r="G285" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -14544,17 +14541,17 @@
         <v>114</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F286" s="8"/>
       <c r="G286" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -14565,17 +14562,17 @@
         <v>115</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F287" s="8"/>
       <c r="G287" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -14586,17 +14583,17 @@
         <v>116</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F288" s="8"/>
       <c r="G288" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -14607,17 +14604,17 @@
         <v>117</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F289" s="8"/>
       <c r="G289" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -14628,25 +14625,25 @@
         <v>118</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F290" s="8"/>
       <c r="G290" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="C291" s="7"/>
       <c r="D291" s="8"/>
@@ -14656,10 +14653,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C292" s="7"/>
       <c r="D292" s="8"/>
@@ -14669,10 +14666,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C293" s="7"/>
       <c r="D293" s="8"/>
@@ -14682,10 +14679,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C294" s="7"/>
       <c r="D294" s="8"/>
@@ -14695,10 +14692,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C295" s="7"/>
       <c r="D295" s="8"/>
@@ -14708,10 +14705,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C296" s="7"/>
       <c r="D296" s="8"/>
@@ -14721,10 +14718,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C297" s="7"/>
       <c r="D297" s="8"/>
@@ -14734,10 +14731,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C298" s="7"/>
       <c r="D298" s="8"/>
@@ -14747,10 +14744,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C299" s="7"/>
       <c r="D299" s="8"/>
@@ -14760,10 +14757,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C300" s="7"/>
       <c r="D300" s="8"/>
@@ -14773,10 +14770,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C301" s="7"/>
       <c r="D301" s="8"/>
@@ -14786,10 +14783,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C302" s="7"/>
       <c r="D302" s="8"/>
@@ -14805,19 +14802,19 @@
         <v>120</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G303" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -14828,19 +14825,19 @@
         <v>121</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G304" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -14851,17 +14848,17 @@
         <v>122</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F305" s="8"/>
       <c r="G305" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -14872,17 +14869,17 @@
         <v>123</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F306" s="8"/>
       <c r="G306" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -14893,17 +14890,17 @@
         <v>124</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F307" s="8"/>
       <c r="G307" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -14914,17 +14911,17 @@
         <v>125</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F308" s="8"/>
       <c r="G308" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -14935,17 +14932,17 @@
         <v>126</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F309" s="8"/>
       <c r="G309" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -14956,17 +14953,17 @@
         <v>127</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F310" s="8"/>
       <c r="G310" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -14977,17 +14974,17 @@
         <v>128</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F311" s="8"/>
       <c r="G311" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -14998,17 +14995,17 @@
         <v>129</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F312" s="8"/>
       <c r="G312" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -15019,17 +15016,17 @@
         <v>130</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F313" s="8"/>
       <c r="G313" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -15040,17 +15037,17 @@
         <v>131</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F314" s="8"/>
       <c r="G314" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -15061,17 +15058,17 @@
         <v>132</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F315" s="8"/>
       <c r="G315" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -15082,17 +15079,17 @@
         <v>133</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F316" s="8"/>
       <c r="G316" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -15103,17 +15100,17 @@
         <v>134</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F317" s="8"/>
       <c r="G317" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -15124,17 +15121,17 @@
         <v>135</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F318" s="8"/>
       <c r="G318" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -15145,17 +15142,17 @@
         <v>136</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F319" s="8"/>
       <c r="G319" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -15166,17 +15163,17 @@
         <v>137</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F320" s="8"/>
       <c r="G320" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -15187,17 +15184,17 @@
         <v>138</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F321" s="8"/>
       <c r="G321" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -15205,7 +15202,7 @@
         <v>119</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C322" s="7"/>
       <c r="D322" s="8"/>
@@ -15218,7 +15215,7 @@
         <v>119</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C323" s="7"/>
       <c r="D323" s="8"/>
@@ -15231,7 +15228,7 @@
         <v>119</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C324" s="7"/>
       <c r="D324" s="8"/>
@@ -15244,7 +15241,7 @@
         <v>119</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C325" s="7"/>
       <c r="D325" s="8"/>
@@ -15257,7 +15254,7 @@
         <v>119</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C326" s="7"/>
       <c r="D326" s="8"/>
@@ -15270,7 +15267,7 @@
         <v>119</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C327" s="7"/>
       <c r="D327" s="8"/>
@@ -15283,7 +15280,7 @@
         <v>119</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C328" s="7"/>
       <c r="D328" s="8"/>
@@ -15296,7 +15293,7 @@
         <v>119</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C329" s="7"/>
       <c r="D329" s="8"/>
@@ -15309,7 +15306,7 @@
         <v>119</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -15322,7 +15319,7 @@
         <v>119</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -15335,7 +15332,7 @@
         <v>119</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -15348,7 +15345,7 @@
         <v>119</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" s="7"/>
       <c r="D333" s="8"/>
@@ -15361,7 +15358,7 @@
         <v>119</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C334" s="7"/>
       <c r="D334" s="8"/>
@@ -15374,7 +15371,7 @@
         <v>119</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C335" s="7"/>
       <c r="D335" s="8"/>
@@ -15387,7 +15384,7 @@
         <v>119</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C336" s="7"/>
       <c r="D336" s="8"/>
@@ -15400,7 +15397,7 @@
         <v>119</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C337" s="7"/>
       <c r="D337" s="8"/>
@@ -15413,7 +15410,7 @@
         <v>119</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C338" s="7"/>
       <c r="D338" s="8"/>
@@ -15426,20 +15423,20 @@
         <v>119</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E339" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F339" s="18"/>
       <c r="G339" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -15447,20 +15444,20 @@
         <v>119</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D340" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E340" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F340" s="18"/>
       <c r="G340" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -15468,20 +15465,20 @@
         <v>119</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C341" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E341" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -15489,20 +15486,20 @@
         <v>119</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C342" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E342" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F342" s="18"/>
       <c r="G342" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
@@ -15510,282 +15507,282 @@
         <v>119</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E343" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F343" s="18"/>
       <c r="G343" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F344" s="8"/>
       <c r="G344" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F345" s="8"/>
       <c r="G345" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F346" s="8"/>
       <c r="G346" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F347" s="8"/>
       <c r="G347" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E348" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F348" s="8"/>
       <c r="G348" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E349" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F350" s="8"/>
       <c r="G350" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F351" s="8"/>
       <c r="G351" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E352" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F352" s="8"/>
       <c r="G352" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E353" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F353" s="8"/>
       <c r="G353" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E354" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F354" s="8"/>
       <c r="G354" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E355" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F355" s="8"/>
       <c r="G355" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>438</v>
       </c>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
@@ -15795,10 +15792,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C357" s="7"/>
       <c r="D357" s="8"/>
@@ -15808,10 +15805,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C358" s="7"/>
       <c r="D358" s="8"/>
@@ -15821,10 +15818,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C359" s="7"/>
       <c r="D359" s="8"/>
@@ -15834,10 +15831,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C360" s="7"/>
       <c r="D360" s="8"/>
@@ -15847,10 +15844,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C361" s="7"/>
       <c r="D361" s="8"/>
@@ -15860,10 +15857,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C362" s="7"/>
       <c r="D362" s="8"/>
@@ -15873,10 +15870,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C363" s="7"/>
       <c r="D363" s="8"/>
@@ -15886,10 +15883,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C364" s="7"/>
       <c r="D364" s="8"/>
@@ -15899,10 +15896,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C365" s="7"/>
       <c r="D365" s="8"/>
@@ -15912,10 +15909,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C366" s="7"/>
       <c r="D366" s="8"/>
@@ -15925,10 +15922,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C367" s="7"/>
       <c r="D367" s="8"/>
@@ -15938,10 +15935,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C368" s="7"/>
       <c r="D368" s="8"/>
@@ -15951,10 +15948,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C369" s="7"/>
       <c r="D369" s="8"/>
@@ -15964,10 +15961,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C370" s="7"/>
       <c r="D370" s="8"/>
@@ -15977,10 +15974,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C371" s="7"/>
       <c r="D371" s="8"/>
@@ -15990,10 +15987,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C372" s="7"/>
       <c r="D372" s="8"/>
@@ -16003,10 +16000,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C373" s="7"/>
       <c r="D373" s="8"/>
@@ -16016,10 +16013,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C374" s="7"/>
       <c r="D374" s="8"/>
@@ -16029,10 +16026,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B375" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="C375" s="7"/>
       <c r="D375" s="8"/>
@@ -16042,10 +16039,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C376" s="7"/>
       <c r="D376" s="8"/>
@@ -16055,10 +16052,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C377" s="7"/>
       <c r="D377" s="8"/>
@@ -16068,10 +16065,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C378" s="7"/>
       <c r="D378" s="8"/>
@@ -16081,10 +16078,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C379" s="7"/>
       <c r="D379" s="8"/>
@@ -16094,10 +16091,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C380" s="7"/>
       <c r="D380" s="8"/>
@@ -16107,10 +16104,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C381" s="7"/>
       <c r="D381" s="8"/>
@@ -16120,10 +16117,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C382" s="7"/>
       <c r="D382" s="8"/>
@@ -16133,10 +16130,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C383" s="7"/>
       <c r="D383" s="8"/>
@@ -16146,10 +16143,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C384" s="7"/>
       <c r="D384" s="8"/>
@@ -16159,10 +16156,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C385" s="7"/>
       <c r="D385" s="8"/>
@@ -16172,10 +16169,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C386" s="7"/>
       <c r="D386" s="8"/>
@@ -16185,10 +16182,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C387" s="7"/>
       <c r="D387" s="8"/>
@@ -16198,10 +16195,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C388" s="7"/>
       <c r="D388" s="8"/>
@@ -16211,10 +16208,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C389" s="7"/>
       <c r="D389" s="8"/>
@@ -16224,10 +16221,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C390" s="7"/>
       <c r="D390" s="8"/>
@@ -16237,10 +16234,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C391" s="7"/>
       <c r="D391" s="8"/>
@@ -16250,10 +16247,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C392" s="7"/>
       <c r="D392" s="8"/>
@@ -16263,10 +16260,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C393" s="7"/>
       <c r="D393" s="8"/>
@@ -16276,10 +16273,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C394" s="7"/>
       <c r="D394" s="8"/>
@@ -16289,10 +16286,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C395" s="7"/>
       <c r="D395" s="8"/>
@@ -16302,10 +16299,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
@@ -16315,10 +16312,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C397" s="7"/>
       <c r="D397" s="8"/>
@@ -16328,10 +16325,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C398" s="7"/>
       <c r="D398" s="8"/>
@@ -16341,10 +16338,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C399" s="7"/>
       <c r="D399" s="8"/>
@@ -16354,10 +16351,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C400" s="7"/>
       <c r="D400" s="8"/>
@@ -16367,10 +16364,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
@@ -16380,10 +16377,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C402" s="7"/>
       <c r="D402" s="8"/>
@@ -16393,10 +16390,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C403" s="7"/>
       <c r="D403" s="8"/>
@@ -16406,10 +16403,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C404" s="7"/>
       <c r="D404" s="8"/>
@@ -16419,10 +16416,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C405" s="7"/>
       <c r="D405" s="8"/>
@@ -16432,10 +16429,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
@@ -16445,10 +16442,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C407" s="7"/>
       <c r="D407" s="8"/>
@@ -16458,10 +16455,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C408" s="7"/>
       <c r="D408" s="8"/>
@@ -16471,10 +16468,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C409" s="7"/>
       <c r="D409" s="8"/>
@@ -16484,10 +16481,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C410" s="7"/>
       <c r="D410" s="8"/>
@@ -16497,10 +16494,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
@@ -16510,10 +16507,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C412" s="7"/>
       <c r="D412" s="8"/>
@@ -16523,10 +16520,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C413" s="7"/>
       <c r="D413" s="8"/>
@@ -16536,381 +16533,381 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B414" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B414" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="C414" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D415" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E415" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E415" s="8" t="s">
+      <c r="F415" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F415" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G415" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F416" s="8"/>
       <c r="G416" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C417" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D417" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E417" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D417" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E417" s="8" t="s">
+      <c r="F417" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F417" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G417" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D418" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E418" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E418" s="8" t="s">
+      <c r="F418" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F418" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G418" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C419" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D419" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E419" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D419" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E419" s="8" t="s">
+      <c r="F419" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F419" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G419" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D420" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E420" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E420" s="8" t="s">
+      <c r="F420" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F420" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G420" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E421" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C422" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D422" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E422" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D422" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E422" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="F422" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G422" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E423" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F424" s="8"/>
       <c r="G424" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D426" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E426" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F426" s="8"/>
       <c r="G426" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D427" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E427" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E427" s="8" t="s">
+      <c r="F427" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F427" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G427" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E428" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F428" s="8"/>
       <c r="G428" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D429" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E429" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F429" s="8"/>
       <c r="G429" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E430" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F430" s="8"/>
       <c r="G430" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B431" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="C431" s="7"/>
       <c r="D431" s="8"/>
@@ -16920,10 +16917,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C432" s="7"/>
       <c r="D432" s="8"/>
@@ -16933,10 +16930,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C433" s="7"/>
       <c r="D433" s="8"/>
@@ -16946,10 +16943,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C434" s="7"/>
       <c r="D434" s="8"/>
@@ -16959,10 +16956,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C435" s="7"/>
       <c r="D435" s="8"/>
@@ -16972,10 +16969,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C436" s="7"/>
       <c r="D436" s="8"/>
@@ -16985,10 +16982,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C437" s="7"/>
       <c r="D437" s="8"/>
@@ -16998,10 +16995,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C438" s="7"/>
       <c r="D438" s="8"/>
@@ -17011,10 +17008,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C439" s="7"/>
       <c r="D439" s="8"/>
@@ -17024,10 +17021,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C440" s="7"/>
       <c r="D440" s="8"/>
@@ -17037,10 +17034,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C441" s="7"/>
       <c r="D441" s="8"/>
@@ -17050,10 +17047,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C442" s="7"/>
       <c r="D442" s="8"/>
@@ -17063,10 +17060,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C443" s="7"/>
       <c r="D443" s="8"/>
@@ -17076,10 +17073,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C444" s="7"/>
       <c r="D444" s="8"/>
@@ -17089,10 +17086,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B445" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="20"/>
@@ -17102,10 +17099,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B446" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="20"/>
@@ -17115,10 +17112,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="20"/>
@@ -17128,10 +17125,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="20"/>
@@ -17141,10 +17138,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B449" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="20"/>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9090E-FADC-4331-AEFD-043A5227FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F79AD-2CAD-4DB3-BC56-1B4A26EB8B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
-    <sheet name="niveis_master" sheetId="2" r:id="rId2"/>
-    <sheet name="financeiro_master" sheetId="3" r:id="rId3"/>
-    <sheet name="questionario" sheetId="4" r:id="rId4"/>
+    <sheet name="status_consultorias" sheetId="5" r:id="rId2"/>
+    <sheet name="niveis_master" sheetId="2" r:id="rId3"/>
+    <sheet name="financeiro_master" sheetId="3" r:id="rId4"/>
+    <sheet name="questionario" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">niveis_master!$A$1:$D$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">questionario!$A$1:$G$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">questionario!$A$1:$G$449</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="521">
   <si>
     <t>Grupo</t>
   </si>
@@ -1600,6 +1601,12 @@
   </si>
   <si>
     <t>COTRISAL</t>
+  </si>
+  <si>
+    <t>Quantidade de clientes</t>
+  </si>
+  <si>
+    <t>Finalizados</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+    <sheetView topLeftCell="A176" workbookViewId="0">
       <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
@@ -8838,6 +8845,279 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980A6F1-BABD-4539-B21B-961370C7D4F2}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="2">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="2">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="2">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="2">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="2">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21" s="2">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="2">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
@@ -9463,7 +9743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -9789,7 +10069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}">
   <dimension ref="A1:G449"/>
   <sheetViews>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F79AD-2CAD-4DB3-BC56-1B4A26EB8B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A1C8D-1D5F-45DE-8CB4-711B69427451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">questionario!$A$1:$G$449</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="521">
   <si>
     <t>Grupo</t>
   </si>
@@ -2108,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261:A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8829,6 +8829,526 @@
       </c>
       <c r="G259">
         <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>217</v>
+      </c>
+      <c r="B260" t="s">
+        <v>218</v>
+      </c>
+      <c r="C260">
+        <v>32</v>
+      </c>
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260">
+        <v>88</v>
+      </c>
+      <c r="F260" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260">
+        <v>56</v>
+      </c>
+      <c r="H260">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>217</v>
+      </c>
+      <c r="B261" t="s">
+        <v>239</v>
+      </c>
+      <c r="C261">
+        <v>23</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>49</v>
+      </c>
+      <c r="F261" t="s">
+        <v>11</v>
+      </c>
+      <c r="G261">
+        <v>26</v>
+      </c>
+      <c r="H261">
+        <v>113.04347826086961</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>217</v>
+      </c>
+      <c r="B262" t="s">
+        <v>228</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262">
+        <v>88</v>
+      </c>
+      <c r="F262" t="s">
+        <v>13</v>
+      </c>
+      <c r="G262">
+        <v>78</v>
+      </c>
+      <c r="H262">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>217</v>
+      </c>
+      <c r="B263" t="s">
+        <v>220</v>
+      </c>
+      <c r="C263">
+        <v>30</v>
+      </c>
+      <c r="D263" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263">
+        <v>30</v>
+      </c>
+      <c r="F263" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>217</v>
+      </c>
+      <c r="B264" t="s">
+        <v>223</v>
+      </c>
+      <c r="C264">
+        <v>42</v>
+      </c>
+      <c r="D264" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264">
+        <v>65</v>
+      </c>
+      <c r="F264" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264">
+        <v>23</v>
+      </c>
+      <c r="H264">
+        <v>54.761904761904773</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>217</v>
+      </c>
+      <c r="B265" t="s">
+        <v>229</v>
+      </c>
+      <c r="C265">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265">
+        <v>78</v>
+      </c>
+      <c r="F265" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265">
+        <v>67</v>
+      </c>
+      <c r="H265">
+        <v>609.09090909090912</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>217</v>
+      </c>
+      <c r="B266" t="s">
+        <v>240</v>
+      </c>
+      <c r="C266">
+        <v>37</v>
+      </c>
+      <c r="D266" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266">
+        <v>67</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266">
+        <v>30</v>
+      </c>
+      <c r="H266">
+        <v>81.081081081081081</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267" t="s">
+        <v>230</v>
+      </c>
+      <c r="C267">
+        <v>12</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267">
+        <v>84</v>
+      </c>
+      <c r="F267" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267">
+        <v>72</v>
+      </c>
+      <c r="H267">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>217</v>
+      </c>
+      <c r="B268" t="s">
+        <v>235</v>
+      </c>
+      <c r="C268">
+        <v>43</v>
+      </c>
+      <c r="D268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268">
+        <v>83</v>
+      </c>
+      <c r="F268" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268">
+        <v>40</v>
+      </c>
+      <c r="H268">
+        <v>93.023255813953483</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>217</v>
+      </c>
+      <c r="B269" t="s">
+        <v>231</v>
+      </c>
+      <c r="C269">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
+      </c>
+      <c r="E269">
+        <v>81</v>
+      </c>
+      <c r="F269" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269">
+        <v>70</v>
+      </c>
+      <c r="H269">
+        <v>636.36363636363637</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>217</v>
+      </c>
+      <c r="B270" t="s">
+        <v>224</v>
+      </c>
+      <c r="C270">
+        <v>16</v>
+      </c>
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+      <c r="E270">
+        <v>58</v>
+      </c>
+      <c r="F270" t="s">
+        <v>11</v>
+      </c>
+      <c r="G270">
+        <v>42</v>
+      </c>
+      <c r="H270">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>217</v>
+      </c>
+      <c r="B271" t="s">
+        <v>225</v>
+      </c>
+      <c r="C271">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271">
+        <v>54</v>
+      </c>
+      <c r="F271" t="s">
+        <v>11</v>
+      </c>
+      <c r="G271">
+        <v>41</v>
+      </c>
+      <c r="H271">
+        <v>315.38461538461542</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>217</v>
+      </c>
+      <c r="B272" t="s">
+        <v>232</v>
+      </c>
+      <c r="C272">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272">
+        <v>76</v>
+      </c>
+      <c r="F272" t="s">
+        <v>13</v>
+      </c>
+      <c r="G272">
+        <v>66</v>
+      </c>
+      <c r="H272">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>217</v>
+      </c>
+      <c r="B273" t="s">
+        <v>236</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273">
+        <v>60</v>
+      </c>
+      <c r="F273" t="s">
+        <v>13</v>
+      </c>
+      <c r="G273">
+        <v>57</v>
+      </c>
+      <c r="H273">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>217</v>
+      </c>
+      <c r="B274" t="s">
+        <v>233</v>
+      </c>
+      <c r="C274">
+        <v>40</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>86</v>
+      </c>
+      <c r="F274" t="s">
+        <v>13</v>
+      </c>
+      <c r="G274">
+        <v>46</v>
+      </c>
+      <c r="H274">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>217</v>
+      </c>
+      <c r="B275" t="s">
+        <v>241</v>
+      </c>
+      <c r="C275">
+        <v>37</v>
+      </c>
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275">
+        <v>75</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275">
+        <v>38</v>
+      </c>
+      <c r="H275">
+        <v>102.70270270270269</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>217</v>
+      </c>
+      <c r="B276" t="s">
+        <v>237</v>
+      </c>
+      <c r="C276">
+        <v>15</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276">
+        <v>86</v>
+      </c>
+      <c r="F276" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276">
+        <v>71</v>
+      </c>
+      <c r="H276">
+        <v>473.33333333333331</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>217</v>
+      </c>
+      <c r="B277" t="s">
+        <v>238</v>
+      </c>
+      <c r="C277">
+        <v>49</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277">
+        <v>86</v>
+      </c>
+      <c r="F277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277">
+        <v>37</v>
+      </c>
+      <c r="H277">
+        <v>75.510204081632651</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>217</v>
+      </c>
+      <c r="B278" t="s">
+        <v>226</v>
+      </c>
+      <c r="C278">
+        <v>20</v>
+      </c>
+      <c r="D278" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278">
+        <v>52</v>
+      </c>
+      <c r="F278" t="s">
+        <v>11</v>
+      </c>
+      <c r="G278">
+        <v>32</v>
+      </c>
+      <c r="H278">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>217</v>
+      </c>
+      <c r="B279" t="s">
+        <v>227</v>
+      </c>
+      <c r="C279">
+        <v>35</v>
+      </c>
+      <c r="D279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279">
+        <v>70</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279">
+        <v>35</v>
+      </c>
+      <c r="H279">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8848,7 +9368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980A6F1-BABD-4539-B21B-961370C7D4F2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -9119,10 +9639,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9146,7 +9667,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -9174,7 +9695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9188,7 +9709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -9216,7 +9737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -9230,7 +9751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -9258,7 +9779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -9272,7 +9793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -9300,7 +9821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -9314,7 +9835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -9342,7 +9863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -9356,7 +9877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -9384,7 +9905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -9398,7 +9919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -9426,7 +9947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -9440,7 +9961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -9468,7 +9989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -9482,7 +10003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>517</v>
       </c>
@@ -9510,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>517</v>
       </c>
@@ -9524,7 +10045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>518</v>
       </c>
@@ -9552,7 +10073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>518</v>
       </c>
@@ -9566,7 +10087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -9594,7 +10115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>290</v>
       </c>
@@ -9608,7 +10129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>456</v>
       </c>
@@ -9636,7 +10157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>456</v>
       </c>
@@ -9650,7 +10171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -9678,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -9692,50 +10213,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="C41" s="21">
+        <v>11</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="21">
+        <v>9</v>
+      </c>
+      <c r="D42" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>207</v>
-      </c>
-      <c r="D42">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>218</v>
+      </c>
+      <c r="D45">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>190</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>49</v>
-      </c>
-      <c r="D43">
-        <v>94</v>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D43" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:D46" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Intermediário"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -9745,10 +10314,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10043,21 +10612,41 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
         <v>197</v>
       </c>
       <c r="C15">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>2562</v>
+        <v>197</v>
       </c>
       <c r="E15">
-        <v>2136</v>
+        <v>161</v>
       </c>
       <c r="F15">
+        <v>447.22222222222217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16">
+        <v>446</v>
+      </c>
+      <c r="D16">
+        <v>2759</v>
+      </c>
+      <c r="E16">
+        <v>2297</v>
+      </c>
+      <c r="F16">
         <v>516.92913385826773</v>
       </c>
     </row>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718EBF3-6A83-4815-98F6-6FC7EC6712B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A796483B-21BE-495E-AFB2-DA71F60C0BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">questionario!$A$1:$G$449</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="526">
   <si>
     <t>Grupo</t>
   </si>
@@ -2123,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H332"/>
+  <dimension ref="A1:H351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318:A332"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B312" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10730,6 +10730,494 @@
       </c>
       <c r="H332">
         <v>158.33333333333329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>436</v>
+      </c>
+      <c r="B333" t="s">
+        <v>437</v>
+      </c>
+      <c r="C333">
+        <v>5</v>
+      </c>
+      <c r="D333" t="s">
+        <v>10</v>
+      </c>
+      <c r="E333">
+        <v>46</v>
+      </c>
+      <c r="F333" t="s">
+        <v>11</v>
+      </c>
+      <c r="G333">
+        <v>41</v>
+      </c>
+      <c r="H333">
+        <v>819.99999999999989</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>436</v>
+      </c>
+      <c r="B334" t="s">
+        <v>438</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334">
+        <v>3</v>
+      </c>
+      <c r="F334" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>436</v>
+      </c>
+      <c r="B335" t="s">
+        <v>439</v>
+      </c>
+      <c r="C335">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>10</v>
+      </c>
+      <c r="E335">
+        <v>18</v>
+      </c>
+      <c r="F335" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335">
+        <v>12</v>
+      </c>
+      <c r="H335">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>436</v>
+      </c>
+      <c r="B336" t="s">
+        <v>440</v>
+      </c>
+      <c r="C336">
+        <v>24</v>
+      </c>
+      <c r="D336" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336">
+        <v>33</v>
+      </c>
+      <c r="F336" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336">
+        <v>9</v>
+      </c>
+      <c r="H336">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>436</v>
+      </c>
+      <c r="B337" t="s">
+        <v>441</v>
+      </c>
+      <c r="C337">
+        <v>8</v>
+      </c>
+      <c r="D337" t="s">
+        <v>10</v>
+      </c>
+      <c r="E337">
+        <v>30</v>
+      </c>
+      <c r="F337" t="s">
+        <v>11</v>
+      </c>
+      <c r="G337">
+        <v>22</v>
+      </c>
+      <c r="H337">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>436</v>
+      </c>
+      <c r="B338" t="s">
+        <v>442</v>
+      </c>
+      <c r="C338">
+        <v>7</v>
+      </c>
+      <c r="D338" t="s">
+        <v>10</v>
+      </c>
+      <c r="E338">
+        <v>34</v>
+      </c>
+      <c r="F338" t="s">
+        <v>11</v>
+      </c>
+      <c r="G338">
+        <v>27</v>
+      </c>
+      <c r="H338">
+        <v>385.71428571428572</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>436</v>
+      </c>
+      <c r="B339" t="s">
+        <v>443</v>
+      </c>
+      <c r="C339">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s">
+        <v>10</v>
+      </c>
+      <c r="E339">
+        <v>53</v>
+      </c>
+      <c r="F339" t="s">
+        <v>11</v>
+      </c>
+      <c r="G339">
+        <v>42</v>
+      </c>
+      <c r="H339">
+        <v>381.81818181818181</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>436</v>
+      </c>
+      <c r="B340" t="s">
+        <v>444</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>10</v>
+      </c>
+      <c r="E340">
+        <v>27</v>
+      </c>
+      <c r="F340" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340">
+        <v>26</v>
+      </c>
+      <c r="H340">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>436</v>
+      </c>
+      <c r="B341" t="s">
+        <v>445</v>
+      </c>
+      <c r="C341">
+        <v>9</v>
+      </c>
+      <c r="D341" t="s">
+        <v>10</v>
+      </c>
+      <c r="E341">
+        <v>29</v>
+      </c>
+      <c r="F341" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341">
+        <v>20</v>
+      </c>
+      <c r="H341">
+        <v>222.2222222222222</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>436</v>
+      </c>
+      <c r="B342" t="s">
+        <v>446</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>10</v>
+      </c>
+      <c r="E342">
+        <v>7</v>
+      </c>
+      <c r="F342" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>436</v>
+      </c>
+      <c r="B343" t="s">
+        <v>447</v>
+      </c>
+      <c r="C343">
+        <v>67</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343">
+        <v>72</v>
+      </c>
+      <c r="F343" t="s">
+        <v>13</v>
+      </c>
+      <c r="G343">
+        <v>5</v>
+      </c>
+      <c r="H343">
+        <v>7.4626865671641784</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>436</v>
+      </c>
+      <c r="B344" t="s">
+        <v>448</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344" t="s">
+        <v>10</v>
+      </c>
+      <c r="E344">
+        <v>28</v>
+      </c>
+      <c r="F344" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>436</v>
+      </c>
+      <c r="B345" t="s">
+        <v>449</v>
+      </c>
+      <c r="C345">
+        <v>8</v>
+      </c>
+      <c r="D345" t="s">
+        <v>10</v>
+      </c>
+      <c r="E345">
+        <v>11</v>
+      </c>
+      <c r="F345" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345">
+        <v>3</v>
+      </c>
+      <c r="H345">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>436</v>
+      </c>
+      <c r="B346" t="s">
+        <v>450</v>
+      </c>
+      <c r="C346">
+        <v>4</v>
+      </c>
+      <c r="D346" t="s">
+        <v>10</v>
+      </c>
+      <c r="E346">
+        <v>15</v>
+      </c>
+      <c r="F346" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346">
+        <v>11</v>
+      </c>
+      <c r="H346">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>436</v>
+      </c>
+      <c r="B347" t="s">
+        <v>451</v>
+      </c>
+      <c r="C347">
+        <v>5</v>
+      </c>
+      <c r="D347" t="s">
+        <v>10</v>
+      </c>
+      <c r="E347">
+        <v>29</v>
+      </c>
+      <c r="F347" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347">
+        <v>24</v>
+      </c>
+      <c r="H347">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>436</v>
+      </c>
+      <c r="B348" t="s">
+        <v>452</v>
+      </c>
+      <c r="C348">
+        <v>5</v>
+      </c>
+      <c r="D348" t="s">
+        <v>10</v>
+      </c>
+      <c r="E348">
+        <v>18</v>
+      </c>
+      <c r="F348" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348">
+        <v>13</v>
+      </c>
+      <c r="H348">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>436</v>
+      </c>
+      <c r="B349" t="s">
+        <v>453</v>
+      </c>
+      <c r="C349">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>10</v>
+      </c>
+      <c r="E349">
+        <v>19</v>
+      </c>
+      <c r="F349" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349">
+        <v>14</v>
+      </c>
+      <c r="H349">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>436</v>
+      </c>
+      <c r="B350" t="s">
+        <v>454</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350" t="s">
+        <v>10</v>
+      </c>
+      <c r="E350">
+        <v>22</v>
+      </c>
+      <c r="F350" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350">
+        <v>19</v>
+      </c>
+      <c r="H350">
+        <v>633.33333333333326</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>436</v>
+      </c>
+      <c r="B351" t="s">
+        <v>455</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+      <c r="D351" t="s">
+        <v>10</v>
+      </c>
+      <c r="E351">
+        <v>23</v>
+      </c>
+      <c r="F351" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351">
+        <v>19</v>
+      </c>
+      <c r="H351">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -11020,10 +11508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11763,48 +12251,90 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>196</v>
+        <v>10</v>
+      </c>
+      <c r="C53" s="21">
+        <v>18</v>
+      </c>
+      <c r="D53" s="21">
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>267</v>
-      </c>
-      <c r="D54">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C54" s="21">
+        <v>0</v>
+      </c>
+      <c r="D54" s="21">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="21">
+        <v>1</v>
+      </c>
+      <c r="D55" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>190</v>
       </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55">
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>285</v>
+      </c>
+      <c r="D57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
         <v>62</v>
       </c>
-      <c r="D55">
-        <v>114</v>
+      <c r="D58">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D55" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:D58" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -11814,10 +12344,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E26" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12192,21 +12722,41 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>436</v>
       </c>
       <c r="B19" t="s">
         <v>197</v>
       </c>
       <c r="C19">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>3425</v>
+        <v>71</v>
       </c>
       <c r="E19">
-        <v>2911</v>
+        <v>59</v>
       </c>
       <c r="F19">
+        <v>491.66666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20">
+        <v>510</v>
+      </c>
+      <c r="D20">
+        <v>3496</v>
+      </c>
+      <c r="E20">
+        <v>2970</v>
+      </c>
+      <c r="F20">
         <v>516.92913385826773</v>
       </c>
     </row>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A796483B-21BE-495E-AFB2-DA71F60C0BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC1039B-318A-44BF-B02E-83FE86EF5729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">questionario!$A$1:$G$449</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="526">
   <si>
     <t>Grupo</t>
   </si>
@@ -2123,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B312" sqref="B312"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="A353" sqref="A353:A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11218,6 +11218,422 @@
       </c>
       <c r="H351">
         <v>475</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>377</v>
+      </c>
+      <c r="B352" t="s">
+        <v>378</v>
+      </c>
+      <c r="C352">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s">
+        <v>10</v>
+      </c>
+      <c r="E352">
+        <v>47</v>
+      </c>
+      <c r="F352" t="s">
+        <v>11</v>
+      </c>
+      <c r="G352">
+        <v>36</v>
+      </c>
+      <c r="H352">
+        <v>327.27272727272731</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>377</v>
+      </c>
+      <c r="B353" t="s">
+        <v>379</v>
+      </c>
+      <c r="C353">
+        <v>16</v>
+      </c>
+      <c r="D353" t="s">
+        <v>10</v>
+      </c>
+      <c r="E353">
+        <v>80</v>
+      </c>
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353">
+        <v>64</v>
+      </c>
+      <c r="H353">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>377</v>
+      </c>
+      <c r="B354" t="s">
+        <v>380</v>
+      </c>
+      <c r="C354">
+        <v>14</v>
+      </c>
+      <c r="D354" t="s">
+        <v>10</v>
+      </c>
+      <c r="E354">
+        <v>80</v>
+      </c>
+      <c r="F354" t="s">
+        <v>13</v>
+      </c>
+      <c r="G354">
+        <v>66</v>
+      </c>
+      <c r="H354">
+        <v>471.42857142857139</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>377</v>
+      </c>
+      <c r="B355" t="s">
+        <v>382</v>
+      </c>
+      <c r="C355">
+        <v>21</v>
+      </c>
+      <c r="D355" t="s">
+        <v>10</v>
+      </c>
+      <c r="E355">
+        <v>61</v>
+      </c>
+      <c r="F355" t="s">
+        <v>13</v>
+      </c>
+      <c r="G355">
+        <v>40</v>
+      </c>
+      <c r="H355">
+        <v>190.47619047619051</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>377</v>
+      </c>
+      <c r="B356" t="s">
+        <v>384</v>
+      </c>
+      <c r="C356">
+        <v>16</v>
+      </c>
+      <c r="D356" t="s">
+        <v>10</v>
+      </c>
+      <c r="E356">
+        <v>80</v>
+      </c>
+      <c r="F356" t="s">
+        <v>13</v>
+      </c>
+      <c r="G356">
+        <v>64</v>
+      </c>
+      <c r="H356">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>377</v>
+      </c>
+      <c r="B357" t="s">
+        <v>385</v>
+      </c>
+      <c r="C357">
+        <v>19</v>
+      </c>
+      <c r="D357" t="s">
+        <v>10</v>
+      </c>
+      <c r="E357">
+        <v>81</v>
+      </c>
+      <c r="F357" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357">
+        <v>62</v>
+      </c>
+      <c r="H357">
+        <v>326.31578947368422</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>377</v>
+      </c>
+      <c r="B358" t="s">
+        <v>386</v>
+      </c>
+      <c r="C358">
+        <v>4</v>
+      </c>
+      <c r="D358" t="s">
+        <v>10</v>
+      </c>
+      <c r="E358">
+        <v>81</v>
+      </c>
+      <c r="F358" t="s">
+        <v>13</v>
+      </c>
+      <c r="G358">
+        <v>77</v>
+      </c>
+      <c r="H358">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>377</v>
+      </c>
+      <c r="B359" t="s">
+        <v>387</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+      <c r="D359" t="s">
+        <v>10</v>
+      </c>
+      <c r="E359">
+        <v>60</v>
+      </c>
+      <c r="F359" t="s">
+        <v>13</v>
+      </c>
+      <c r="G359">
+        <v>56</v>
+      </c>
+      <c r="H359">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>377</v>
+      </c>
+      <c r="B360" t="s">
+        <v>388</v>
+      </c>
+      <c r="C360">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s">
+        <v>10</v>
+      </c>
+      <c r="E360">
+        <v>72</v>
+      </c>
+      <c r="F360" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360">
+        <v>61</v>
+      </c>
+      <c r="H360">
+        <v>554.54545454545462</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>377</v>
+      </c>
+      <c r="B361" t="s">
+        <v>391</v>
+      </c>
+      <c r="C361">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>10</v>
+      </c>
+      <c r="E361">
+        <v>83</v>
+      </c>
+      <c r="F361" t="s">
+        <v>13</v>
+      </c>
+      <c r="G361">
+        <v>77</v>
+      </c>
+      <c r="H361">
+        <v>1283.333333333333</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>377</v>
+      </c>
+      <c r="B362" t="s">
+        <v>392</v>
+      </c>
+      <c r="C362">
+        <v>18</v>
+      </c>
+      <c r="D362" t="s">
+        <v>10</v>
+      </c>
+      <c r="E362">
+        <v>86</v>
+      </c>
+      <c r="F362" t="s">
+        <v>13</v>
+      </c>
+      <c r="G362">
+        <v>68</v>
+      </c>
+      <c r="H362">
+        <v>377.77777777777783</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>377</v>
+      </c>
+      <c r="B363" t="s">
+        <v>393</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>10</v>
+      </c>
+      <c r="E363">
+        <v>44</v>
+      </c>
+      <c r="F363" t="s">
+        <v>11</v>
+      </c>
+      <c r="G363">
+        <v>42</v>
+      </c>
+      <c r="H363">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>377</v>
+      </c>
+      <c r="B364" t="s">
+        <v>394</v>
+      </c>
+      <c r="C364">
+        <v>19</v>
+      </c>
+      <c r="D364" t="s">
+        <v>10</v>
+      </c>
+      <c r="E364">
+        <v>54</v>
+      </c>
+      <c r="F364" t="s">
+        <v>11</v>
+      </c>
+      <c r="G364">
+        <v>35</v>
+      </c>
+      <c r="H364">
+        <v>184.21052631578951</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>377</v>
+      </c>
+      <c r="B365" t="s">
+        <v>395</v>
+      </c>
+      <c r="C365">
+        <v>14</v>
+      </c>
+      <c r="D365" t="s">
+        <v>10</v>
+      </c>
+      <c r="E365">
+        <v>64</v>
+      </c>
+      <c r="F365" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365">
+        <v>50</v>
+      </c>
+      <c r="H365">
+        <v>357.14285714285722</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>377</v>
+      </c>
+      <c r="B366" t="s">
+        <v>396</v>
+      </c>
+      <c r="C366">
+        <v>19</v>
+      </c>
+      <c r="D366" t="s">
+        <v>10</v>
+      </c>
+      <c r="E366">
+        <v>79</v>
+      </c>
+      <c r="F366" t="s">
+        <v>13</v>
+      </c>
+      <c r="G366">
+        <v>60</v>
+      </c>
+      <c r="H366">
+        <v>315.78947368421052</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>377</v>
+      </c>
+      <c r="B367" t="s">
+        <v>397</v>
+      </c>
+      <c r="C367">
+        <v>8</v>
+      </c>
+      <c r="D367" t="s">
+        <v>10</v>
+      </c>
+      <c r="E367">
+        <v>86</v>
+      </c>
+      <c r="F367" t="s">
+        <v>13</v>
+      </c>
+      <c r="G367">
+        <v>78</v>
+      </c>
+      <c r="H367">
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -11508,10 +11924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12293,48 +12709,90 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>197</v>
+        <v>10</v>
+      </c>
+      <c r="C56" s="21">
+        <v>16</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57">
-        <v>285</v>
-      </c>
-      <c r="D57">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="C57" s="21">
+        <v>0</v>
+      </c>
+      <c r="D57" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="21">
+        <v>0</v>
+      </c>
+      <c r="D58" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>190</v>
       </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>301</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
         <v>62</v>
       </c>
-      <c r="D58">
-        <v>119</v>
+      <c r="D61">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D58" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:D61" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -12344,10 +12802,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E25:E26"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12742,21 +13200,41 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
         <v>197</v>
       </c>
       <c r="C20">
-        <v>510</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>3496</v>
+        <v>171</v>
       </c>
       <c r="E20">
-        <v>2970</v>
+        <v>164</v>
       </c>
       <c r="F20">
+        <v>2342.8571428571431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21">
+        <v>517</v>
+      </c>
+      <c r="D21">
+        <v>3667</v>
+      </c>
+      <c r="E21">
+        <v>3134</v>
+      </c>
+      <c r="F21">
         <v>516.92913385826773</v>
       </c>
     </row>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC1039B-318A-44BF-B02E-83FE86EF5729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EE6AF-BD36-4EF9-90B9-76C62387CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="3504" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
-    <sheet name="status_consultorias" sheetId="5" r:id="rId2"/>
-    <sheet name="niveis_master" sheetId="2" r:id="rId3"/>
-    <sheet name="financeiro_master" sheetId="3" r:id="rId4"/>
-    <sheet name="questionario" sheetId="4" r:id="rId5"/>
+    <sheet name="canceladas_detalhe" sheetId="6" r:id="rId2"/>
+    <sheet name="status_consultorias" sheetId="5" r:id="rId3"/>
+    <sheet name="niveis_master" sheetId="2" r:id="rId4"/>
+    <sheet name="financeiro_master" sheetId="3" r:id="rId5"/>
+    <sheet name="questionario" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">niveis_master!$A$1:$D$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">questionario!$A$1:$G$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">niveis_master!$A$1:$D$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">questionario!$A$1:$G$449</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="532">
   <si>
     <t>Grupo</t>
   </si>
@@ -1622,6 +1623,24 @@
   </si>
   <si>
     <t>RENATO KOWALCZUK</t>
+  </si>
+  <si>
+    <t>1 Encontro realizado</t>
+  </si>
+  <si>
+    <t>2 Encontros realizados</t>
+  </si>
+  <si>
+    <t>3 Encontros realizados</t>
+  </si>
+  <si>
+    <t>4 Encontros realizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>COTRIJAL</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1748,11 +1767,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1812,6 +1842,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+    <sheetView topLeftCell="A333" workbookViewId="0">
       <selection activeCell="A353" sqref="A353:A367"/>
     </sheetView>
   </sheetViews>
@@ -11650,6 +11683,420 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02012A9-A707-4CB2-BD4F-48A3F382C569}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19">
+        <f>SUM(B2:E2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F24" si="0">SUM(B3:E3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B22" s="8">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="22">
+        <f>SUM(F2:F24)</f>
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980A6F1-BABD-4539-B21B-961370C7D4F2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -11922,7 +12369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
@@ -12800,7 +13247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -13246,7 +13693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}">
   <dimension ref="A1:G449"/>
   <sheetViews>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB001BD-B985-4AE1-BA01-435FBC838F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92A007-0198-4618-8FC6-898D02312659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="543">
   <si>
     <t>Grupo</t>
   </si>
@@ -1650,14 +1650,35 @@
     <t>gado de corte</t>
   </si>
   <si>
-    <t>não</t>
+    <t>COOPATRIGO2</t>
+  </si>
+  <si>
+    <t>CELSON LEOMAR SOSSMEIER</t>
+  </si>
+  <si>
+    <t>Cotrijuc</t>
+  </si>
+  <si>
+    <t>COTRIPAL2</t>
+  </si>
+  <si>
+    <t>Pecuaria de corte</t>
+  </si>
+  <si>
+    <t>Cotrisal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pecuária de corte, fumo </t>
+  </si>
+  <si>
+    <t>Aviário</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,14 +1727,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1870,8 +1883,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2185,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -13750,8 +13763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}">
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B339" sqref="B339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15834,49 +15847,33 @@
         <v>260</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>209</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>216</v>
-      </c>
+      <c r="B100" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>260</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>206</v>
@@ -15897,7 +15894,7 @@
         <v>260</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>205</v>
@@ -15906,7 +15903,7 @@
         <v>205</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="17" t="s">
@@ -15918,13 +15915,13 @@
         <v>260</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>209</v>
@@ -15939,13 +15936,13 @@
         <v>260</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" s="17" t="s">
         <v>209</v>
@@ -15960,10 +15957,10 @@
         <v>260</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>205</v>
@@ -15981,13 +15978,13 @@
         <v>260</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>209</v>
@@ -16001,14 +15998,14 @@
       <c r="A107" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>270</v>
+      <c r="B107" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>209</v>
@@ -16023,13 +16020,13 @@
         <v>260</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>209</v>
@@ -16044,7 +16041,7 @@
         <v>260</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>206</v>
@@ -16065,7 +16062,7 @@
         <v>260</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>205</v>
@@ -16085,8 +16082,8 @@
       <c r="A111" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>274</v>
+      <c r="B111" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>206</v>
@@ -16107,10 +16104,10 @@
         <v>260</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>206</v>
@@ -16128,104 +16125,106 @@
         <v>260</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
+      <c r="G113" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>260</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
+      <c r="G114" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>222</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F116" s="17"/>
       <c r="G116" s="17"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>206</v>
@@ -16234,23 +16233,25 @@
         <v>206</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F118" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>222</v>
+      </c>
       <c r="G118" s="17"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>209</v>
@@ -16260,10 +16261,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>206</v>
@@ -16279,16 +16280,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>527</v>
+        <v>282</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>209</v>
@@ -16298,27 +16299,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
+        <v>283</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
+        <v>527</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
     </row>
@@ -16327,7 +16340,7 @@
         <v>284</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="17"/>
@@ -16340,7 +16353,7 @@
         <v>284</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="17"/>
@@ -16353,7 +16366,7 @@
         <v>284</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="17"/>
@@ -16366,7 +16379,7 @@
         <v>284</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="17"/>
@@ -16379,7 +16392,7 @@
         <v>284</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="17"/>
@@ -16392,7 +16405,7 @@
         <v>284</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="17"/>
@@ -16405,7 +16418,7 @@
         <v>284</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="17"/>
@@ -16418,7 +16431,7 @@
         <v>284</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="17"/>
@@ -16431,7 +16444,7 @@
         <v>284</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="17"/>
@@ -16444,7 +16457,7 @@
         <v>284</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="17"/>
@@ -16457,7 +16470,7 @@
         <v>284</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="17"/>
@@ -16470,7 +16483,7 @@
         <v>284</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="17"/>
@@ -16483,7 +16496,7 @@
         <v>284</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="17"/>
@@ -16496,7 +16509,7 @@
         <v>284</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="17"/>
@@ -16509,7 +16522,7 @@
         <v>284</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="17"/>
@@ -16522,7 +16535,7 @@
         <v>284</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="17"/>
@@ -16535,7 +16548,7 @@
         <v>284</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="17"/>
@@ -16545,55 +16558,39 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E141" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="17"/>
-      <c r="G141" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G141" s="17"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
       <c r="F142" s="17"/>
-      <c r="G142" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G142" s="17"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D143" s="17" t="s">
         <v>205</v>
@@ -16611,20 +16608,20 @@
         <v>67</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -16632,20 +16629,20 @@
         <v>67</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -16653,22 +16650,20 @@
         <v>67</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F146" s="17" t="s">
-        <v>304</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F146" s="17"/>
       <c r="G146" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -16676,20 +16671,20 @@
         <v>67</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -16697,18 +16692,20 @@
         <v>67</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F148" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>304</v>
+      </c>
       <c r="G148" s="17" t="s">
         <v>205</v>
       </c>
@@ -16718,16 +16715,16 @@
         <v>67</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="17" t="s">
@@ -16739,16 +16736,16 @@
         <v>67</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="17" t="s">
@@ -16760,7 +16757,7 @@
         <v>67</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>205</v>
@@ -16769,11 +16766,9 @@
         <v>205</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F151" s="17" t="s">
-        <v>306</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F151" s="17"/>
       <c r="G151" s="17" t="s">
         <v>205</v>
       </c>
@@ -16783,20 +16778,20 @@
         <v>67</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -16804,7 +16799,7 @@
         <v>67</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>205</v>
@@ -16813,11 +16808,13 @@
         <v>205</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F153" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="F153" s="17" t="s">
+        <v>306</v>
+      </c>
       <c r="G153" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -16825,20 +16822,20 @@
         <v>67</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -16846,7 +16843,7 @@
         <v>67</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>205</v>
@@ -16855,11 +16852,11 @@
         <v>205</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -16867,33 +16864,49 @@
         <v>67</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
+      <c r="G156" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
+      <c r="G157" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="17"/>
@@ -16906,7 +16919,7 @@
         <v>67</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="17"/>
@@ -16919,7 +16932,7 @@
         <v>67</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="17"/>
@@ -16932,7 +16945,7 @@
         <v>67</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="17"/>
@@ -16944,8 +16957,8 @@
       <c r="A162" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>313</v>
+      <c r="B162" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="17"/>
@@ -16958,7 +16971,7 @@
         <v>67</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="17"/>
@@ -16971,7 +16984,7 @@
         <v>67</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="17"/>
@@ -16984,7 +16997,7 @@
         <v>67</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="17"/>
@@ -16994,65 +17007,49 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E166" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F166" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="G166" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>317</v>
+        <v>67</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E167" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C167" s="16"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
       <c r="F167" s="17"/>
-      <c r="G167" s="17" t="s">
-        <v>206</v>
-      </c>
+      <c r="G167" s="17"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F168" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="F168" s="17" t="s">
+        <v>528</v>
+      </c>
       <c r="G168" s="17" t="s">
         <v>205</v>
       </c>
@@ -17062,7 +17059,7 @@
         <v>317</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>205</v>
@@ -17075,7 +17072,7 @@
       </c>
       <c r="F169" s="17"/>
       <c r="G169" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -17083,7 +17080,7 @@
         <v>317</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C170" s="16" t="s">
         <v>205</v>
@@ -17092,7 +17089,7 @@
         <v>206</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="17" t="s">
@@ -17104,20 +17101,18 @@
         <v>317</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F171" s="17" t="s">
-        <v>529</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F171" s="17"/>
       <c r="G171" s="17" t="s">
         <v>205</v>
       </c>
@@ -17127,84 +17122,86 @@
         <v>317</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C172" s="16"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
+        <v>322</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
+      <c r="G172" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C173" s="16"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
+        <v>323</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E173" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="G173" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E174" s="17" t="s">
-        <v>210</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C174" s="16"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
       <c r="F174" s="17"/>
-      <c r="G174" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G174" s="17"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E175" s="17" t="s">
-        <v>210</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C175" s="16"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
       <c r="F175" s="17"/>
-      <c r="G175" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G175" s="17"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C176" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F176" s="17"/>
       <c r="G176" s="17" t="s">
@@ -17216,22 +17213,20 @@
         <v>317</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C177" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F177" s="17" t="s">
-        <v>530</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F177" s="17"/>
       <c r="G177" s="17" t="s">
-        <v>535</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -17239,7 +17234,7 @@
         <v>317</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>205</v>
@@ -17260,28 +17255,28 @@
         <v>317</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17" t="s">
-        <v>205</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="G179" s="17"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>205</v>
@@ -17299,16 +17294,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C181" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E181" s="17" t="s">
         <v>210</v>
@@ -17320,23 +17315,23 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F182" s="17"/>
       <c r="G182" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -17344,16 +17339,16 @@
         <v>333</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F183" s="17"/>
       <c r="G183" s="17" t="s">
@@ -17365,20 +17360,20 @@
         <v>333</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F184" s="17"/>
       <c r="G184" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -17386,16 +17381,16 @@
         <v>333</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C185" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F185" s="17"/>
       <c r="G185" s="17" t="s">
@@ -17407,34 +17402,26 @@
         <v>333</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E186" s="17" t="s">
-        <v>210</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C186" s="16"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
       <c r="F186" s="17"/>
-      <c r="G186" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G186" s="17"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>333</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E187" s="17" t="s">
         <v>210</v>
@@ -17449,16 +17436,16 @@
         <v>333</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F188" s="17"/>
       <c r="G188" s="17" t="s">
@@ -17470,16 +17457,16 @@
         <v>333</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C189" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F189" s="17"/>
       <c r="G189" s="17" t="s">
@@ -17491,16 +17478,16 @@
         <v>333</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F190" s="17"/>
       <c r="G190" s="17" t="s">
@@ -17512,7 +17499,7 @@
         <v>333</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C191" s="16" t="s">
         <v>205</v>
@@ -17525,7 +17512,7 @@
       </c>
       <c r="F191" s="17"/>
       <c r="G191" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -17533,16 +17520,16 @@
         <v>333</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F192" s="17"/>
       <c r="G192" s="17" t="s">
@@ -17554,7 +17541,7 @@
         <v>333</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>205</v>
@@ -17575,10 +17562,10 @@
         <v>333</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>206</v>
@@ -17596,16 +17583,16 @@
         <v>333</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F195" s="17"/>
       <c r="G195" s="17" t="s">
@@ -17614,10 +17601,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C196" s="16" t="s">
         <v>205</v>
@@ -17626,7 +17613,7 @@
         <v>206</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F196" s="17"/>
       <c r="G196" s="17" t="s">
@@ -17635,10 +17622,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C197" s="16" t="s">
         <v>206</v>
@@ -17649,25 +17636,23 @@
       <c r="E197" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F197" s="17" t="s">
-        <v>531</v>
-      </c>
+      <c r="F197" s="17"/>
       <c r="G197" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C198" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E198" s="17" t="s">
         <v>210</v>
@@ -17682,7 +17667,7 @@
         <v>349</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C199" s="16" t="s">
         <v>205</v>
@@ -17691,11 +17676,9 @@
         <v>206</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F199" s="17" t="s">
-        <v>532</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F199" s="17"/>
       <c r="G199" s="17" t="s">
         <v>205</v>
       </c>
@@ -17705,19 +17688,19 @@
         <v>349</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G200" s="17" t="s">
         <v>205</v>
@@ -17728,20 +17711,18 @@
         <v>349</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F201" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F201" s="17"/>
       <c r="G201" s="17" t="s">
         <v>205</v>
       </c>
@@ -17751,20 +17732,22 @@
         <v>349</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F202" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>532</v>
+      </c>
       <c r="G202" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -17772,7 +17755,7 @@
         <v>349</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>205</v>
@@ -17781,9 +17764,11 @@
         <v>206</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F203" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>533</v>
+      </c>
       <c r="G203" s="17" t="s">
         <v>205</v>
       </c>
@@ -17793,7 +17778,7 @@
         <v>349</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C204" s="16" t="s">
         <v>205</v>
@@ -17802,10 +17787,10 @@
         <v>205</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>423</v>
+        <v>534</v>
       </c>
       <c r="G204" s="17" t="s">
         <v>205</v>
@@ -17816,37 +17801,35 @@
         <v>349</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E205" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F205" s="17"/>
-      <c r="G205" s="17" t="s">
-        <v>206</v>
-      </c>
+      <c r="G205" s="17"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C206" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F206" s="17"/>
       <c r="G206" s="17" t="s">
@@ -17858,13 +17841,13 @@
         <v>349</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C207" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E207" s="17" t="s">
         <v>305</v>
@@ -17881,20 +17864,20 @@
         <v>349</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C208" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F208" s="17"/>
       <c r="G208" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -17902,20 +17885,20 @@
         <v>349</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F209" s="17"/>
       <c r="G209" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -17923,7 +17906,7 @@
         <v>349</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>205</v>
@@ -17932,7 +17915,7 @@
         <v>206</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="F210" s="17" t="s">
         <v>423</v>
@@ -17946,13 +17929,13 @@
         <v>349</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E211" s="17" t="s">
         <v>210</v>
@@ -17967,10 +17950,10 @@
         <v>349</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D212" s="17" t="s">
         <v>206</v>
@@ -17980,7 +17963,7 @@
       </c>
       <c r="F212" s="17"/>
       <c r="G212" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -17988,7 +17971,7 @@
         <v>349</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>205</v>
@@ -17997,9 +17980,11 @@
         <v>206</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F213" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>423</v>
+      </c>
       <c r="G213" s="17" t="s">
         <v>205</v>
       </c>
@@ -18009,7 +17994,7 @@
         <v>349</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C214" s="16" t="s">
         <v>205</v>
@@ -18018,19 +18003,19 @@
         <v>206</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F214" s="17"/>
       <c r="G214" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="C215" s="16" t="s">
         <v>205</v>
@@ -18048,33 +18033,31 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="C216" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F216" s="17" t="s">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F216" s="17"/>
       <c r="G216" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="C217" s="16" t="s">
         <v>205</v>
@@ -18086,19 +18069,17 @@
         <v>209</v>
       </c>
       <c r="F217" s="17"/>
-      <c r="G217" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G217" s="17"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D218" s="17" t="s">
         <v>206</v>
@@ -18108,7 +18089,7 @@
       </c>
       <c r="F218" s="17"/>
       <c r="G218" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -18116,18 +18097,20 @@
         <v>83</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D219" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F219" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F219" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="G219" s="17" t="s">
         <v>206</v>
       </c>
@@ -18137,16 +18120,16 @@
         <v>83</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D220" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F220" s="17"/>
       <c r="G220" s="17" t="s">
@@ -18158,20 +18141,20 @@
         <v>83</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C221" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F221" s="17"/>
       <c r="G221" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -18179,13 +18162,13 @@
         <v>83</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C222" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E222" s="17" t="s">
         <v>209</v>
@@ -18200,20 +18183,20 @@
         <v>83</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F223" s="17"/>
       <c r="G223" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -18221,20 +18204,20 @@
         <v>83</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C224" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F224" s="17"/>
       <c r="G224" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -18242,16 +18225,16 @@
         <v>83</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D225" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F225" s="17"/>
       <c r="G225" s="17" t="s">
@@ -18263,20 +18246,18 @@
         <v>83</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F226" s="17" t="s">
-        <v>369</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F226" s="17"/>
       <c r="G226" s="17" t="s">
         <v>206</v>
       </c>
@@ -18286,7 +18267,7 @@
         <v>83</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C227" s="16" t="s">
         <v>206</v>
@@ -18304,49 +18285,75 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C228" s="16"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
+      <c r="G228" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C229" s="16"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="17"/>
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E229" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F229" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G229" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C230" s="16"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
+        <v>96</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
+      <c r="G230" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C231" s="16"/>
       <c r="D231" s="17"/>
@@ -18359,7 +18366,7 @@
         <v>370</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C232" s="16"/>
       <c r="D232" s="17"/>
@@ -18372,7 +18379,7 @@
         <v>370</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C233" s="16"/>
       <c r="D233" s="17"/>
@@ -18385,7 +18392,7 @@
         <v>370</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C234" s="16"/>
       <c r="D234" s="17"/>
@@ -18398,7 +18405,7 @@
         <v>370</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C235" s="16"/>
       <c r="D235" s="17"/>
@@ -18411,7 +18418,7 @@
         <v>370</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C236" s="16"/>
       <c r="D236" s="17"/>
@@ -18424,7 +18431,7 @@
         <v>370</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C237" s="16"/>
       <c r="D237" s="17"/>
@@ -18437,7 +18444,7 @@
         <v>370</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C238" s="16"/>
       <c r="D238" s="17"/>
@@ -18450,7 +18457,7 @@
         <v>370</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C239" s="16"/>
       <c r="D239" s="17"/>
@@ -18463,7 +18470,7 @@
         <v>370</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C240" s="16"/>
       <c r="D240" s="17"/>
@@ -18476,7 +18483,7 @@
         <v>370</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C241" s="16"/>
       <c r="D241" s="17"/>
@@ -18489,7 +18496,7 @@
         <v>370</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C242" s="16"/>
       <c r="D242" s="17"/>
@@ -18502,7 +18509,7 @@
         <v>370</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C243" s="16"/>
       <c r="D243" s="17"/>
@@ -18512,82 +18519,58 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>505</v>
+        <v>370</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E244" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C244" s="16"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="17"/>
       <c r="F244" s="17"/>
-      <c r="G244" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G244" s="17"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>505</v>
+        <v>370</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E245" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C245" s="16"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="17"/>
       <c r="F245" s="17"/>
-      <c r="G245" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G245" s="17"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>505</v>
+        <v>370</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E246" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C246" s="16"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="17"/>
       <c r="F246" s="17"/>
-      <c r="G246" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="G246" s="17"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C247" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F247" s="17"/>
       <c r="G247" s="17" t="s">
@@ -18596,10 +18579,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C248" s="16" t="s">
         <v>205</v>
@@ -18617,10 +18600,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C249" s="16" t="s">
         <v>205</v>
@@ -18638,10 +18621,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C250" s="16" t="s">
         <v>205</v>
@@ -18650,7 +18633,7 @@
         <v>206</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F250" s="17"/>
       <c r="G250" s="17" t="s">
@@ -18659,10 +18642,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C251" s="16" t="s">
         <v>205</v>
@@ -18680,19 +18663,19 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C252" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F252" s="17"/>
       <c r="G252" s="17" t="s">
@@ -18701,10 +18684,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C253" s="16" t="s">
         <v>205</v>
@@ -18713,7 +18696,7 @@
         <v>206</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F253" s="17"/>
       <c r="G253" s="17" t="s">
@@ -18722,10 +18705,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C254" s="16" t="s">
         <v>205</v>
@@ -18743,10 +18726,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C255" s="16" t="s">
         <v>205</v>
@@ -18755,7 +18738,7 @@
         <v>206</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F255" s="17"/>
       <c r="G255" s="17" t="s">
@@ -18764,10 +18747,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C256" s="16" t="s">
         <v>205</v>
@@ -18780,15 +18763,15 @@
       </c>
       <c r="F256" s="17"/>
       <c r="G256" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C257" s="16" t="s">
         <v>205</v>
@@ -18806,10 +18789,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C258" s="16" t="s">
         <v>205</v>
@@ -18818,7 +18801,7 @@
         <v>206</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F258" s="17"/>
       <c r="G258" s="17" t="s">
@@ -18827,25 +18810,31 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C259" s="16"/>
-      <c r="D259" s="17"/>
-      <c r="E259" s="17"/>
+        <v>181</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E259" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F259" s="17"/>
       <c r="G259" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C260" s="16" t="s">
         <v>205</v>
@@ -18857,14 +18846,16 @@
         <v>216</v>
       </c>
       <c r="F260" s="17"/>
-      <c r="G260" s="17"/>
+      <c r="G260" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C261" s="16" t="s">
         <v>205</v>
@@ -18873,7 +18864,7 @@
         <v>206</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F261" s="17"/>
       <c r="G261" s="17" t="s">
@@ -18882,20 +18873,14 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
-        <v>97</v>
+        <v>537</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C262" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E262" s="17" t="s">
-        <v>210</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C262" s="16"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="17"/>
       <c r="F262" s="17"/>
       <c r="G262" s="17" t="s">
         <v>205</v>
@@ -18903,31 +18888,29 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
-        <v>97</v>
+        <v>537</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C263" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F263" s="17"/>
-      <c r="G263" s="17" t="s">
-        <v>206</v>
-      </c>
+      <c r="G263" s="17"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
-        <v>97</v>
+        <v>537</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C264" s="16" t="s">
         <v>205</v>
@@ -18936,13 +18919,11 @@
         <v>206</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F264" s="17" t="s">
-        <v>387</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F264" s="17"/>
       <c r="G264" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -18950,10 +18931,10 @@
         <v>97</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>205</v>
@@ -18971,20 +18952,20 @@
         <v>97</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C266" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E266" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F266" s="17"/>
       <c r="G266" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -18992,7 +18973,7 @@
         <v>97</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C267" s="16" t="s">
         <v>205</v>
@@ -19001,9 +18982,11 @@
         <v>206</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F267" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="F267" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="G267" s="17" t="s">
         <v>206</v>
       </c>
@@ -19013,7 +18996,7 @@
         <v>97</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C268" s="16" t="s">
         <v>205</v>
@@ -19034,20 +19017,20 @@
         <v>97</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C269" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E269" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F269" s="17"/>
       <c r="G269" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -19055,7 +19038,7 @@
         <v>97</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C270" s="16" t="s">
         <v>205</v>
@@ -19064,11 +19047,11 @@
         <v>206</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F270" s="17"/>
       <c r="G270" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -19076,20 +19059,20 @@
         <v>97</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C271" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E271" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F271" s="17"/>
       <c r="G271" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -19097,20 +19080,20 @@
         <v>97</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C272" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E272" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F272" s="17"/>
       <c r="G272" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -19118,20 +19101,20 @@
         <v>97</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C273" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F273" s="17"/>
       <c r="G273" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -19139,20 +19122,20 @@
         <v>97</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D274" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F274" s="17"/>
       <c r="G274" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -19160,10 +19143,10 @@
         <v>97</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D275" s="17" t="s">
         <v>205</v>
@@ -19173,7 +19156,7 @@
       </c>
       <c r="F275" s="17"/>
       <c r="G275" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -19181,7 +19164,7 @@
         <v>97</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C276" s="16" t="s">
         <v>205</v>
@@ -19194,7 +19177,7 @@
       </c>
       <c r="F276" s="17"/>
       <c r="G276" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -19202,7 +19185,7 @@
         <v>97</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C277" s="16" t="s">
         <v>206</v>
@@ -19211,7 +19194,7 @@
         <v>206</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F277" s="17"/>
       <c r="G277" s="17" t="s">
@@ -19223,7 +19206,7 @@
         <v>97</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C278" s="16" t="s">
         <v>206</v>
@@ -19232,7 +19215,7 @@
         <v>205</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F278" s="17"/>
       <c r="G278" s="17" t="s">
@@ -19244,7 +19227,7 @@
         <v>97</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C279" s="16" t="s">
         <v>205</v>
@@ -19257,7 +19240,7 @@
       </c>
       <c r="F279" s="17"/>
       <c r="G279" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -19265,7 +19248,7 @@
         <v>97</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C280" s="16" t="s">
         <v>206</v>
@@ -19274,7 +19257,7 @@
         <v>206</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F280" s="17"/>
       <c r="G280" s="17" t="s">
@@ -19286,20 +19269,20 @@
         <v>97</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E281" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F281" s="17"/>
       <c r="G281" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -19307,20 +19290,20 @@
         <v>97</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E282" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F282" s="17"/>
       <c r="G282" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -19328,218 +19311,312 @@
         <v>97</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C283" s="16"/>
-      <c r="D283" s="17"/>
-      <c r="E283" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E283" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
+      <c r="G283" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B284" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C284" s="16"/>
-      <c r="D284" s="17"/>
-      <c r="E284" s="17"/>
+      <c r="B284" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E284" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
+      <c r="G284" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B285" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C285" s="16"/>
-      <c r="D285" s="17"/>
-      <c r="E285" s="17"/>
+      <c r="B285" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E285" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F285" s="17"/>
-      <c r="G285" s="17"/>
+      <c r="G285" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C286" s="16"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
+        <v>538</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E286" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
+      <c r="G286" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C287" s="16"/>
-      <c r="D287" s="17"/>
-      <c r="E287" s="17"/>
+        <v>538</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E287" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F287" s="17"/>
-      <c r="G287" s="17"/>
+      <c r="G287" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C288" s="16"/>
-      <c r="D288" s="17"/>
-      <c r="E288" s="17"/>
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
+        <v>538</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E288" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F288" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="G288" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C289" s="16"/>
-      <c r="D289" s="17"/>
-      <c r="E289" s="17"/>
+        <v>538</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E289" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
+      <c r="G289" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
-        <v>97</v>
+        <v>538</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C290" s="16"/>
-      <c r="D290" s="17"/>
-      <c r="E290" s="17"/>
+        <v>392</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E290" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
+      <c r="G290" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
-        <v>97</v>
+        <v>538</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C291" s="16"/>
-      <c r="D291" s="17"/>
-      <c r="E291" s="17"/>
+        <v>393</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E291" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F291" s="17"/>
-      <c r="G291" s="17"/>
+      <c r="G291" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
-        <v>97</v>
+        <v>538</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C292" s="16"/>
-      <c r="D292" s="17"/>
-      <c r="E292" s="17"/>
+        <v>394</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E292" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F292" s="17"/>
-      <c r="G292" s="17"/>
+      <c r="G292" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C293" s="16"/>
-      <c r="D293" s="17"/>
-      <c r="E293" s="17"/>
+        <v>538</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D293" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E293" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F293" s="17"/>
-      <c r="G293" s="17"/>
+      <c r="G293" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
-        <v>97</v>
+        <v>538</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C294" s="16"/>
-      <c r="D294" s="17"/>
-      <c r="E294" s="17"/>
+        <v>396</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E294" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F294" s="17"/>
-      <c r="G294" s="17"/>
+      <c r="G294" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
-        <v>119</v>
+        <v>538</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D295" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E295" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F295" s="17" t="s">
-        <v>400</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F295" s="17"/>
       <c r="G295" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>119</v>
+        <v>538</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
       <c r="C296" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E296" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F296" s="17" t="s">
-        <v>400</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F296" s="17"/>
       <c r="G296" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
-        <v>119</v>
+        <v>538</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D297" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E297" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F297" s="17"/>
       <c r="G297" s="17" t="s">
@@ -19551,7 +19628,7 @@
         <v>119</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C298" s="16" t="s">
         <v>205</v>
@@ -19560,11 +19637,13 @@
         <v>205</v>
       </c>
       <c r="E298" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F298" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="F298" s="17" t="s">
+        <v>400</v>
+      </c>
       <c r="G298" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -19572,20 +19651,22 @@
         <v>119</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C299" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E299" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F299" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="F299" s="17" t="s">
+        <v>400</v>
+      </c>
       <c r="G299" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -19593,7 +19674,7 @@
         <v>119</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C300" s="16" t="s">
         <v>205</v>
@@ -19606,7 +19687,7 @@
       </c>
       <c r="F300" s="17"/>
       <c r="G300" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -19614,7 +19695,7 @@
         <v>119</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C301" s="16" t="s">
         <v>205</v>
@@ -19635,13 +19716,13 @@
         <v>119</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C302" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E302" s="17" t="s">
         <v>216</v>
@@ -19656,20 +19737,20 @@
         <v>119</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C303" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E303" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F303" s="17"/>
       <c r="G303" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -19677,16 +19758,16 @@
         <v>119</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D304" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F304" s="17"/>
       <c r="G304" s="17" t="s">
@@ -19698,7 +19779,7 @@
         <v>119</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C305" s="16" t="s">
         <v>205</v>
@@ -19719,7 +19800,7 @@
         <v>119</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>419</v>
+        <v>128</v>
       </c>
       <c r="C306" s="16" t="s">
         <v>205</v>
@@ -19732,7 +19813,7 @@
       </c>
       <c r="F306" s="17"/>
       <c r="G306" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -19740,16 +19821,16 @@
         <v>119</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E307" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F307" s="17"/>
       <c r="G307" s="17" t="s">
@@ -19761,7 +19842,7 @@
         <v>119</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C308" s="16" t="s">
         <v>205</v>
@@ -19770,7 +19851,7 @@
         <v>205</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F308" s="17"/>
       <c r="G308" s="17" t="s">
@@ -19782,7 +19863,7 @@
         <v>119</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C309" s="16" t="s">
         <v>205</v>
@@ -19803,7 +19884,7 @@
         <v>119</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C310" s="16" t="s">
         <v>205</v>
@@ -19812,7 +19893,7 @@
         <v>206</v>
       </c>
       <c r="E310" s="17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F310" s="17"/>
       <c r="G310" s="17" t="s">
@@ -19824,16 +19905,16 @@
         <v>119</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D311" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E311" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F311" s="17"/>
       <c r="G311" s="17" t="s">
@@ -19845,7 +19926,7 @@
         <v>119</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C312" s="16" t="s">
         <v>205</v>
@@ -19854,7 +19935,7 @@
         <v>205</v>
       </c>
       <c r="E312" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F312" s="17"/>
       <c r="G312" s="17" t="s">
@@ -19866,7 +19947,7 @@
         <v>119</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C313" s="16" t="s">
         <v>205</v>
@@ -19875,7 +19956,7 @@
         <v>206</v>
       </c>
       <c r="E313" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F313" s="17"/>
       <c r="G313" s="17" t="s">
@@ -19887,46 +19968,70 @@
         <v>119</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C314" s="16"/>
-      <c r="D314" s="17"/>
-      <c r="E314" s="17"/>
+        <v>136</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D314" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E314" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
+      <c r="G314" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C315" s="16"/>
-      <c r="D315" s="17"/>
-      <c r="E315" s="17"/>
+        <v>137</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D315" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E315" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F315" s="17"/>
-      <c r="G315" s="17"/>
+      <c r="G315" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C316" s="16"/>
-      <c r="D316" s="17"/>
-      <c r="E316" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D316" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E316" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F316" s="17"/>
-      <c r="G316" s="17"/>
+      <c r="G316" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C317" s="16"/>
       <c r="D317" s="17"/>
@@ -19939,7 +20044,7 @@
         <v>119</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C318" s="16"/>
       <c r="D318" s="17"/>
@@ -19952,7 +20057,7 @@
         <v>119</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C319" s="16"/>
       <c r="D319" s="17"/>
@@ -19965,7 +20070,7 @@
         <v>119</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C320" s="16"/>
       <c r="D320" s="17"/>
@@ -19978,7 +20083,7 @@
         <v>119</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C321" s="16"/>
       <c r="D321" s="17"/>
@@ -19991,7 +20096,7 @@
         <v>119</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C322" s="16"/>
       <c r="D322" s="17"/>
@@ -20004,7 +20109,7 @@
         <v>119</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C323" s="16"/>
       <c r="D323" s="17"/>
@@ -20017,7 +20122,7 @@
         <v>119</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C324" s="16"/>
       <c r="D324" s="17"/>
@@ -20030,7 +20135,7 @@
         <v>119</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C325" s="16"/>
       <c r="D325" s="17"/>
@@ -20043,7 +20148,7 @@
         <v>119</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C326" s="16"/>
       <c r="D326" s="17"/>
@@ -20056,7 +20161,7 @@
         <v>119</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C327" s="16"/>
       <c r="D327" s="17"/>
@@ -20069,7 +20174,7 @@
         <v>119</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C328" s="16"/>
       <c r="D328" s="17"/>
@@ -20082,7 +20187,7 @@
         <v>119</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C329" s="16"/>
       <c r="D329" s="17"/>
@@ -20095,7 +20200,7 @@
         <v>119</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C330" s="16"/>
       <c r="D330" s="17"/>
@@ -20107,71 +20212,47 @@
       <c r="A331" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B331" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C331" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D331" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E331" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F331" s="21"/>
-      <c r="G331" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="B331" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C331" s="16"/>
+      <c r="D331" s="17"/>
+      <c r="E331" s="17"/>
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B332" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C332" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D332" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E332" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F332" s="21"/>
-      <c r="G332" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="B332" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C332" s="16"/>
+      <c r="D332" s="17"/>
+      <c r="E332" s="17"/>
+      <c r="F332" s="17"/>
+      <c r="G332" s="17"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B333" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="C333" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D333" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E333" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F333" s="21"/>
-      <c r="G333" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="B333" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C333" s="16"/>
+      <c r="D333" s="17"/>
+      <c r="E333" s="17"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C334" s="20" t="s">
         <v>205</v>
@@ -20192,91 +20273,91 @@
         <v>119</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C335" s="20" t="s">
         <v>205</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E335" s="21" t="s">
         <v>216</v>
       </c>
       <c r="F335" s="21"/>
       <c r="G335" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C336" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E336" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F336" s="17"/>
-      <c r="G336" s="17" t="s">
-        <v>206</v>
+        <v>119</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C336" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D336" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E336" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F336" s="21"/>
+      <c r="G336" s="21" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C337" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D337" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E337" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F337" s="17"/>
-      <c r="G337" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C337" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D337" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E337" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F337" s="21"/>
+      <c r="G337" s="21" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C338" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D338" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E338" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F338" s="17"/>
-      <c r="G338" s="17" t="s">
-        <v>205</v>
+        <v>119</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C338" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E338" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F338" s="21"/>
+      <c r="G338" s="21" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B339" s="25" t="s">
-        <v>142</v>
+        <v>540</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C339" s="16" t="s">
         <v>206</v>
@@ -20285,7 +20366,7 @@
         <v>206</v>
       </c>
       <c r="E339" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F339" s="17"/>
       <c r="G339" s="17" t="s">
@@ -20294,16 +20375,16 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C340" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E340" s="17" t="s">
         <v>210</v>
@@ -20315,54 +20396,52 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C341" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E341" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F341" s="17" t="s">
-        <v>423</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F341" s="17"/>
       <c r="G341" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E342" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F342" s="17"/>
       <c r="G342" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C343" s="16" t="s">
         <v>205</v>
@@ -20371,7 +20450,7 @@
         <v>206</v>
       </c>
       <c r="E343" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F343" s="17"/>
       <c r="G343" s="17" t="s">
@@ -20380,31 +20459,33 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C344" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E344" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F344" s="17"/>
+        <v>221</v>
+      </c>
+      <c r="F344" s="17" t="s">
+        <v>423</v>
+      </c>
       <c r="G344" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C345" s="16" t="s">
         <v>205</v>
@@ -20413,7 +20494,7 @@
         <v>205</v>
       </c>
       <c r="E345" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F345" s="17"/>
       <c r="G345" s="17" t="s">
@@ -20422,19 +20503,19 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E346" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F346" s="17"/>
       <c r="G346" s="17" t="s">
@@ -20443,10 +20524,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C347" s="16" t="s">
         <v>205</v>
@@ -20464,361 +20545,603 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C348" s="16"/>
-      <c r="D348" s="17"/>
-      <c r="E348" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E348" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F348" s="17"/>
-      <c r="G348" s="17"/>
+      <c r="G348" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C349" s="16"/>
-      <c r="D349" s="17"/>
-      <c r="E349" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D349" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E349" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F349" s="17"/>
-      <c r="G349" s="17"/>
+      <c r="G349" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C350" s="16"/>
-      <c r="D350" s="17"/>
-      <c r="E350" s="17"/>
+        <v>150</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D350" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E350" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F350" s="17"/>
-      <c r="G350" s="17"/>
+      <c r="G350" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C351" s="16"/>
-      <c r="D351" s="17"/>
-      <c r="E351" s="17"/>
+        <v>425</v>
+      </c>
+      <c r="C351" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D351" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E351" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F351" s="17"/>
-      <c r="G351" s="17"/>
+      <c r="G351" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C352" s="16"/>
-      <c r="D352" s="17"/>
-      <c r="E352" s="17"/>
+        <v>426</v>
+      </c>
+      <c r="C352" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D352" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E352" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F352" s="17"/>
-      <c r="G352" s="17"/>
+      <c r="G352" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C353" s="16"/>
-      <c r="D353" s="17"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
+        <v>427</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D353" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E353" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F353" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G353" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C354" s="16"/>
-      <c r="D354" s="17"/>
-      <c r="E354" s="17"/>
-      <c r="F354" s="17"/>
-      <c r="G354" s="17"/>
+        <v>428</v>
+      </c>
+      <c r="C354" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D354" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E354" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F354" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="G354" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C355" s="16"/>
-      <c r="D355" s="17"/>
-      <c r="E355" s="17"/>
-      <c r="F355" s="17"/>
-      <c r="G355" s="17"/>
+        <v>429</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D355" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E355" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F355" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="G355" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C356" s="16"/>
-      <c r="D356" s="17"/>
-      <c r="E356" s="17"/>
+        <v>430</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D356" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E356" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F356" s="17"/>
-      <c r="G356" s="17"/>
+      <c r="G356" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C357" s="16"/>
-      <c r="D357" s="17"/>
-      <c r="E357" s="17"/>
+        <v>431</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D357" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E357" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F357" s="17"/>
-      <c r="G357" s="17"/>
+      <c r="G357" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C358" s="16"/>
-      <c r="D358" s="17"/>
-      <c r="E358" s="17"/>
-      <c r="F358" s="17"/>
-      <c r="G358" s="17"/>
+        <v>432</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D358" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E358" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F358" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G358" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C359" s="16"/>
-      <c r="D359" s="17"/>
-      <c r="E359" s="17"/>
+        <v>433</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D359" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E359" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F359" s="17"/>
-      <c r="G359" s="17"/>
+      <c r="G359" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C360" s="16"/>
-      <c r="D360" s="17"/>
-      <c r="E360" s="17"/>
-      <c r="F360" s="17"/>
-      <c r="G360" s="17"/>
+        <v>434</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D360" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E360" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F360" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G360" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C361" s="16"/>
-      <c r="D361" s="17"/>
-      <c r="E361" s="17"/>
-      <c r="F361" s="17"/>
-      <c r="G361" s="17"/>
+        <v>435</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D361" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E361" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F361" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G361" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C362" s="16"/>
-      <c r="D362" s="17"/>
-      <c r="E362" s="17"/>
-      <c r="F362" s="17"/>
-      <c r="G362" s="17"/>
+        <v>436</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D362" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E362" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F362" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="G362" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C363" s="16"/>
-      <c r="D363" s="17"/>
-      <c r="E363" s="17"/>
-      <c r="F363" s="17"/>
-      <c r="G363" s="17"/>
+        <v>437</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D363" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E363" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F363" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="G363" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C364" s="16"/>
-      <c r="D364" s="17"/>
-      <c r="E364" s="17"/>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
+        <v>438</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D364" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E364" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F364" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G364" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C365" s="16"/>
-      <c r="D365" s="17"/>
-      <c r="E365" s="17"/>
-      <c r="F365" s="17"/>
-      <c r="G365" s="17"/>
+        <v>439</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E365" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F365" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G365" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C366" s="16"/>
-      <c r="D366" s="17"/>
-      <c r="E366" s="17"/>
+        <v>440</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D366" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E366" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F366" s="17"/>
-      <c r="G366" s="17"/>
+      <c r="G366" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C367" s="16"/>
-      <c r="D367" s="17"/>
-      <c r="E367" s="17"/>
-      <c r="F367" s="17"/>
-      <c r="G367" s="17"/>
+        <v>441</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D367" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E367" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F367" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G367" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C368" s="16"/>
-      <c r="D368" s="17"/>
-      <c r="E368" s="17"/>
+        <v>442</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E368" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F368" s="17"/>
-      <c r="G368" s="17"/>
+      <c r="G368" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C369" s="16"/>
-      <c r="D369" s="17"/>
-      <c r="E369" s="17"/>
-      <c r="F369" s="17"/>
-      <c r="G369" s="17"/>
+        <v>443</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E369" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F369" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G369" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C370" s="16"/>
-      <c r="D370" s="17"/>
-      <c r="E370" s="17"/>
+        <v>445</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D370" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E370" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F370" s="17"/>
-      <c r="G370" s="17"/>
+      <c r="G370" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C371" s="16"/>
-      <c r="D371" s="17"/>
-      <c r="E371" s="17"/>
+        <v>446</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E371" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F371" s="17"/>
-      <c r="G371" s="17"/>
+      <c r="G371" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C372" s="16"/>
-      <c r="D372" s="17"/>
-      <c r="E372" s="17"/>
+        <v>447</v>
+      </c>
+      <c r="C372" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D372" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E372" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F372" s="17"/>
-      <c r="G372" s="17"/>
+      <c r="G372" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C373" s="16"/>
-      <c r="D373" s="17"/>
-      <c r="E373" s="17"/>
+        <v>448</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D373" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E373" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F373" s="17"/>
-      <c r="G373" s="17"/>
+      <c r="G373" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C374" s="16"/>
-      <c r="D374" s="17"/>
-      <c r="E374" s="17"/>
-      <c r="F374" s="17"/>
-      <c r="G374" s="17"/>
+        <v>449</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D374" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E374" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F374" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G374" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C375" s="16"/>
       <c r="D375" s="17"/>
@@ -20831,98 +21154,156 @@
         <v>444</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C376" s="16"/>
-      <c r="D376" s="17"/>
-      <c r="E376" s="17"/>
+        <v>451</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D376" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E376" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F376" s="17"/>
-      <c r="G376" s="17"/>
+      <c r="G376" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C377" s="16"/>
-      <c r="D377" s="17"/>
-      <c r="E377" s="17"/>
+        <v>452</v>
+      </c>
+      <c r="C377" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E377" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F377" s="17"/>
-      <c r="G377" s="17"/>
+      <c r="G377" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C378" s="16"/>
-      <c r="D378" s="17"/>
-      <c r="E378" s="17"/>
+        <v>453</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E378" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F378" s="17"/>
-      <c r="G378" s="17"/>
+      <c r="G378" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C379" s="16"/>
-      <c r="D379" s="17"/>
-      <c r="E379" s="17"/>
+        <v>454</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D379" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F379" s="17"/>
-      <c r="G379" s="17"/>
+      <c r="G379" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C380" s="16"/>
-      <c r="D380" s="17"/>
-      <c r="E380" s="17"/>
-      <c r="F380" s="17"/>
-      <c r="G380" s="17"/>
+        <v>455</v>
+      </c>
+      <c r="C380" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D380" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E380" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F380" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G380" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C381" s="16"/>
-      <c r="D381" s="17"/>
-      <c r="E381" s="17"/>
+        <v>456</v>
+      </c>
+      <c r="C381" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D381" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E381" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F381" s="17"/>
-      <c r="G381" s="17"/>
+      <c r="G381" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C382" s="16"/>
-      <c r="D382" s="17"/>
-      <c r="E382" s="17"/>
+        <v>457</v>
+      </c>
+      <c r="C382" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D382" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E382" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F382" s="17"/>
-      <c r="G382" s="17"/>
+      <c r="G382" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C383" s="16"/>
       <c r="D383" s="17"/>
@@ -20935,267 +21316,427 @@
         <v>444</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C384" s="16"/>
-      <c r="D384" s="17"/>
-      <c r="E384" s="17"/>
+        <v>459</v>
+      </c>
+      <c r="C384" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E384" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F384" s="17"/>
-      <c r="G384" s="17"/>
+      <c r="G384" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C385" s="16"/>
-      <c r="D385" s="17"/>
-      <c r="E385" s="17"/>
+        <v>460</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D385" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E385" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F385" s="17"/>
-      <c r="G385" s="17"/>
+      <c r="G385" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C386" s="16"/>
-      <c r="D386" s="17"/>
-      <c r="E386" s="17"/>
+        <v>461</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D386" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E386" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F386" s="17"/>
-      <c r="G386" s="17"/>
+      <c r="G386" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C387" s="16"/>
-      <c r="D387" s="17"/>
-      <c r="E387" s="17"/>
+        <v>462</v>
+      </c>
+      <c r="C387" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E387" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F387" s="17"/>
-      <c r="G387" s="17"/>
+      <c r="G387" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C388" s="16"/>
-      <c r="D388" s="17"/>
-      <c r="E388" s="17"/>
+        <v>463</v>
+      </c>
+      <c r="C388" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D388" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E388" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F388" s="17"/>
-      <c r="G388" s="17"/>
+      <c r="G388" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C389" s="16"/>
-      <c r="D389" s="17"/>
-      <c r="E389" s="17"/>
+        <v>464</v>
+      </c>
+      <c r="C389" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D389" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E389" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F389" s="17"/>
-      <c r="G389" s="17"/>
+      <c r="G389" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C390" s="16"/>
-      <c r="D390" s="17"/>
-      <c r="E390" s="17"/>
+        <v>465</v>
+      </c>
+      <c r="C390" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D390" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E390" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F390" s="17"/>
-      <c r="G390" s="17"/>
+      <c r="G390" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C391" s="16"/>
-      <c r="D391" s="17"/>
-      <c r="E391" s="17"/>
+        <v>466</v>
+      </c>
+      <c r="C391" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D391" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E391" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F391" s="17"/>
-      <c r="G391" s="17"/>
+      <c r="G391" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C392" s="16"/>
-      <c r="D392" s="17"/>
-      <c r="E392" s="17"/>
+        <v>467</v>
+      </c>
+      <c r="C392" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D392" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E392" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F392" s="17"/>
-      <c r="G392" s="17"/>
+      <c r="G392" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C393" s="16"/>
-      <c r="D393" s="17"/>
-      <c r="E393" s="17"/>
+        <v>468</v>
+      </c>
+      <c r="C393" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D393" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E393" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F393" s="17"/>
-      <c r="G393" s="17"/>
+      <c r="G393" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C394" s="16"/>
-      <c r="D394" s="17"/>
-      <c r="E394" s="17"/>
+        <v>469</v>
+      </c>
+      <c r="C394" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D394" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E394" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F394" s="17"/>
-      <c r="G394" s="17"/>
+      <c r="G394" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C395" s="16"/>
-      <c r="D395" s="17"/>
-      <c r="E395" s="17"/>
+        <v>470</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D395" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E395" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F395" s="17"/>
-      <c r="G395" s="17"/>
+      <c r="G395" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C396" s="16"/>
-      <c r="D396" s="17"/>
-      <c r="E396" s="17"/>
+        <v>471</v>
+      </c>
+      <c r="C396" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D396" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E396" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F396" s="17"/>
-      <c r="G396" s="17"/>
+      <c r="G396" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C397" s="16"/>
-      <c r="D397" s="17"/>
-      <c r="E397" s="17"/>
+        <v>472</v>
+      </c>
+      <c r="C397" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D397" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E397" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F397" s="17"/>
-      <c r="G397" s="17"/>
+      <c r="G397" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C398" s="16"/>
-      <c r="D398" s="17"/>
-      <c r="E398" s="17"/>
+        <v>473</v>
+      </c>
+      <c r="C398" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D398" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E398" s="17" t="s">
+        <v>210</v>
+      </c>
       <c r="F398" s="17"/>
-      <c r="G398" s="17"/>
+      <c r="G398" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C399" s="16"/>
-      <c r="D399" s="17"/>
-      <c r="E399" s="17"/>
+        <v>474</v>
+      </c>
+      <c r="C399" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D399" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E399" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F399" s="17"/>
-      <c r="G399" s="17"/>
+      <c r="G399" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C400" s="16"/>
-      <c r="D400" s="17"/>
-      <c r="E400" s="17"/>
+        <v>475</v>
+      </c>
+      <c r="C400" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D400" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E400" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F400" s="17"/>
-      <c r="G400" s="17"/>
+      <c r="G400" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C401" s="16"/>
-      <c r="D401" s="17"/>
-      <c r="E401" s="17"/>
+        <v>476</v>
+      </c>
+      <c r="C401" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D401" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E401" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F401" s="17"/>
-      <c r="G401" s="17"/>
+      <c r="G401" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C402" s="16"/>
-      <c r="D402" s="17"/>
-      <c r="E402" s="17"/>
+        <v>477</v>
+      </c>
+      <c r="C402" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D402" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E402" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F402" s="17"/>
-      <c r="G402" s="17"/>
+      <c r="G402" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C403" s="16"/>
-      <c r="D403" s="17"/>
-      <c r="E403" s="17"/>
+        <v>478</v>
+      </c>
+      <c r="C403" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D403" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E403" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F403" s="17"/>
-      <c r="G403" s="17"/>
+      <c r="G403" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C404" s="16"/>
       <c r="D404" s="17"/>
@@ -21208,23 +21749,31 @@
         <v>444</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C405" s="16"/>
-      <c r="D405" s="17"/>
-      <c r="E405" s="17"/>
+        <v>480</v>
+      </c>
+      <c r="C405" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D405" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E405" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F405" s="17"/>
-      <c r="G405" s="17"/>
+      <c r="G405" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>152</v>
+        <v>481</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D406" s="17" t="s">
         <v>206</v>
@@ -21234,15 +21783,15 @@
       </c>
       <c r="F406" s="17"/>
       <c r="G406" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>153</v>
+        <v>482</v>
       </c>
       <c r="C407" s="16" t="s">
         <v>205</v>
@@ -21257,21 +21806,21 @@
         <v>208</v>
       </c>
       <c r="G407" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>154</v>
+        <v>483</v>
       </c>
       <c r="C408" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D408" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E408" s="17" t="s">
         <v>209</v>
@@ -21286,7 +21835,7 @@
         <v>151</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C409" s="16" t="s">
         <v>206</v>
@@ -21295,11 +21844,9 @@
         <v>206</v>
       </c>
       <c r="E409" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F409" s="17" t="s">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F409" s="17"/>
       <c r="G409" s="17" t="s">
         <v>206</v>
       </c>
@@ -21309,7 +21856,7 @@
         <v>151</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C410" s="16" t="s">
         <v>205</v>
@@ -21324,7 +21871,7 @@
         <v>208</v>
       </c>
       <c r="G410" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
@@ -21332,20 +21879,18 @@
         <v>151</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D411" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E411" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F411" s="17" t="s">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F411" s="17"/>
       <c r="G411" s="17" t="s">
         <v>205</v>
       </c>
@@ -21355,10 +21900,10 @@
         <v>151</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D412" s="17" t="s">
         <v>206</v>
@@ -21378,20 +21923,22 @@
         <v>151</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D413" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E413" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F413" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F413" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="G413" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
@@ -21399,7 +21946,7 @@
         <v>151</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C414" s="16" t="s">
         <v>206</v>
@@ -21411,7 +21958,7 @@
         <v>207</v>
       </c>
       <c r="F414" s="17" t="s">
-        <v>484</v>
+        <v>208</v>
       </c>
       <c r="G414" s="17" t="s">
         <v>205</v>
@@ -21422,20 +21969,22 @@
         <v>151</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D415" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E415" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F415" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F415" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="G415" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
@@ -21443,7 +21992,7 @@
         <v>151</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C416" s="16" t="s">
         <v>206</v>
@@ -21456,7 +22005,7 @@
       </c>
       <c r="F416" s="17"/>
       <c r="G416" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
@@ -21464,20 +22013,22 @@
         <v>151</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D417" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E417" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F417" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F417" s="17" t="s">
+        <v>484</v>
+      </c>
       <c r="G417" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
@@ -21485,10 +22036,10 @@
         <v>151</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D418" s="17" t="s">
         <v>206</v>
@@ -21506,22 +22057,20 @@
         <v>151</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D419" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E419" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F419" s="17" t="s">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F419" s="17"/>
       <c r="G419" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
@@ -21529,7 +22078,7 @@
         <v>151</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C420" s="16" t="s">
         <v>205</v>
@@ -21542,7 +22091,7 @@
       </c>
       <c r="F420" s="17"/>
       <c r="G420" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
@@ -21550,7 +22099,7 @@
         <v>151</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C421" s="16" t="s">
         <v>205</v>
@@ -21563,7 +22112,7 @@
       </c>
       <c r="F421" s="17"/>
       <c r="G421" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
@@ -21571,67 +22120,93 @@
         <v>151</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D422" s="17" t="s">
         <v>206</v>
       </c>
       <c r="E422" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F422" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="F422" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="G422" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
-        <v>485</v>
+        <v>151</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C423" s="16"/>
-      <c r="D423" s="17"/>
-      <c r="E423" s="17"/>
+        <v>166</v>
+      </c>
+      <c r="C423" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D423" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E423" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F423" s="17"/>
-      <c r="G423" s="17"/>
+      <c r="G423" s="17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
-        <v>485</v>
+        <v>151</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="C424" s="16"/>
-      <c r="D424" s="17"/>
-      <c r="E424" s="17"/>
+        <v>167</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D424" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E424" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F424" s="17"/>
-      <c r="G424" s="17"/>
+      <c r="G424" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
-        <v>485</v>
+        <v>151</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C425" s="16"/>
-      <c r="D425" s="17"/>
-      <c r="E425" s="17"/>
+        <v>168</v>
+      </c>
+      <c r="C425" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D425" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E425" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="F425" s="17"/>
-      <c r="G425" s="17"/>
+      <c r="G425" s="17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C426" s="16"/>
       <c r="D426" s="17"/>
@@ -21644,7 +22219,7 @@
         <v>485</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C427" s="16"/>
       <c r="D427" s="17"/>
@@ -21657,7 +22232,7 @@
         <v>485</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C428" s="16"/>
       <c r="D428" s="17"/>
@@ -21670,7 +22245,7 @@
         <v>485</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C429" s="16"/>
       <c r="D429" s="17"/>
@@ -21683,7 +22258,7 @@
         <v>485</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C430" s="16"/>
       <c r="D430" s="17"/>
@@ -21696,7 +22271,7 @@
         <v>485</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C431" s="16"/>
       <c r="D431" s="17"/>
@@ -21709,7 +22284,7 @@
         <v>485</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C432" s="16"/>
       <c r="D432" s="17"/>
@@ -21722,7 +22297,7 @@
         <v>485</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C433" s="16"/>
       <c r="D433" s="17"/>
@@ -21735,7 +22310,7 @@
         <v>485</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C434" s="16"/>
       <c r="D434" s="17"/>
@@ -21748,7 +22323,7 @@
         <v>485</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C435" s="16"/>
       <c r="D435" s="17"/>
@@ -21761,7 +22336,7 @@
         <v>485</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C436" s="16"/>
       <c r="D436" s="17"/>
@@ -21773,47 +22348,47 @@
       <c r="A437" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B437" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="C437" s="23"/>
-      <c r="D437" s="24"/>
-      <c r="E437" s="24"/>
-      <c r="F437" s="24"/>
-      <c r="G437" s="24"/>
+      <c r="B437" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C437" s="16"/>
+      <c r="D437" s="17"/>
+      <c r="E437" s="17"/>
+      <c r="F437" s="17"/>
+      <c r="G437" s="17"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B438" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="C438" s="23"/>
-      <c r="D438" s="24"/>
-      <c r="E438" s="24"/>
-      <c r="F438" s="24"/>
-      <c r="G438" s="24"/>
+      <c r="B438" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C438" s="16"/>
+      <c r="D438" s="17"/>
+      <c r="E438" s="17"/>
+      <c r="F438" s="17"/>
+      <c r="G438" s="17"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B439" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="C439" s="23"/>
-      <c r="D439" s="24"/>
-      <c r="E439" s="24"/>
-      <c r="F439" s="24"/>
-      <c r="G439" s="24"/>
+      <c r="B439" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C439" s="16"/>
+      <c r="D439" s="17"/>
+      <c r="E439" s="17"/>
+      <c r="F439" s="17"/>
+      <c r="G439" s="17"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B440" s="22" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C440" s="23"/>
       <c r="D440" s="24"/>
@@ -21826,7 +22401,7 @@
         <v>485</v>
       </c>
       <c r="B441" s="22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C441" s="23"/>
       <c r="D441" s="24"/>
@@ -21835,43 +22410,43 @@
       <c r="G441" s="24"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A442" s="3" t="s">
+      <c r="A442" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B442" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C442" s="2"/>
-      <c r="D442" s="10"/>
-      <c r="E442" s="10"/>
-      <c r="F442" s="10"/>
-      <c r="G442" s="10"/>
+      <c r="B442" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C442" s="23"/>
+      <c r="D442" s="24"/>
+      <c r="E442" s="24"/>
+      <c r="F442" s="24"/>
+      <c r="G442" s="24"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B443" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C443" s="2"/>
-      <c r="D443" s="10"/>
-      <c r="E443" s="10"/>
-      <c r="F443" s="10"/>
-      <c r="G443" s="10"/>
+      <c r="B443" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C443" s="23"/>
+      <c r="D443" s="24"/>
+      <c r="E443" s="24"/>
+      <c r="F443" s="24"/>
+      <c r="G443" s="24"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B444" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C444" s="2"/>
-      <c r="D444" s="10"/>
-      <c r="E444" s="10"/>
-      <c r="F444" s="10"/>
-      <c r="G444" s="10"/>
+      <c r="B444" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C444" s="23"/>
+      <c r="D444" s="24"/>
+      <c r="E444" s="24"/>
+      <c r="F444" s="24"/>
+      <c r="G444" s="24"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
@@ -21901,7 +22476,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G446" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}"/>
-  <conditionalFormatting sqref="B442:B446">
+  <conditionalFormatting sqref="B445:B446">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F6B60-6D22-46A8-87FF-7F431B4C4C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74226F2-E0EC-4933-BBA1-EDF35E032EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$368</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">niveis_master!$A$1:$D$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">niveis_master!$A$1:$D$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">questionario!$A$1:$G$446</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="542">
   <si>
     <t>Grupo</t>
   </si>
@@ -2257,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M368"/>
+  <dimension ref="A1:M380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+      <selection activeCell="M370" sqref="M370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11833,6 +11833,318 @@
       </c>
       <c r="H368">
         <v>975</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" t="s">
+        <v>317</v>
+      </c>
+      <c r="B369" t="s">
+        <v>319</v>
+      </c>
+      <c r="C369">
+        <v>8</v>
+      </c>
+      <c r="D369" t="s">
+        <v>10</v>
+      </c>
+      <c r="E369">
+        <v>65</v>
+      </c>
+      <c r="F369" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369">
+        <v>57</v>
+      </c>
+      <c r="H369">
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" t="s">
+        <v>317</v>
+      </c>
+      <c r="B370" t="s">
+        <v>320</v>
+      </c>
+      <c r="C370">
+        <v>32</v>
+      </c>
+      <c r="D370" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370">
+        <v>58</v>
+      </c>
+      <c r="F370" t="s">
+        <v>11</v>
+      </c>
+      <c r="G370">
+        <v>26</v>
+      </c>
+      <c r="H370">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
+        <v>317</v>
+      </c>
+      <c r="B371" t="s">
+        <v>321</v>
+      </c>
+      <c r="C371">
+        <v>43</v>
+      </c>
+      <c r="D371" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371">
+        <v>76</v>
+      </c>
+      <c r="F371" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371">
+        <v>33</v>
+      </c>
+      <c r="H371">
+        <v>76.744186046511629</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372" t="s">
+        <v>317</v>
+      </c>
+      <c r="B372" t="s">
+        <v>322</v>
+      </c>
+      <c r="C372">
+        <v>44</v>
+      </c>
+      <c r="D372" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372">
+        <v>79</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372">
+        <v>35</v>
+      </c>
+      <c r="H372">
+        <v>79.545454545454547</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" t="s">
+        <v>317</v>
+      </c>
+      <c r="B373" t="s">
+        <v>323</v>
+      </c>
+      <c r="C373">
+        <v>16</v>
+      </c>
+      <c r="D373" t="s">
+        <v>10</v>
+      </c>
+      <c r="E373">
+        <v>52</v>
+      </c>
+      <c r="F373" t="s">
+        <v>11</v>
+      </c>
+      <c r="G373">
+        <v>36</v>
+      </c>
+      <c r="H373">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" t="s">
+        <v>317</v>
+      </c>
+      <c r="B374" t="s">
+        <v>326</v>
+      </c>
+      <c r="C374">
+        <v>34</v>
+      </c>
+      <c r="D374" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374">
+        <v>78</v>
+      </c>
+      <c r="F374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374">
+        <v>44</v>
+      </c>
+      <c r="H374">
+        <v>129.41176470588229</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375" t="s">
+        <v>317</v>
+      </c>
+      <c r="B375" t="s">
+        <v>327</v>
+      </c>
+      <c r="C375">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s">
+        <v>10</v>
+      </c>
+      <c r="E375">
+        <v>66</v>
+      </c>
+      <c r="F375" t="s">
+        <v>13</v>
+      </c>
+      <c r="G375">
+        <v>55</v>
+      </c>
+      <c r="H375">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" t="s">
+        <v>317</v>
+      </c>
+      <c r="B376" t="s">
+        <v>328</v>
+      </c>
+      <c r="C376">
+        <v>48</v>
+      </c>
+      <c r="D376" t="s">
+        <v>11</v>
+      </c>
+      <c r="E376">
+        <v>78</v>
+      </c>
+      <c r="F376" t="s">
+        <v>13</v>
+      </c>
+      <c r="G376">
+        <v>30</v>
+      </c>
+      <c r="H376">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" t="s">
+        <v>317</v>
+      </c>
+      <c r="B377" t="s">
+        <v>329</v>
+      </c>
+      <c r="C377">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>10</v>
+      </c>
+      <c r="E377">
+        <v>46</v>
+      </c>
+      <c r="F377" t="s">
+        <v>11</v>
+      </c>
+      <c r="G377">
+        <v>36</v>
+      </c>
+      <c r="H377">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378" t="s">
+        <v>317</v>
+      </c>
+      <c r="B378" t="s">
+        <v>330</v>
+      </c>
+      <c r="C378">
+        <v>55</v>
+      </c>
+      <c r="D378" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378">
+        <v>83</v>
+      </c>
+      <c r="F378" t="s">
+        <v>13</v>
+      </c>
+      <c r="G378">
+        <v>28</v>
+      </c>
+      <c r="H378">
+        <v>50.909090909090907</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>317</v>
+      </c>
+      <c r="B379" t="s">
+        <v>331</v>
+      </c>
+      <c r="C379">
+        <v>42</v>
+      </c>
+      <c r="D379" t="s">
+        <v>11</v>
+      </c>
+      <c r="E379">
+        <v>74</v>
+      </c>
+      <c r="F379" t="s">
+        <v>13</v>
+      </c>
+      <c r="G379">
+        <v>32</v>
+      </c>
+      <c r="H379">
+        <v>76.19047619047619</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" t="s">
+        <v>317</v>
+      </c>
+      <c r="B380" t="s">
+        <v>332</v>
+      </c>
+      <c r="C380">
+        <v>42</v>
+      </c>
+      <c r="D380" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380">
+        <v>78</v>
+      </c>
+      <c r="F380" t="s">
+        <v>13</v>
+      </c>
+      <c r="G380">
+        <v>36</v>
+      </c>
+      <c r="H380">
+        <v>85.714285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -11856,7 +12168,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11938,7 +12250,9 @@
       <c r="A5" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
@@ -11949,8 +12263,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12153,13 +12466,19 @@
       <c r="A18" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -12257,7 +12576,7 @@
     <row r="25" spans="1:6">
       <c r="F25" s="11">
         <f>SUM(F2:F24)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -12269,8 +12588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980A6F1-BABD-4539-B21B-961370C7D4F2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12351,10 +12670,10 @@
         <v>241</v>
       </c>
       <c r="B7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -12395,10 +12714,10 @@
         <v>317</v>
       </c>
       <c r="B11" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -12540,10 +12859,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D61"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12567,7 +12887,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -12581,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12609,7 +12929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -12623,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12651,7 +12971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -12665,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12693,7 +13013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -12707,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -12735,7 +13055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -12749,7 +13069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -12777,7 +13097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -12791,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -12819,7 +13139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -12833,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -12861,7 +13181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -12875,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12903,7 +13223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>505</v>
       </c>
@@ -12917,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>505</v>
       </c>
@@ -12945,7 +13265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -12959,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>506</v>
       </c>
@@ -12987,7 +13307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -13001,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" t="s">
         <v>284</v>
       </c>
@@ -13029,7 +13349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -13043,7 +13363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>444</v>
       </c>
@@ -13071,7 +13391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -13085,7 +13405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -13113,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -13127,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -13155,7 +13475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>349</v>
       </c>
@@ -13169,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -13197,7 +13517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
         <v>485</v>
       </c>
@@ -13211,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
         <v>485</v>
       </c>
@@ -13239,7 +13559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>260</v>
       </c>
@@ -13253,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -13281,7 +13601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" t="s">
         <v>424</v>
       </c>
@@ -13295,7 +13615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" t="s">
         <v>424</v>
       </c>
@@ -13323,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" t="s">
         <v>370</v>
       </c>
@@ -13337,7 +13657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -13365,50 +13685,98 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10">
+        <v>4</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1">
+      <c r="A60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="10">
+        <v>8</v>
+      </c>
+      <c r="D60" s="10">
         <v>3</v>
-      </c>
-      <c r="D59">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>302</v>
-      </c>
-      <c r="D60">
-        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="10">
+        <v>0</v>
+      </c>
+      <c r="D61" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>190</v>
       </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61">
-        <v>62</v>
-      </c>
-      <c r="D61">
-        <v>122</v>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>306</v>
+      </c>
+      <c r="D63">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1">
+      <c r="A64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>70</v>
+      </c>
+      <c r="D64">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D61" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:D64" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Avançado"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -13418,10 +13786,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E2:E20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13836,21 +14204,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
         <v>197</v>
       </c>
       <c r="C21">
-        <v>517</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>3679</v>
+        <v>142</v>
       </c>
       <c r="E21">
-        <v>3146</v>
+        <v>130</v>
       </c>
       <c r="F21">
+        <v>1083.333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22">
+        <v>529</v>
+      </c>
+      <c r="D22">
+        <v>3821</v>
+      </c>
+      <c r="E22">
+        <v>3276</v>
+      </c>
+      <c r="F22">
         <v>516.92913385826773</v>
       </c>
     </row>
@@ -13866,7 +14254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A07C7-17F1-48C4-8BE5-1F1E2F0FE537}">
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="G440" sqref="G440:G446"/>
     </sheetView>
   </sheetViews>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74226F2-E0EC-4933-BBA1-EDF35E032EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB3B5D0-2FF7-4DCE-ADAC-E5B41345BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$368</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">niveis_master!$A$1:$D$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">niveis_master!$A$1:$D$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">questionario!$A$1:$G$446</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="549">
   <si>
     <t>Grupo</t>
   </si>
@@ -1669,6 +1669,27 @@
   </si>
   <si>
     <t>Aviário</t>
+  </si>
+  <si>
+    <t>EDGAR ANTONIO RISSARDO -</t>
+  </si>
+  <si>
+    <t>IDROALDO DALRI -</t>
+  </si>
+  <si>
+    <t>JADES DOS ANJOS (filho)</t>
+  </si>
+  <si>
+    <t>JULIO CEREZOLI</t>
+  </si>
+  <si>
+    <t>LUAN PATRIC MILANI</t>
+  </si>
+  <si>
+    <t>LUCIMAR MORESCO</t>
+  </si>
+  <si>
+    <t>VINICIUS FORCELINI ANDRIGO</t>
   </si>
 </sst>
 </file>
@@ -2257,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M380"/>
+  <dimension ref="A1:M398"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M370" sqref="M370"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382:A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12145,6 +12166,456 @@
       </c>
       <c r="H380">
         <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381" t="s">
+        <v>241</v>
+      </c>
+      <c r="B381" t="s">
+        <v>256</v>
+      </c>
+      <c r="C381">
+        <v>34</v>
+      </c>
+      <c r="D381" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381">
+        <v>80</v>
+      </c>
+      <c r="F381" t="s">
+        <v>13</v>
+      </c>
+      <c r="G381">
+        <v>46</v>
+      </c>
+      <c r="H381">
+        <v>135.29411764705881</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" t="s">
+        <v>241</v>
+      </c>
+      <c r="B382" t="s">
+        <v>242</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382" t="s">
+        <v>10</v>
+      </c>
+      <c r="E382">
+        <v>88</v>
+      </c>
+      <c r="F382" t="s">
+        <v>13</v>
+      </c>
+      <c r="G382">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>241</v>
+      </c>
+      <c r="B383" t="s">
+        <v>542</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383">
+        <v>56</v>
+      </c>
+      <c r="F383" t="s">
+        <v>11</v>
+      </c>
+      <c r="G383">
+        <v>54</v>
+      </c>
+      <c r="H383">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" t="s">
+        <v>241</v>
+      </c>
+      <c r="B384" t="s">
+        <v>524</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384">
+        <v>82</v>
+      </c>
+      <c r="F384" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" t="s">
+        <v>241</v>
+      </c>
+      <c r="B385" t="s">
+        <v>543</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>10</v>
+      </c>
+      <c r="E385">
+        <v>87</v>
+      </c>
+      <c r="F385" t="s">
+        <v>13</v>
+      </c>
+      <c r="G385">
+        <v>85</v>
+      </c>
+      <c r="H385">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" t="s">
+        <v>241</v>
+      </c>
+      <c r="B386" t="s">
+        <v>544</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+      <c r="D386" t="s">
+        <v>10</v>
+      </c>
+      <c r="E386">
+        <v>87</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386">
+        <v>80</v>
+      </c>
+      <c r="H386">
+        <v>1142.8571428571429</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387" t="s">
+        <v>241</v>
+      </c>
+      <c r="B387" t="s">
+        <v>258</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387" t="s">
+        <v>10</v>
+      </c>
+      <c r="E387">
+        <v>82</v>
+      </c>
+      <c r="F387" t="s">
+        <v>13</v>
+      </c>
+      <c r="G387">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
+        <v>241</v>
+      </c>
+      <c r="B388" t="s">
+        <v>545</v>
+      </c>
+      <c r="C388">
+        <v>36</v>
+      </c>
+      <c r="D388" t="s">
+        <v>11</v>
+      </c>
+      <c r="E388">
+        <v>88</v>
+      </c>
+      <c r="F388" t="s">
+        <v>13</v>
+      </c>
+      <c r="G388">
+        <v>52</v>
+      </c>
+      <c r="H388">
+        <v>144.4444444444444</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389" t="s">
+        <v>241</v>
+      </c>
+      <c r="B389" t="s">
+        <v>259</v>
+      </c>
+      <c r="C389">
+        <v>3</v>
+      </c>
+      <c r="D389" t="s">
+        <v>10</v>
+      </c>
+      <c r="E389">
+        <v>77</v>
+      </c>
+      <c r="F389" t="s">
+        <v>13</v>
+      </c>
+      <c r="G389">
+        <v>74</v>
+      </c>
+      <c r="H389">
+        <v>2466.666666666667</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="A390" t="s">
+        <v>241</v>
+      </c>
+      <c r="B390" t="s">
+        <v>546</v>
+      </c>
+      <c r="C390">
+        <v>12</v>
+      </c>
+      <c r="D390" t="s">
+        <v>10</v>
+      </c>
+      <c r="E390">
+        <v>85</v>
+      </c>
+      <c r="F390" t="s">
+        <v>13</v>
+      </c>
+      <c r="G390">
+        <v>73</v>
+      </c>
+      <c r="H390">
+        <v>608.33333333333326</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" t="s">
+        <v>241</v>
+      </c>
+      <c r="B391" t="s">
+        <v>246</v>
+      </c>
+      <c r="C391">
+        <v>20</v>
+      </c>
+      <c r="D391" t="s">
+        <v>10</v>
+      </c>
+      <c r="E391">
+        <v>81</v>
+      </c>
+      <c r="F391" t="s">
+        <v>13</v>
+      </c>
+      <c r="G391">
+        <v>61</v>
+      </c>
+      <c r="H391">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" t="s">
+        <v>241</v>
+      </c>
+      <c r="B392" t="s">
+        <v>547</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>10</v>
+      </c>
+      <c r="E392">
+        <v>60</v>
+      </c>
+      <c r="F392" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392">
+        <v>58</v>
+      </c>
+      <c r="H392">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" t="s">
+        <v>241</v>
+      </c>
+      <c r="B393" t="s">
+        <v>248</v>
+      </c>
+      <c r="C393">
+        <v>7</v>
+      </c>
+      <c r="D393" t="s">
+        <v>10</v>
+      </c>
+      <c r="E393">
+        <v>78</v>
+      </c>
+      <c r="F393" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393">
+        <v>71</v>
+      </c>
+      <c r="H393">
+        <v>1014.285714285714</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394" t="s">
+        <v>241</v>
+      </c>
+      <c r="B394" t="s">
+        <v>250</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394" t="s">
+        <v>10</v>
+      </c>
+      <c r="E394">
+        <v>62</v>
+      </c>
+      <c r="F394" t="s">
+        <v>13</v>
+      </c>
+      <c r="G394">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" t="s">
+        <v>241</v>
+      </c>
+      <c r="B395" t="s">
+        <v>251</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395" t="s">
+        <v>10</v>
+      </c>
+      <c r="E395">
+        <v>58</v>
+      </c>
+      <c r="F395" t="s">
+        <v>11</v>
+      </c>
+      <c r="G395">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396" t="s">
+        <v>241</v>
+      </c>
+      <c r="B396" t="s">
+        <v>252</v>
+      </c>
+      <c r="C396">
+        <v>58</v>
+      </c>
+      <c r="D396" t="s">
+        <v>11</v>
+      </c>
+      <c r="E396">
+        <v>88</v>
+      </c>
+      <c r="F396" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396">
+        <v>30</v>
+      </c>
+      <c r="H396">
+        <v>51.724137931034477</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397" t="s">
+        <v>241</v>
+      </c>
+      <c r="B397" t="s">
+        <v>253</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397" t="s">
+        <v>10</v>
+      </c>
+      <c r="E397">
+        <v>59</v>
+      </c>
+      <c r="F397" t="s">
+        <v>11</v>
+      </c>
+      <c r="G397">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" t="s">
+        <v>241</v>
+      </c>
+      <c r="B398" t="s">
+        <v>548</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+      <c r="D398" t="s">
+        <v>10</v>
+      </c>
+      <c r="E398">
+        <v>61</v>
+      </c>
+      <c r="F398" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398">
+        <v>58</v>
+      </c>
+      <c r="H398">
+        <v>1933.333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -12589,7 +13060,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12859,11 +13330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12887,7 +13357,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -12901,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12929,7 +13399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -12943,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12971,7 +13441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -12985,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13013,7 +13483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -13027,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -13055,7 +13525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -13069,7 +13539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -13097,7 +13567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -13111,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -13139,7 +13609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -13153,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -13181,7 +13651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -13195,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -13223,7 +13693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>505</v>
       </c>
@@ -13237,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>505</v>
       </c>
@@ -13265,7 +13735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -13279,7 +13749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>506</v>
       </c>
@@ -13307,7 +13777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -13321,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>284</v>
       </c>
@@ -13349,7 +13819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -13363,7 +13833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>444</v>
       </c>
@@ -13391,7 +13861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -13405,7 +13875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -13433,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -13447,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -13475,7 +13945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>349</v>
       </c>
@@ -13489,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -13517,7 +13987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>485</v>
       </c>
@@ -13531,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>485</v>
       </c>
@@ -13559,7 +14029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>260</v>
       </c>
@@ -13573,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -13601,7 +14071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>424</v>
       </c>
@@ -13615,7 +14085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>424</v>
       </c>
@@ -13643,7 +14113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>370</v>
       </c>
@@ -13657,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -13685,7 +14155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>317</v>
       </c>
@@ -13699,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>317</v>
       </c>
@@ -13729,54 +14199,90 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="10">
+        <v>15</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="10">
+        <v>3</v>
+      </c>
+      <c r="D63" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>190</v>
       </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
         <v>3</v>
       </c>
-      <c r="D62">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1">
-      <c r="A63" t="s">
+      <c r="D65">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>190</v>
       </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63">
-        <v>306</v>
-      </c>
-      <c r="D63">
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>321</v>
+      </c>
+      <c r="D66">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
-      <c r="A64" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>190</v>
       </c>
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>70</v>
-      </c>
-      <c r="D64">
-        <v>125</v>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>73</v>
+      </c>
+      <c r="D67">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D64" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Avançado"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D67" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -13786,10 +14292,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14224,21 +14730,41 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
         <v>197</v>
       </c>
       <c r="C22">
-        <v>529</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>3821</v>
+        <v>209</v>
       </c>
       <c r="E22">
-        <v>3276</v>
+        <v>190</v>
       </c>
       <c r="F22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23">
+        <v>548</v>
+      </c>
+      <c r="D23">
+        <v>4030</v>
+      </c>
+      <c r="E23">
+        <v>3466</v>
+      </c>
+      <c r="F23">
         <v>516.92913385826773</v>
       </c>
     </row>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA169D9E-2B4E-4ECA-8AD4-6337E8D6665A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F107F9BA-FBCF-4A38-A530-FE5111333501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="questionario" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$418</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">niveis_master!$A$1:$D$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">questionario!$A$1:$G$446</definedName>
   </definedNames>
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M418"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A395" sqref="A395:A418"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13148,7 +13148,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H337" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:H418" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H302">
       <sortCondition ref="A1:A183"/>
     </sortState>
@@ -13588,8 +13588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980A6F1-BABD-4539-B21B-961370C7D4F2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13772,7 +13772,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13859,10 +13859,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+      <selection activeCell="C47" sqref="C47:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13886,7 +13887,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -13900,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13928,7 +13929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -13942,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -13970,7 +13971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -14012,7 +14013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -14026,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -14082,7 +14083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -14110,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -14124,7 +14125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -14138,7 +14139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -14166,7 +14167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -14180,7 +14181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -14222,7 +14223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>505</v>
       </c>
@@ -14236,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>505</v>
       </c>
@@ -14250,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>505</v>
       </c>
@@ -14264,7 +14265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>506</v>
       </c>
@@ -14292,7 +14293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>506</v>
       </c>
@@ -14306,7 +14307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -14320,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" t="s">
         <v>284</v>
       </c>
@@ -14334,7 +14335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>284</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>444</v>
       </c>
@@ -14376,7 +14377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>444</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -14460,7 +14461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>349</v>
       </c>
@@ -14488,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -14502,7 +14503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" t="s">
         <v>349</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>260</v>
       </c>
@@ -14572,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -14586,7 +14587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -14600,7 +14601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" t="s">
         <v>424</v>
       </c>
@@ -14614,7 +14615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" t="s">
         <v>424</v>
       </c>
@@ -14628,7 +14629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" t="s">
         <v>424</v>
       </c>
@@ -14642,7 +14643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" t="s">
         <v>370</v>
       </c>
@@ -14656,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -14670,7 +14671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" t="s">
         <v>370</v>
       </c>
@@ -14684,7 +14685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
         <v>317</v>
       </c>
@@ -14698,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" t="s">
         <v>317</v>
       </c>
@@ -14712,7 +14713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -14726,7 +14727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -14740,7 +14741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -14754,7 +14755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -14796,7 +14797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -14811,7 +14812,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D67" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:D67" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SANTA CLARA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -14823,7 +14830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44212479-BE61-46CF-A997-4766D71AC9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F259A7-C87F-4B0E-8EE1-FEDAEEB02D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="questionario" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo_master!$A$1:$H$430</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">niveis_master!$A$1:$D$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">questionario!$A$1:$G$446</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="558">
   <si>
     <t>Grupo</t>
   </si>
@@ -1711,6 +1711,12 @@
   </si>
   <si>
     <t>JAIRO MACHADO DA SILVA</t>
+  </si>
+  <si>
+    <t>GENECI MARIA BARBIERI ULIANA</t>
+  </si>
+  <si>
+    <t>MAURO MACHADO DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -2282,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M430"/>
+  <dimension ref="A1:M432"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13138,25 +13144,25 @@
         <v>505</v>
       </c>
       <c r="B419" t="s">
-        <v>176</v>
+        <v>556</v>
       </c>
       <c r="C419">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D419" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E419">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F419" t="s">
         <v>13</v>
       </c>
       <c r="G419">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H419">
-        <v>342.10526315789468</v>
+        <v>128.57142857142861</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13164,25 +13170,25 @@
         <v>505</v>
       </c>
       <c r="B420" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C420">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D420" t="s">
         <v>10</v>
       </c>
       <c r="E420">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F420" t="s">
         <v>13</v>
       </c>
       <c r="G420">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H420">
-        <v>966.66666666666663</v>
+        <v>342.10526315789468</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13190,7 +13196,7 @@
         <v>505</v>
       </c>
       <c r="B421" t="s">
-        <v>555</v>
+        <v>177</v>
       </c>
       <c r="C421">
         <v>6</v>
@@ -13199,16 +13205,16 @@
         <v>10</v>
       </c>
       <c r="E421">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F421" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G421">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H421">
-        <v>883.33333333333337</v>
+        <v>966.66666666666663</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13216,25 +13222,25 @@
         <v>505</v>
       </c>
       <c r="B422" t="s">
-        <v>178</v>
+        <v>555</v>
       </c>
       <c r="C422">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D422" t="s">
         <v>10</v>
       </c>
       <c r="E422">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F422" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G422">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H422">
-        <v>200</v>
+        <v>883.33333333333337</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13242,10 +13248,10 @@
         <v>505</v>
       </c>
       <c r="B423" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C423">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D423" t="s">
         <v>10</v>
@@ -13257,10 +13263,10 @@
         <v>13</v>
       </c>
       <c r="G423">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H423">
-        <v>326.31578947368422</v>
+        <v>200</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13268,16 +13274,16 @@
         <v>505</v>
       </c>
       <c r="B424" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C424">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D424" t="s">
         <v>10</v>
       </c>
       <c r="E424">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F424" t="s">
         <v>13</v>
@@ -13286,7 +13292,7 @@
         <v>62</v>
       </c>
       <c r="H424">
-        <v>258.33333333333343</v>
+        <v>326.31578947368422</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13294,25 +13300,25 @@
         <v>505</v>
       </c>
       <c r="B425" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C425">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D425" t="s">
         <v>10</v>
       </c>
       <c r="E425">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F425" t="s">
         <v>13</v>
       </c>
       <c r="G425">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H425">
-        <v>252.17391304347831</v>
+        <v>258.33333333333343</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13320,25 +13326,25 @@
         <v>505</v>
       </c>
       <c r="B426" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C426">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D426" t="s">
         <v>10</v>
       </c>
       <c r="E426">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F426" t="s">
         <v>13</v>
       </c>
       <c r="G426">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H426">
-        <v>383.33333333333343</v>
+        <v>252.17391304347831</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13346,25 +13352,25 @@
         <v>505</v>
       </c>
       <c r="B427" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C427">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D427" t="s">
         <v>10</v>
       </c>
       <c r="E427">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F427" t="s">
         <v>13</v>
       </c>
       <c r="G427">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H427">
-        <v>481.81818181818181</v>
+        <v>383.33333333333343</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13372,25 +13378,25 @@
         <v>505</v>
       </c>
       <c r="B428" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C428">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D428" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E428">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F428" t="s">
         <v>13</v>
       </c>
       <c r="G428">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H428">
-        <v>79.591836734693871</v>
+        <v>481.81818181818181</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13398,25 +13404,25 @@
         <v>505</v>
       </c>
       <c r="B429" t="s">
-        <v>185</v>
+        <v>557</v>
       </c>
       <c r="C429">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D429" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E429">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F429" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G429">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H429">
-        <v>161.29032258064521</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13424,29 +13430,81 @@
         <v>505</v>
       </c>
       <c r="B430" t="s">
+        <v>184</v>
+      </c>
+      <c r="C430">
+        <v>49</v>
+      </c>
+      <c r="D430" t="s">
+        <v>11</v>
+      </c>
+      <c r="E430">
+        <v>88</v>
+      </c>
+      <c r="F430" t="s">
+        <v>13</v>
+      </c>
+      <c r="G430">
+        <v>39</v>
+      </c>
+      <c r="H430">
+        <v>79.591836734693871</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" t="s">
+        <v>505</v>
+      </c>
+      <c r="B431" t="s">
+        <v>185</v>
+      </c>
+      <c r="C431">
+        <v>31</v>
+      </c>
+      <c r="D431" t="s">
+        <v>11</v>
+      </c>
+      <c r="E431">
+        <v>81</v>
+      </c>
+      <c r="F431" t="s">
+        <v>13</v>
+      </c>
+      <c r="G431">
+        <v>50</v>
+      </c>
+      <c r="H431">
+        <v>161.29032258064521</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" t="s">
+        <v>505</v>
+      </c>
+      <c r="B432" t="s">
         <v>186</v>
       </c>
-      <c r="C430">
+      <c r="C432">
         <v>3</v>
       </c>
-      <c r="D430" t="s">
-        <v>10</v>
-      </c>
-      <c r="E430">
+      <c r="D432" t="s">
+        <v>10</v>
+      </c>
+      <c r="E432">
         <v>80</v>
       </c>
-      <c r="F430" t="s">
-        <v>13</v>
-      </c>
-      <c r="G430">
+      <c r="F432" t="s">
+        <v>13</v>
+      </c>
+      <c r="G432">
         <v>77</v>
       </c>
-      <c r="H430">
+      <c r="H432">
         <v>2566.666666666667</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H410" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:H430" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H284">
       <sortCondition ref="A1:A165"/>
     </sortState>
@@ -13886,8 +13944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980A6F1-BABD-4539-B21B-961370C7D4F2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14070,7 +14128,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14157,11 +14215,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14185,7 +14242,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -14199,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -14213,7 +14270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -14227,7 +14284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -14241,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14255,7 +14312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -14269,7 +14326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -14283,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -14297,7 +14354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -14311,7 +14368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -14325,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -14339,7 +14396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -14353,7 +14410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -14367,7 +14424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -14381,7 +14438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -14395,7 +14452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -14409,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -14423,7 +14480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -14437,7 +14494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -14451,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -14465,7 +14522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -14479,7 +14536,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -14493,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -14507,7 +14564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -14529,7 +14586,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -14543,10 +14600,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -14560,10 +14617,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>506</v>
       </c>
@@ -14577,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>506</v>
       </c>
@@ -14591,7 +14648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>506</v>
       </c>
@@ -14605,7 +14662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -14619,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>284</v>
       </c>
@@ -14633,7 +14690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>284</v>
       </c>
@@ -14647,7 +14704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -14661,7 +14718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>444</v>
       </c>
@@ -14675,7 +14732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>444</v>
       </c>
@@ -14689,7 +14746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -14703,7 +14760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -14717,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -14731,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -14745,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -14759,7 +14816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -14773,7 +14830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>349</v>
       </c>
@@ -14787,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -14801,7 +14858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>349</v>
       </c>
@@ -14815,7 +14872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>485</v>
       </c>
@@ -14829,7 +14886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>485</v>
       </c>
@@ -14843,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>485</v>
       </c>
@@ -14857,7 +14914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>260</v>
       </c>
@@ -14871,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -14885,7 +14942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -14899,7 +14956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>424</v>
       </c>
@@ -14913,7 +14970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>424</v>
       </c>
@@ -14927,7 +14984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>424</v>
       </c>
@@ -14941,7 +14998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>370</v>
       </c>
@@ -14955,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -14969,7 +15026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>370</v>
       </c>
@@ -14983,7 +15040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>317</v>
       </c>
@@ -14997,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>317</v>
       </c>
@@ -15011,7 +15068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -15025,7 +15082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -15039,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -15053,7 +15110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -15067,7 +15124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>333</v>
       </c>
@@ -15081,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>333</v>
       </c>
@@ -15095,7 +15152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -15109,7 +15166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -15120,10 +15177,10 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -15131,13 +15188,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D69">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -15145,20 +15202,14 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D70">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D70" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="COTRIJUC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D70" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Aptos"&amp;12&amp;KFF0000 Confidencial&amp;1#_x000D_</oddHeader>
@@ -15170,8 +15221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15398,13 +15449,13 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="E11">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F11">
-        <v>823.07692307692298</v>
+        <v>915.38461538461536</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15675,10 +15726,10 @@
         <v>657</v>
       </c>
       <c r="D25">
-        <v>4559</v>
+        <v>4583</v>
       </c>
       <c r="E25">
-        <v>3886</v>
+        <v>3910</v>
       </c>
       <c r="F25">
         <v>516.92913385826773</v>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F259A7-C87F-4B0E-8EE1-FEDAEEB02D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0071C5FF-5460-4792-932D-C9B2C073102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo_master" sheetId="1" r:id="rId1"/>
@@ -2290,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A398" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
@@ -13523,8 +13523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02012A9-A707-4CB2-BD4F-48A3F382C569}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F24" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13667,10 +13667,12 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -13932,7 +13934,7 @@
     <row r="25" spans="1:6">
       <c r="F25" s="11">
         <f>SUM(F2:F24)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/master_resultados.xlsx
+++ b/master_resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardosa\Documents\docs relatórios ep\compilação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0071C5FF-5460-4792-932D-C9B2C073102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F5F89-D32B-4D50-8D9D-053538D901FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13523,7 +13523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02012A9-A707-4CB2-BD4F-48A3F382C569}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F24" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
